--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
@@ -180,7 +180,7 @@
     <t>FT_MasterCaseType_Interpolation</t>
   </si>
   <si>
-    <t>FT-All Field Data Types Interpolated</t>
+    <t>FT-Interpolated Test</t>
   </si>
   <si>
     <t xml:space="preserve">Test case containing all data types </t>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="590">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1503,33 +1503,6 @@
     <t>TabShowCondition</t>
   </si>
   <si>
-    <t>notApplicable</t>
-  </si>
-  <si>
-    <t>NameTab</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>TextField</t>
-  </si>
-  <si>
-    <t>DocumentField</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>CaseHistory</t>
-  </si>
-  <si>
-    <t>CaseLinkTab</t>
-  </si>
-  <si>
-    <t>Linked Cases</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -1774,75 +1747,6 @@
 MaxLength: 200</t>
   </si>
   <si>
-    <t>Text Field</t>
-  </si>
-  <si>
-    <t>TextAreaField</t>
-  </si>
-  <si>
-    <t>Text Area</t>
-  </si>
-  <si>
-    <t>AddressField</t>
-  </si>
-  <si>
-    <t>Address Field</t>
-  </si>
-  <si>
-    <t>PhoneField</t>
-  </si>
-  <si>
-    <t>Phone Field</t>
-  </si>
-  <si>
-    <t>NumberField</t>
-  </si>
-  <si>
-    <t>Number Field</t>
-  </si>
-  <si>
-    <t>YesNoField</t>
-  </si>
-  <si>
-    <t>Yes or No Field</t>
-  </si>
-  <si>
-    <t>CollectionField</t>
-  </si>
-  <si>
-    <t>Collection Field</t>
-  </si>
-  <si>
-    <t>MarritalStatus</t>
-  </si>
-  <si>
-    <t>Marrital Status Field</t>
-  </si>
-  <si>
-    <t>MoneyField</t>
-  </si>
-  <si>
-    <t>Money Field</t>
-  </si>
-  <si>
-    <t>Document Field</t>
-  </si>
-  <si>
-    <t>MultiSelectField</t>
-  </si>
-  <si>
-    <t>Multi Select Field</t>
-  </si>
-  <si>
-    <t>EmailField</t>
-  </si>
-  <si>
-    <t>Email Field</t>
-  </si>
-  <si>
-    <t>[STATE]</t>
-  </si>
-  <si>
     <t>SearchCasesResultFields</t>
   </si>
   <si>
@@ -1850,24 +1754,6 @@
   </si>
   <si>
     <t>UseCase</t>
-  </si>
-  <si>
-    <t>`Text` orgcases</t>
-  </si>
-  <si>
-    <t>1:ASC</t>
-  </si>
-  <si>
-    <t>orgcases</t>
-  </si>
-  <si>
-    <t>`Email` orgcases</t>
-  </si>
-  <si>
-    <t>[CASE_REFERENCE]</t>
-  </si>
-  <si>
-    <t>`CaseReference` orgcases</t>
   </si>
   <si>
     <t>SearchResultFields</t>
@@ -1884,19 +1770,10 @@
 Positive Integer</t>
   </si>
   <si>
-    <t>Case Reference</t>
-  </si>
-  <si>
     <t>WorkBasketInputFields</t>
   </si>
   <si>
     <t>WorkBasketResultFields</t>
-  </si>
-  <si>
-    <t>AddressUKField</t>
-  </si>
-  <si>
-    <t>LabelData</t>
   </si>
   <si>
     <t>UserProfile</t>
@@ -2630,7 +2507,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -3126,19 +3003,13 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="22" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="22" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -5657,31 +5528,15 @@
       <c r="CR3" s="66"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="77">
-        <v>42736</v>
-      </c>
+      <c r="A4" s="77"/>
       <c r="B4" s="77"/>
-      <c r="C4" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s" s="78">
-        <v>470</v>
-      </c>
-      <c r="E4" t="s" s="78">
-        <v>471</v>
-      </c>
-      <c r="F4" t="s" s="132">
-        <v>472</v>
-      </c>
-      <c r="G4" s="133">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s" s="78">
-        <v>473</v>
-      </c>
-      <c r="I4" s="133">
-        <v>1</v>
-      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
       <c r="L4" s="79"/>
@@ -5771,31 +5626,15 @@
       <c r="CR4" s="66"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="87">
-        <v>42736</v>
-      </c>
+      <c r="A5" s="87"/>
       <c r="B5" s="87"/>
-      <c r="C5" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s" s="88">
-        <v>470</v>
-      </c>
-      <c r="E5" t="s" s="88">
-        <v>471</v>
-      </c>
-      <c r="F5" t="s" s="134">
-        <v>472</v>
-      </c>
-      <c r="G5" s="135">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s" s="88">
-        <v>474</v>
-      </c>
-      <c r="I5" s="135">
-        <v>2</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="135"/>
       <c r="J5" s="89"/>
       <c r="K5" s="89"/>
       <c r="L5" s="89"/>
@@ -5885,31 +5724,15 @@
       <c r="CR5" s="66"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="77">
-        <v>42736</v>
-      </c>
+      <c r="A6" s="77"/>
       <c r="B6" s="77"/>
-      <c r="C6" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>470</v>
-      </c>
-      <c r="E6" t="s" s="78">
-        <v>475</v>
-      </c>
-      <c r="F6" t="s" s="132">
-        <v>475</v>
-      </c>
-      <c r="G6" s="133">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="78">
-        <v>476</v>
-      </c>
-      <c r="I6" s="133">
-        <v>1</v>
-      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="79"/>
       <c r="K6" s="79"/>
       <c r="L6" s="79"/>
@@ -5999,31 +5822,15 @@
       <c r="CR6" s="66"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="87">
-        <v>42736</v>
-      </c>
+      <c r="A7" s="87"/>
       <c r="B7" s="87"/>
-      <c r="C7" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s" s="88">
-        <v>470</v>
-      </c>
-      <c r="E7" t="s" s="88">
-        <v>477</v>
-      </c>
-      <c r="F7" t="s" s="134">
-        <v>478</v>
-      </c>
-      <c r="G7" s="135">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s" s="88">
-        <v>336</v>
-      </c>
-      <c r="I7" s="135">
-        <v>1</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="135"/>
       <c r="J7" s="89"/>
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
@@ -7025,7 +6832,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -7208,19 +7015,19 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s" s="139">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s" s="139">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s" s="139">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I2" s="65"/>
       <c r="J2" s="20"/>
@@ -7402,7 +7209,7 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="I3" s="65"/>
       <c r="J3" s="20"/>
@@ -7570,10 +7377,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="133">
@@ -7746,10 +7553,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="88">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F5" s="89"/>
       <c r="G5" s="135">
@@ -8121,7 +7928,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -8163,61 +7970,61 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E2" t="s" s="9">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s" s="9">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G2" t="s" s="9">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="I2" t="s" s="9">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s" s="9">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="K2" t="s" s="9">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L2" t="s" s="9">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M2" t="s" s="9">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N2" t="s" s="9">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="O2" t="s" s="9">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P2" t="s" s="9">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q2" t="s" s="9">
         <v>36</v>
       </c>
       <c r="R2" t="s" s="9">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="S2" t="s" s="9">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="T2" t="s" s="9">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="U2" t="s" s="9">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="V2" t="s" s="9">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="W2" s="86"/>
     </row>
@@ -8244,49 +8051,49 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="J3" t="s" s="84">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K3" t="s" s="141">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L3" t="s" s="141">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="M3" t="s" s="141">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="N3" t="s" s="141">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="O3" t="s" s="141">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="P3" t="s" s="141">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="Q3" t="s" s="84">
         <v>40</v>
       </c>
       <c r="R3" t="s" s="84">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="S3" t="s" s="84">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="T3" t="s" s="84">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="U3" t="s" s="84">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="V3" t="s" s="84">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="W3" s="86"/>
     </row>
@@ -8299,24 +8106,24 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F4" t="s" s="78">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G4" s="133">
         <v>1</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" t="s" s="78">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="J4" s="78"/>
       <c r="K4" t="s" s="78">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="L4" s="142"/>
       <c r="M4" s="142"/>
@@ -8346,22 +8153,22 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="88">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F5" t="s" s="88">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G5" s="135">
         <v>1</v>
       </c>
       <c r="H5" t="s" s="88">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I5" t="s" s="88">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="J5" s="88"/>
       <c r="K5" s="135"/>
@@ -8498,7 +8305,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -8536,44 +8343,44 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="104">
+        <v>515</v>
+      </c>
+      <c r="E2" t="s" s="104">
+        <v>516</v>
+      </c>
+      <c r="F2" t="s" s="139">
+        <v>517</v>
+      </c>
+      <c r="G2" t="s" s="139">
+        <v>518</v>
+      </c>
+      <c r="H2" t="s" s="139">
+        <v>519</v>
+      </c>
+      <c r="I2" t="s" s="139">
+        <v>520</v>
+      </c>
+      <c r="J2" t="s" s="139">
+        <v>521</v>
+      </c>
+      <c r="K2" t="s" s="139">
+        <v>522</v>
+      </c>
+      <c r="L2" t="s" s="139">
+        <v>523</v>
+      </c>
+      <c r="M2" t="s" s="104">
         <v>524</v>
-      </c>
-      <c r="E2" t="s" s="104">
-        <v>525</v>
-      </c>
-      <c r="F2" t="s" s="139">
-        <v>526</v>
-      </c>
-      <c r="G2" t="s" s="139">
-        <v>527</v>
-      </c>
-      <c r="H2" t="s" s="139">
-        <v>528</v>
-      </c>
-      <c r="I2" t="s" s="139">
-        <v>529</v>
-      </c>
-      <c r="J2" t="s" s="139">
-        <v>530</v>
-      </c>
-      <c r="K2" t="s" s="139">
-        <v>531</v>
-      </c>
-      <c r="L2" t="s" s="139">
-        <v>532</v>
-      </c>
-      <c r="M2" t="s" s="104">
-        <v>533</v>
       </c>
       <c r="N2" s="104"/>
       <c r="O2" t="s" s="139">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="P2" t="s" s="139">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="Q2" t="s" s="115">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="R2" s="26"/>
       <c r="S2" s="86"/>
@@ -8595,22 +8402,22 @@
         <v>366</v>
       </c>
       <c r="F3" t="s" s="84">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G3" t="s" s="84">
         <v>387</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="J3" t="s" s="84">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="K3" t="s" s="84">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="L3" t="s" s="84">
         <v>182</v>
@@ -8619,19 +8426,19 @@
         <v>183</v>
       </c>
       <c r="N3" t="s" s="84">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="O3" t="s" s="84">
         <v>184</v>
       </c>
       <c r="P3" t="s" s="84">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Q3" t="s" s="84">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="R3" t="s" s="141">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="S3" s="86"/>
     </row>
@@ -8644,7 +8451,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E4" t="s" s="71">
         <v>100</v>
@@ -8653,13 +8460,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H4" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I4" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J4" s="148">
         <v>21</v>
@@ -8685,7 +8492,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s" s="71">
         <v>107</v>
@@ -8694,13 +8501,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H5" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I5" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J5" s="148">
         <v>23</v>
@@ -8726,7 +8533,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s" s="71">
         <v>113</v>
@@ -8735,13 +8542,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H6" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I6" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J6" s="148">
         <v>25</v>
@@ -8767,7 +8574,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>116</v>
@@ -8776,13 +8583,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H7" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I7" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J7" s="148">
         <v>26</v>
@@ -8808,7 +8615,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E8" t="s" s="71">
         <v>120</v>
@@ -8817,13 +8624,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H8" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I8" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J8" s="148">
         <v>27</v>
@@ -8849,7 +8656,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E9" t="s" s="71">
         <v>123</v>
@@ -8858,13 +8665,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H9" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I9" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J9" s="148">
         <v>28</v>
@@ -8890,7 +8697,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E10" t="s" s="71">
         <v>126</v>
@@ -8899,13 +8706,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H10" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I10" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J10" s="148">
         <v>29</v>
@@ -8931,7 +8738,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s" s="71">
         <v>129</v>
@@ -8940,13 +8747,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H11" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I11" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J11" s="148">
         <v>30</v>
@@ -8972,7 +8779,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E12" t="s" s="71">
         <v>132</v>
@@ -8981,13 +8788,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I12" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J12" s="148">
         <v>31</v>
@@ -9013,7 +8820,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E13" t="s" s="71">
         <v>135</v>
@@ -9022,13 +8829,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H13" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I13" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J13" s="148">
         <v>32</v>
@@ -9054,7 +8861,7 @@
         <v>41</v>
       </c>
       <c r="D14" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E14" t="s" s="71">
         <v>139</v>
@@ -9063,13 +8870,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H14" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I14" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J14" s="148">
         <v>33</v>
@@ -9095,7 +8902,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E15" t="s" s="71">
         <v>144</v>
@@ -9104,13 +8911,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H15" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I15" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J15" s="148">
         <v>35</v>
@@ -9136,7 +8943,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E16" t="s" s="71">
         <v>147</v>
@@ -9145,13 +8952,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H16" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I16" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J16" s="148">
         <v>36</v>
@@ -9177,7 +8984,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E17" t="s" s="71">
         <v>151</v>
@@ -9186,13 +8993,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H17" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I17" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J17" s="148">
         <v>37</v>
@@ -9218,7 +9025,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E18" t="s" s="71">
         <v>154</v>
@@ -9227,13 +9034,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s" s="104">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H18" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I18" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J18" s="148">
         <v>38</v>
@@ -9259,7 +9066,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E19" t="s" s="71">
         <v>157</v>
@@ -9268,13 +9075,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H19" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I19" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J19" s="148">
         <v>39</v>
@@ -9300,7 +9107,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s" s="71">
         <v>160</v>
@@ -9309,13 +9116,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H20" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I20" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J20" s="148">
         <v>41</v>
@@ -9341,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s" s="71">
         <v>163</v>
@@ -9350,13 +9157,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H21" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I21" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J21" s="148">
         <v>42</v>
@@ -9382,7 +9189,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E22" t="s" s="71">
         <v>166</v>
@@ -9391,13 +9198,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H22" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I22" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J22" s="148">
         <v>43</v>
@@ -9423,7 +9230,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E23" t="s" s="71">
         <v>168</v>
@@ -9432,13 +9239,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H23" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I23" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J23" s="148">
         <v>44</v>
@@ -9464,7 +9271,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E24" t="s" s="71">
         <v>171</v>
@@ -9473,13 +9280,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="s" s="104">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H24" t="s" s="104">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I24" t="s" s="104">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J24" s="148">
         <v>45</v>
@@ -9527,7 +9334,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s" s="150">
         <v>1</v>
@@ -9555,11 +9362,11 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G2" t="s" s="139">
         <v>447</v>
@@ -9595,296 +9402,156 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A4" s="156"/>
       <c r="B4" s="156"/>
-      <c r="C4" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s" s="132">
-        <v>473</v>
-      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="132"/>
-      <c r="F4" t="s" s="132">
-        <v>551</v>
-      </c>
-      <c r="G4" s="157">
-        <v>1</v>
-      </c>
+      <c r="F4" s="132"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="132"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A5" s="158"/>
       <c r="B5" s="158"/>
-      <c r="C5" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s" s="88">
-        <v>552</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="88"/>
-      <c r="F5" t="s" s="88">
-        <v>553</v>
-      </c>
-      <c r="G5" s="159">
-        <v>2</v>
-      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="159"/>
       <c r="H5" s="160"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A6" s="156"/>
       <c r="B6" s="156"/>
-      <c r="C6" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>311</v>
-      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" t="s" s="132">
-        <v>313</v>
-      </c>
-      <c r="G6" s="157">
-        <v>3</v>
-      </c>
+      <c r="F6" s="132"/>
+      <c r="G6" s="157"/>
       <c r="H6" s="132"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A7" s="158"/>
       <c r="B7" s="158"/>
-      <c r="C7" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s" s="88">
-        <v>554</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="88"/>
-      <c r="F7" t="s" s="134">
-        <v>555</v>
-      </c>
-      <c r="G7" s="159">
-        <v>4</v>
-      </c>
+      <c r="F7" s="134"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="160"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A8" s="156"/>
       <c r="B8" s="156"/>
-      <c r="C8" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="78">
-        <v>556</v>
-      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="78"/>
-      <c r="F8" t="s" s="132">
-        <v>557</v>
-      </c>
-      <c r="G8" s="157">
-        <v>5</v>
-      </c>
+      <c r="F8" s="132"/>
+      <c r="G8" s="157"/>
       <c r="H8" s="132"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A9" s="158"/>
       <c r="B9" s="158"/>
-      <c r="C9" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s" s="88">
-        <v>558</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="88"/>
-      <c r="F9" t="s" s="134">
-        <v>559</v>
-      </c>
-      <c r="G9" s="159">
-        <v>6</v>
-      </c>
+      <c r="F9" s="134"/>
+      <c r="G9" s="159"/>
       <c r="H9" s="160"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A10" s="156"/>
       <c r="B10" s="156"/>
-      <c r="C10" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s" s="78">
-        <v>560</v>
-      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="78"/>
-      <c r="F10" t="s" s="132">
-        <v>561</v>
-      </c>
-      <c r="G10" s="157">
-        <v>7</v>
-      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="132"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A11" s="158"/>
       <c r="B11" s="158"/>
-      <c r="C11" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="88">
-        <v>562</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="88"/>
-      <c r="F11" t="s" s="88">
-        <v>563</v>
-      </c>
-      <c r="G11" s="159">
-        <v>8</v>
-      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="159"/>
       <c r="H11" s="160"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A12" s="156"/>
       <c r="B12" s="156"/>
-      <c r="C12" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="78">
-        <v>564</v>
-      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="78"/>
-      <c r="F12" t="s" s="78">
-        <v>565</v>
-      </c>
-      <c r="G12" s="157">
-        <v>9</v>
-      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="132"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A13" s="158"/>
       <c r="B13" s="158"/>
-      <c r="C13" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s" s="88">
-        <v>566</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="88"/>
-      <c r="F13" t="s" s="88">
-        <v>567</v>
-      </c>
-      <c r="G13" s="159">
-        <v>10</v>
-      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="160"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A14" s="156"/>
       <c r="B14" s="156"/>
-      <c r="C14" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s" s="78">
-        <v>474</v>
-      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="78"/>
-      <c r="F14" t="s" s="78">
-        <v>568</v>
-      </c>
-      <c r="G14" s="157">
-        <v>11</v>
-      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="157"/>
       <c r="H14" s="132"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A15" s="158"/>
       <c r="B15" s="158"/>
-      <c r="C15" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s" s="88">
-        <v>569</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="88"/>
-      <c r="F15" t="s" s="88">
-        <v>570</v>
-      </c>
-      <c r="G15" s="159">
-        <v>12</v>
-      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="160"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A16" s="156"/>
       <c r="B16" s="156"/>
-      <c r="C16" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s" s="78">
-        <v>571</v>
-      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="78"/>
-      <c r="F16" t="s" s="78">
-        <v>572</v>
-      </c>
-      <c r="G16" s="157">
-        <v>13</v>
-      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="157"/>
       <c r="H16" s="132"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A17" s="158"/>
       <c r="B17" s="158"/>
-      <c r="C17" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s" s="88">
-        <v>573</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="88"/>
-      <c r="F17" t="s" s="88">
-        <v>479</v>
-      </c>
-      <c r="G17" s="159">
-        <v>14</v>
-      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="160"/>
       <c r="I17" s="10"/>
     </row>
@@ -9977,7 +9644,7 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1">
       <c r="A1" t="s" s="163">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -10031,100 +9698,56 @@
         <v>393</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="J3" t="s" s="84">
         <v>184</v>
       </c>
       <c r="K3" t="s" s="84">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="L3" s="45"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="164">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="164">
-        <v>42736</v>
-      </c>
-      <c r="C4" t="s" s="90">
-        <v>41</v>
-      </c>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="91"/>
-      <c r="E4" t="s" s="90">
-        <v>473</v>
-      </c>
+      <c r="E4" s="91"/>
       <c r="F4" s="91"/>
-      <c r="G4" t="s" s="165">
-        <v>577</v>
-      </c>
-      <c r="H4" s="166">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="165">
-        <v>578</v>
-      </c>
+      <c r="G4" s="165"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="91"/>
-      <c r="K4" t="s" s="90">
-        <v>579</v>
-      </c>
+      <c r="K4" s="91"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="167">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="167">
-        <v>42736</v>
-      </c>
-      <c r="C5" t="s" s="44">
-        <v>41</v>
-      </c>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="127"/>
       <c r="D5" s="127"/>
-      <c r="E5" t="s" s="44">
-        <v>571</v>
-      </c>
+      <c r="E5" s="127"/>
       <c r="F5" s="127"/>
-      <c r="G5" t="s" s="168">
-        <v>580</v>
-      </c>
-      <c r="H5" s="169">
-        <v>2</v>
-      </c>
+      <c r="G5" s="167"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
-      <c r="K5" t="s" s="44">
-        <v>579</v>
-      </c>
+      <c r="K5" s="127"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="164">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="164">
-        <v>42736</v>
-      </c>
-      <c r="C6" t="s" s="90">
-        <v>41</v>
-      </c>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="91"/>
-      <c r="E6" t="s" s="90">
-        <v>581</v>
-      </c>
+      <c r="E6" s="91"/>
       <c r="F6" s="91"/>
-      <c r="G6" t="s" s="165">
-        <v>582</v>
-      </c>
-      <c r="H6" s="166">
-        <v>3</v>
-      </c>
+      <c r="G6" s="165"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
-      <c r="K6" t="s" s="90">
-        <v>579</v>
-      </c>
+      <c r="K6" s="91"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -10200,22 +9823,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="170" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="170" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="170" customWidth="1"/>
-    <col min="4" max="4" width="28.1719" style="170" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="170" customWidth="1"/>
-    <col min="6" max="6" width="23.8516" style="170" customWidth="1"/>
-    <col min="7" max="7" width="13.3516" style="170" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="170" customWidth="1"/>
-    <col min="9" max="9" width="43.1719" style="170" customWidth="1"/>
-    <col min="10" max="123" width="8.85156" style="170" customWidth="1"/>
-    <col min="124" max="16384" width="8.85156" style="170" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="168" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="168" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="168" customWidth="1"/>
+    <col min="4" max="4" width="28.1719" style="168" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="168" customWidth="1"/>
+    <col min="6" max="6" width="23.8516" style="168" customWidth="1"/>
+    <col min="7" max="7" width="13.3516" style="168" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="168" customWidth="1"/>
+    <col min="9" max="9" width="43.1719" style="168" customWidth="1"/>
+    <col min="10" max="123" width="8.85156" style="168" customWidth="1"/>
+    <col min="124" max="16384" width="8.85156" style="168" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -10231,120 +9854,120 @@
       <c r="G1" s="103"/>
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="172"/>
-      <c r="AK1" s="172"/>
-      <c r="AL1" s="172"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="172"/>
-      <c r="AO1" s="172"/>
-      <c r="AP1" s="172"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="172"/>
-      <c r="AU1" s="172"/>
-      <c r="AV1" s="172"/>
-      <c r="AW1" s="172"/>
-      <c r="AX1" s="172"/>
-      <c r="AY1" s="172"/>
-      <c r="AZ1" s="172"/>
-      <c r="BA1" s="172"/>
-      <c r="BB1" s="172"/>
-      <c r="BC1" s="172"/>
-      <c r="BD1" s="172"/>
-      <c r="BE1" s="172"/>
-      <c r="BF1" s="172"/>
-      <c r="BG1" s="172"/>
-      <c r="BH1" s="172"/>
-      <c r="BI1" s="172"/>
-      <c r="BJ1" s="172"/>
-      <c r="BK1" s="172"/>
-      <c r="BL1" s="172"/>
-      <c r="BM1" s="172"/>
-      <c r="BN1" s="172"/>
-      <c r="BO1" s="172"/>
-      <c r="BP1" s="172"/>
-      <c r="BQ1" s="172"/>
-      <c r="BR1" s="172"/>
-      <c r="BS1" s="172"/>
-      <c r="BT1" s="172"/>
-      <c r="BU1" s="172"/>
-      <c r="BV1" s="172"/>
-      <c r="BW1" s="172"/>
-      <c r="BX1" s="172"/>
-      <c r="BY1" s="172"/>
-      <c r="BZ1" s="172"/>
-      <c r="CA1" s="172"/>
-      <c r="CB1" s="172"/>
-      <c r="CC1" s="172"/>
-      <c r="CD1" s="172"/>
-      <c r="CE1" s="172"/>
-      <c r="CF1" s="172"/>
-      <c r="CG1" s="172"/>
-      <c r="CH1" s="172"/>
-      <c r="CI1" s="172"/>
-      <c r="CJ1" s="172"/>
-      <c r="CK1" s="172"/>
-      <c r="CL1" s="172"/>
-      <c r="CM1" s="172"/>
-      <c r="CN1" s="172"/>
-      <c r="CO1" s="172"/>
-      <c r="CP1" s="172"/>
-      <c r="CQ1" s="172"/>
-      <c r="CR1" s="172"/>
-      <c r="CS1" s="172"/>
-      <c r="CT1" s="172"/>
-      <c r="CU1" s="172"/>
-      <c r="CV1" s="172"/>
-      <c r="CW1" s="172"/>
-      <c r="CX1" s="172"/>
-      <c r="CY1" s="172"/>
-      <c r="CZ1" s="172"/>
-      <c r="DA1" s="172"/>
-      <c r="DB1" s="172"/>
-      <c r="DC1" s="172"/>
-      <c r="DD1" s="172"/>
-      <c r="DE1" s="172"/>
-      <c r="DF1" s="172"/>
-      <c r="DG1" s="172"/>
-      <c r="DH1" s="172"/>
-      <c r="DI1" s="172"/>
-      <c r="DJ1" s="172"/>
-      <c r="DK1" s="172"/>
-      <c r="DL1" s="172"/>
-      <c r="DM1" s="172"/>
-      <c r="DN1" s="172"/>
-      <c r="DO1" s="172"/>
-      <c r="DP1" s="172"/>
-      <c r="DQ1" s="172"/>
-      <c r="DR1" s="172"/>
-      <c r="DS1" s="173"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="170"/>
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="170"/>
+      <c r="AL1" s="170"/>
+      <c r="AM1" s="170"/>
+      <c r="AN1" s="170"/>
+      <c r="AO1" s="170"/>
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="170"/>
+      <c r="AT1" s="170"/>
+      <c r="AU1" s="170"/>
+      <c r="AV1" s="170"/>
+      <c r="AW1" s="170"/>
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="170"/>
+      <c r="BA1" s="170"/>
+      <c r="BB1" s="170"/>
+      <c r="BC1" s="170"/>
+      <c r="BD1" s="170"/>
+      <c r="BE1" s="170"/>
+      <c r="BF1" s="170"/>
+      <c r="BG1" s="170"/>
+      <c r="BH1" s="170"/>
+      <c r="BI1" s="170"/>
+      <c r="BJ1" s="170"/>
+      <c r="BK1" s="170"/>
+      <c r="BL1" s="170"/>
+      <c r="BM1" s="170"/>
+      <c r="BN1" s="170"/>
+      <c r="BO1" s="170"/>
+      <c r="BP1" s="170"/>
+      <c r="BQ1" s="170"/>
+      <c r="BR1" s="170"/>
+      <c r="BS1" s="170"/>
+      <c r="BT1" s="170"/>
+      <c r="BU1" s="170"/>
+      <c r="BV1" s="170"/>
+      <c r="BW1" s="170"/>
+      <c r="BX1" s="170"/>
+      <c r="BY1" s="170"/>
+      <c r="BZ1" s="170"/>
+      <c r="CA1" s="170"/>
+      <c r="CB1" s="170"/>
+      <c r="CC1" s="170"/>
+      <c r="CD1" s="170"/>
+      <c r="CE1" s="170"/>
+      <c r="CF1" s="170"/>
+      <c r="CG1" s="170"/>
+      <c r="CH1" s="170"/>
+      <c r="CI1" s="170"/>
+      <c r="CJ1" s="170"/>
+      <c r="CK1" s="170"/>
+      <c r="CL1" s="170"/>
+      <c r="CM1" s="170"/>
+      <c r="CN1" s="170"/>
+      <c r="CO1" s="170"/>
+      <c r="CP1" s="170"/>
+      <c r="CQ1" s="170"/>
+      <c r="CR1" s="170"/>
+      <c r="CS1" s="170"/>
+      <c r="CT1" s="170"/>
+      <c r="CU1" s="170"/>
+      <c r="CV1" s="170"/>
+      <c r="CW1" s="170"/>
+      <c r="CX1" s="170"/>
+      <c r="CY1" s="170"/>
+      <c r="CZ1" s="170"/>
+      <c r="DA1" s="170"/>
+      <c r="DB1" s="170"/>
+      <c r="DC1" s="170"/>
+      <c r="DD1" s="170"/>
+      <c r="DE1" s="170"/>
+      <c r="DF1" s="170"/>
+      <c r="DG1" s="170"/>
+      <c r="DH1" s="170"/>
+      <c r="DI1" s="170"/>
+      <c r="DJ1" s="170"/>
+      <c r="DK1" s="170"/>
+      <c r="DL1" s="170"/>
+      <c r="DM1" s="170"/>
+      <c r="DN1" s="170"/>
+      <c r="DO1" s="170"/>
+      <c r="DP1" s="170"/>
+      <c r="DQ1" s="170"/>
+      <c r="DR1" s="170"/>
+      <c r="DS1" s="171"/>
     </row>
     <row r="2" ht="41" customHeight="1">
       <c r="A2" t="s" s="139">
@@ -10357,130 +9980,130 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s" s="139">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="F2" s="139"/>
       <c r="G2" t="s" s="139">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="H2" s="127"/>
       <c r="I2" s="127"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="175"/>
-      <c r="BG2" s="175"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="175"/>
-      <c r="BL2" s="175"/>
-      <c r="BM2" s="175"/>
-      <c r="BN2" s="175"/>
-      <c r="BO2" s="175"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="175"/>
-      <c r="BS2" s="175"/>
-      <c r="BT2" s="175"/>
-      <c r="BU2" s="175"/>
-      <c r="BV2" s="175"/>
-      <c r="BW2" s="175"/>
-      <c r="BX2" s="175"/>
-      <c r="BY2" s="175"/>
-      <c r="BZ2" s="175"/>
-      <c r="CA2" s="175"/>
-      <c r="CB2" s="175"/>
-      <c r="CC2" s="175"/>
-      <c r="CD2" s="175"/>
-      <c r="CE2" s="175"/>
-      <c r="CF2" s="175"/>
-      <c r="CG2" s="175"/>
-      <c r="CH2" s="175"/>
-      <c r="CI2" s="175"/>
-      <c r="CJ2" s="175"/>
-      <c r="CK2" s="175"/>
-      <c r="CL2" s="175"/>
-      <c r="CM2" s="175"/>
-      <c r="CN2" s="175"/>
-      <c r="CO2" s="175"/>
-      <c r="CP2" s="175"/>
-      <c r="CQ2" s="175"/>
-      <c r="CR2" s="175"/>
-      <c r="CS2" s="175"/>
-      <c r="CT2" s="175"/>
-      <c r="CU2" s="175"/>
-      <c r="CV2" s="175"/>
-      <c r="CW2" s="175"/>
-      <c r="CX2" s="175"/>
-      <c r="CY2" s="175"/>
-      <c r="CZ2" s="175"/>
-      <c r="DA2" s="175"/>
-      <c r="DB2" s="175"/>
-      <c r="DC2" s="175"/>
-      <c r="DD2" s="175"/>
-      <c r="DE2" s="175"/>
-      <c r="DF2" s="175"/>
-      <c r="DG2" s="175"/>
-      <c r="DH2" s="175"/>
-      <c r="DI2" s="175"/>
-      <c r="DJ2" s="175"/>
-      <c r="DK2" s="175"/>
-      <c r="DL2" s="175"/>
-      <c r="DM2" s="175"/>
-      <c r="DN2" s="175"/>
-      <c r="DO2" s="175"/>
-      <c r="DP2" s="175"/>
-      <c r="DQ2" s="175"/>
-      <c r="DR2" s="175"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
+      <c r="AJ2" s="173"/>
+      <c r="AK2" s="173"/>
+      <c r="AL2" s="173"/>
+      <c r="AM2" s="173"/>
+      <c r="AN2" s="173"/>
+      <c r="AO2" s="173"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="173"/>
+      <c r="AR2" s="173"/>
+      <c r="AS2" s="173"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="173"/>
+      <c r="AV2" s="173"/>
+      <c r="AW2" s="173"/>
+      <c r="AX2" s="173"/>
+      <c r="AY2" s="173"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="173"/>
+      <c r="BB2" s="173"/>
+      <c r="BC2" s="173"/>
+      <c r="BD2" s="173"/>
+      <c r="BE2" s="173"/>
+      <c r="BF2" s="173"/>
+      <c r="BG2" s="173"/>
+      <c r="BH2" s="173"/>
+      <c r="BI2" s="173"/>
+      <c r="BJ2" s="173"/>
+      <c r="BK2" s="173"/>
+      <c r="BL2" s="173"/>
+      <c r="BM2" s="173"/>
+      <c r="BN2" s="173"/>
+      <c r="BO2" s="173"/>
+      <c r="BP2" s="173"/>
+      <c r="BQ2" s="173"/>
+      <c r="BR2" s="173"/>
+      <c r="BS2" s="173"/>
+      <c r="BT2" s="173"/>
+      <c r="BU2" s="173"/>
+      <c r="BV2" s="173"/>
+      <c r="BW2" s="173"/>
+      <c r="BX2" s="173"/>
+      <c r="BY2" s="173"/>
+      <c r="BZ2" s="173"/>
+      <c r="CA2" s="173"/>
+      <c r="CB2" s="173"/>
+      <c r="CC2" s="173"/>
+      <c r="CD2" s="173"/>
+      <c r="CE2" s="173"/>
+      <c r="CF2" s="173"/>
+      <c r="CG2" s="173"/>
+      <c r="CH2" s="173"/>
+      <c r="CI2" s="173"/>
+      <c r="CJ2" s="173"/>
+      <c r="CK2" s="173"/>
+      <c r="CL2" s="173"/>
+      <c r="CM2" s="173"/>
+      <c r="CN2" s="173"/>
+      <c r="CO2" s="173"/>
+      <c r="CP2" s="173"/>
+      <c r="CQ2" s="173"/>
+      <c r="CR2" s="173"/>
+      <c r="CS2" s="173"/>
+      <c r="CT2" s="173"/>
+      <c r="CU2" s="173"/>
+      <c r="CV2" s="173"/>
+      <c r="CW2" s="173"/>
+      <c r="CX2" s="173"/>
+      <c r="CY2" s="173"/>
+      <c r="CZ2" s="173"/>
+      <c r="DA2" s="173"/>
+      <c r="DB2" s="173"/>
+      <c r="DC2" s="173"/>
+      <c r="DD2" s="173"/>
+      <c r="DE2" s="173"/>
+      <c r="DF2" s="173"/>
+      <c r="DG2" s="173"/>
+      <c r="DH2" s="173"/>
+      <c r="DI2" s="173"/>
+      <c r="DJ2" s="173"/>
+      <c r="DK2" s="173"/>
+      <c r="DL2" s="173"/>
+      <c r="DM2" s="173"/>
+      <c r="DN2" s="173"/>
+      <c r="DO2" s="173"/>
+      <c r="DP2" s="173"/>
+      <c r="DQ2" s="173"/>
+      <c r="DR2" s="173"/>
       <c r="DS2" s="18"/>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -10506,534 +10129,504 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="155">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="I3" t="s" s="155">
         <v>184</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
-      <c r="BA3" s="175"/>
-      <c r="BB3" s="175"/>
-      <c r="BC3" s="175"/>
-      <c r="BD3" s="175"/>
-      <c r="BE3" s="175"/>
-      <c r="BF3" s="175"/>
-      <c r="BG3" s="175"/>
-      <c r="BH3" s="175"/>
-      <c r="BI3" s="175"/>
-      <c r="BJ3" s="175"/>
-      <c r="BK3" s="175"/>
-      <c r="BL3" s="175"/>
-      <c r="BM3" s="175"/>
-      <c r="BN3" s="175"/>
-      <c r="BO3" s="175"/>
-      <c r="BP3" s="175"/>
-      <c r="BQ3" s="175"/>
-      <c r="BR3" s="175"/>
-      <c r="BS3" s="175"/>
-      <c r="BT3" s="175"/>
-      <c r="BU3" s="175"/>
-      <c r="BV3" s="175"/>
-      <c r="BW3" s="175"/>
-      <c r="BX3" s="175"/>
-      <c r="BY3" s="175"/>
-      <c r="BZ3" s="175"/>
-      <c r="CA3" s="175"/>
-      <c r="CB3" s="175"/>
-      <c r="CC3" s="175"/>
-      <c r="CD3" s="175"/>
-      <c r="CE3" s="175"/>
-      <c r="CF3" s="175"/>
-      <c r="CG3" s="175"/>
-      <c r="CH3" s="175"/>
-      <c r="CI3" s="175"/>
-      <c r="CJ3" s="175"/>
-      <c r="CK3" s="175"/>
-      <c r="CL3" s="175"/>
-      <c r="CM3" s="175"/>
-      <c r="CN3" s="175"/>
-      <c r="CO3" s="175"/>
-      <c r="CP3" s="175"/>
-      <c r="CQ3" s="175"/>
-      <c r="CR3" s="175"/>
-      <c r="CS3" s="175"/>
-      <c r="CT3" s="175"/>
-      <c r="CU3" s="175"/>
-      <c r="CV3" s="175"/>
-      <c r="CW3" s="175"/>
-      <c r="CX3" s="175"/>
-      <c r="CY3" s="175"/>
-      <c r="CZ3" s="175"/>
-      <c r="DA3" s="175"/>
-      <c r="DB3" s="175"/>
-      <c r="DC3" s="175"/>
-      <c r="DD3" s="175"/>
-      <c r="DE3" s="175"/>
-      <c r="DF3" s="175"/>
-      <c r="DG3" s="175"/>
-      <c r="DH3" s="175"/>
-      <c r="DI3" s="175"/>
-      <c r="DJ3" s="175"/>
-      <c r="DK3" s="175"/>
-      <c r="DL3" s="175"/>
-      <c r="DM3" s="175"/>
-      <c r="DN3" s="175"/>
-      <c r="DO3" s="175"/>
-      <c r="DP3" s="175"/>
-      <c r="DQ3" s="175"/>
-      <c r="DR3" s="175"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="173"/>
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="173"/>
+      <c r="AN3" s="173"/>
+      <c r="AO3" s="173"/>
+      <c r="AP3" s="173"/>
+      <c r="AQ3" s="173"/>
+      <c r="AR3" s="173"/>
+      <c r="AS3" s="173"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="173"/>
+      <c r="AW3" s="173"/>
+      <c r="AX3" s="173"/>
+      <c r="AY3" s="173"/>
+      <c r="AZ3" s="173"/>
+      <c r="BA3" s="173"/>
+      <c r="BB3" s="173"/>
+      <c r="BC3" s="173"/>
+      <c r="BD3" s="173"/>
+      <c r="BE3" s="173"/>
+      <c r="BF3" s="173"/>
+      <c r="BG3" s="173"/>
+      <c r="BH3" s="173"/>
+      <c r="BI3" s="173"/>
+      <c r="BJ3" s="173"/>
+      <c r="BK3" s="173"/>
+      <c r="BL3" s="173"/>
+      <c r="BM3" s="173"/>
+      <c r="BN3" s="173"/>
+      <c r="BO3" s="173"/>
+      <c r="BP3" s="173"/>
+      <c r="BQ3" s="173"/>
+      <c r="BR3" s="173"/>
+      <c r="BS3" s="173"/>
+      <c r="BT3" s="173"/>
+      <c r="BU3" s="173"/>
+      <c r="BV3" s="173"/>
+      <c r="BW3" s="173"/>
+      <c r="BX3" s="173"/>
+      <c r="BY3" s="173"/>
+      <c r="BZ3" s="173"/>
+      <c r="CA3" s="173"/>
+      <c r="CB3" s="173"/>
+      <c r="CC3" s="173"/>
+      <c r="CD3" s="173"/>
+      <c r="CE3" s="173"/>
+      <c r="CF3" s="173"/>
+      <c r="CG3" s="173"/>
+      <c r="CH3" s="173"/>
+      <c r="CI3" s="173"/>
+      <c r="CJ3" s="173"/>
+      <c r="CK3" s="173"/>
+      <c r="CL3" s="173"/>
+      <c r="CM3" s="173"/>
+      <c r="CN3" s="173"/>
+      <c r="CO3" s="173"/>
+      <c r="CP3" s="173"/>
+      <c r="CQ3" s="173"/>
+      <c r="CR3" s="173"/>
+      <c r="CS3" s="173"/>
+      <c r="CT3" s="173"/>
+      <c r="CU3" s="173"/>
+      <c r="CV3" s="173"/>
+      <c r="CW3" s="173"/>
+      <c r="CX3" s="173"/>
+      <c r="CY3" s="173"/>
+      <c r="CZ3" s="173"/>
+      <c r="DA3" s="173"/>
+      <c r="DB3" s="173"/>
+      <c r="DC3" s="173"/>
+      <c r="DD3" s="173"/>
+      <c r="DE3" s="173"/>
+      <c r="DF3" s="173"/>
+      <c r="DG3" s="173"/>
+      <c r="DH3" s="173"/>
+      <c r="DI3" s="173"/>
+      <c r="DJ3" s="173"/>
+      <c r="DK3" s="173"/>
+      <c r="DL3" s="173"/>
+      <c r="DM3" s="173"/>
+      <c r="DN3" s="173"/>
+      <c r="DO3" s="173"/>
+      <c r="DP3" s="173"/>
+      <c r="DQ3" s="173"/>
+      <c r="DR3" s="173"/>
       <c r="DS3" s="18"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="77">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="176"/>
-      <c r="C4" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s" s="78">
-        <v>581</v>
-      </c>
-      <c r="E4" t="s" s="132">
-        <v>587</v>
-      </c>
+      <c r="A4" s="77"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="157"/>
-      <c r="G4" s="121">
-        <v>1</v>
-      </c>
+      <c r="G4" s="79"/>
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="175"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="175"/>
-      <c r="AM4" s="175"/>
-      <c r="AN4" s="175"/>
-      <c r="AO4" s="175"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="175"/>
-      <c r="AT4" s="175"/>
-      <c r="AU4" s="175"/>
-      <c r="AV4" s="175"/>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="175"/>
-      <c r="AY4" s="175"/>
-      <c r="AZ4" s="175"/>
-      <c r="BA4" s="175"/>
-      <c r="BB4" s="175"/>
-      <c r="BC4" s="175"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="175"/>
-      <c r="BF4" s="175"/>
-      <c r="BG4" s="175"/>
-      <c r="BH4" s="175"/>
-      <c r="BI4" s="175"/>
-      <c r="BJ4" s="175"/>
-      <c r="BK4" s="175"/>
-      <c r="BL4" s="175"/>
-      <c r="BM4" s="175"/>
-      <c r="BN4" s="175"/>
-      <c r="BO4" s="175"/>
-      <c r="BP4" s="175"/>
-      <c r="BQ4" s="175"/>
-      <c r="BR4" s="175"/>
-      <c r="BS4" s="175"/>
-      <c r="BT4" s="175"/>
-      <c r="BU4" s="175"/>
-      <c r="BV4" s="175"/>
-      <c r="BW4" s="175"/>
-      <c r="BX4" s="175"/>
-      <c r="BY4" s="175"/>
-      <c r="BZ4" s="175"/>
-      <c r="CA4" s="175"/>
-      <c r="CB4" s="175"/>
-      <c r="CC4" s="175"/>
-      <c r="CD4" s="175"/>
-      <c r="CE4" s="175"/>
-      <c r="CF4" s="175"/>
-      <c r="CG4" s="175"/>
-      <c r="CH4" s="175"/>
-      <c r="CI4" s="175"/>
-      <c r="CJ4" s="175"/>
-      <c r="CK4" s="175"/>
-      <c r="CL4" s="175"/>
-      <c r="CM4" s="175"/>
-      <c r="CN4" s="175"/>
-      <c r="CO4" s="175"/>
-      <c r="CP4" s="175"/>
-      <c r="CQ4" s="175"/>
-      <c r="CR4" s="175"/>
-      <c r="CS4" s="175"/>
-      <c r="CT4" s="175"/>
-      <c r="CU4" s="175"/>
-      <c r="CV4" s="175"/>
-      <c r="CW4" s="175"/>
-      <c r="CX4" s="175"/>
-      <c r="CY4" s="175"/>
-      <c r="CZ4" s="175"/>
-      <c r="DA4" s="175"/>
-      <c r="DB4" s="175"/>
-      <c r="DC4" s="175"/>
-      <c r="DD4" s="175"/>
-      <c r="DE4" s="175"/>
-      <c r="DF4" s="175"/>
-      <c r="DG4" s="175"/>
-      <c r="DH4" s="175"/>
-      <c r="DI4" s="175"/>
-      <c r="DJ4" s="175"/>
-      <c r="DK4" s="175"/>
-      <c r="DL4" s="175"/>
-      <c r="DM4" s="175"/>
-      <c r="DN4" s="175"/>
-      <c r="DO4" s="175"/>
-      <c r="DP4" s="175"/>
-      <c r="DQ4" s="175"/>
-      <c r="DR4" s="175"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="173"/>
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="173"/>
+      <c r="AL4" s="173"/>
+      <c r="AM4" s="173"/>
+      <c r="AN4" s="173"/>
+      <c r="AO4" s="173"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="173"/>
+      <c r="AT4" s="173"/>
+      <c r="AU4" s="173"/>
+      <c r="AV4" s="173"/>
+      <c r="AW4" s="173"/>
+      <c r="AX4" s="173"/>
+      <c r="AY4" s="173"/>
+      <c r="AZ4" s="173"/>
+      <c r="BA4" s="173"/>
+      <c r="BB4" s="173"/>
+      <c r="BC4" s="173"/>
+      <c r="BD4" s="173"/>
+      <c r="BE4" s="173"/>
+      <c r="BF4" s="173"/>
+      <c r="BG4" s="173"/>
+      <c r="BH4" s="173"/>
+      <c r="BI4" s="173"/>
+      <c r="BJ4" s="173"/>
+      <c r="BK4" s="173"/>
+      <c r="BL4" s="173"/>
+      <c r="BM4" s="173"/>
+      <c r="BN4" s="173"/>
+      <c r="BO4" s="173"/>
+      <c r="BP4" s="173"/>
+      <c r="BQ4" s="173"/>
+      <c r="BR4" s="173"/>
+      <c r="BS4" s="173"/>
+      <c r="BT4" s="173"/>
+      <c r="BU4" s="173"/>
+      <c r="BV4" s="173"/>
+      <c r="BW4" s="173"/>
+      <c r="BX4" s="173"/>
+      <c r="BY4" s="173"/>
+      <c r="BZ4" s="173"/>
+      <c r="CA4" s="173"/>
+      <c r="CB4" s="173"/>
+      <c r="CC4" s="173"/>
+      <c r="CD4" s="173"/>
+      <c r="CE4" s="173"/>
+      <c r="CF4" s="173"/>
+      <c r="CG4" s="173"/>
+      <c r="CH4" s="173"/>
+      <c r="CI4" s="173"/>
+      <c r="CJ4" s="173"/>
+      <c r="CK4" s="173"/>
+      <c r="CL4" s="173"/>
+      <c r="CM4" s="173"/>
+      <c r="CN4" s="173"/>
+      <c r="CO4" s="173"/>
+      <c r="CP4" s="173"/>
+      <c r="CQ4" s="173"/>
+      <c r="CR4" s="173"/>
+      <c r="CS4" s="173"/>
+      <c r="CT4" s="173"/>
+      <c r="CU4" s="173"/>
+      <c r="CV4" s="173"/>
+      <c r="CW4" s="173"/>
+      <c r="CX4" s="173"/>
+      <c r="CY4" s="173"/>
+      <c r="CZ4" s="173"/>
+      <c r="DA4" s="173"/>
+      <c r="DB4" s="173"/>
+      <c r="DC4" s="173"/>
+      <c r="DD4" s="173"/>
+      <c r="DE4" s="173"/>
+      <c r="DF4" s="173"/>
+      <c r="DG4" s="173"/>
+      <c r="DH4" s="173"/>
+      <c r="DI4" s="173"/>
+      <c r="DJ4" s="173"/>
+      <c r="DK4" s="173"/>
+      <c r="DL4" s="173"/>
+      <c r="DM4" s="173"/>
+      <c r="DN4" s="173"/>
+      <c r="DO4" s="173"/>
+      <c r="DP4" s="173"/>
+      <c r="DQ4" s="173"/>
+      <c r="DR4" s="173"/>
       <c r="DS4" s="18"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="87">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s" s="88">
-        <v>473</v>
-      </c>
-      <c r="E5" t="s" s="134">
-        <v>551</v>
-      </c>
+      <c r="A5" s="87"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="134"/>
-      <c r="G5" s="159">
-        <v>1</v>
-      </c>
+      <c r="G5" s="159"/>
       <c r="H5" s="127"/>
       <c r="I5" s="127"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="175"/>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="175"/>
-      <c r="AQ5" s="175"/>
-      <c r="AR5" s="175"/>
-      <c r="AS5" s="175"/>
-      <c r="AT5" s="175"/>
-      <c r="AU5" s="175"/>
-      <c r="AV5" s="175"/>
-      <c r="AW5" s="175"/>
-      <c r="AX5" s="175"/>
-      <c r="AY5" s="175"/>
-      <c r="AZ5" s="175"/>
-      <c r="BA5" s="175"/>
-      <c r="BB5" s="175"/>
-      <c r="BC5" s="175"/>
-      <c r="BD5" s="175"/>
-      <c r="BE5" s="175"/>
-      <c r="BF5" s="175"/>
-      <c r="BG5" s="175"/>
-      <c r="BH5" s="175"/>
-      <c r="BI5" s="175"/>
-      <c r="BJ5" s="175"/>
-      <c r="BK5" s="175"/>
-      <c r="BL5" s="175"/>
-      <c r="BM5" s="175"/>
-      <c r="BN5" s="175"/>
-      <c r="BO5" s="175"/>
-      <c r="BP5" s="175"/>
-      <c r="BQ5" s="175"/>
-      <c r="BR5" s="175"/>
-      <c r="BS5" s="175"/>
-      <c r="BT5" s="175"/>
-      <c r="BU5" s="175"/>
-      <c r="BV5" s="175"/>
-      <c r="BW5" s="175"/>
-      <c r="BX5" s="175"/>
-      <c r="BY5" s="175"/>
-      <c r="BZ5" s="175"/>
-      <c r="CA5" s="175"/>
-      <c r="CB5" s="175"/>
-      <c r="CC5" s="175"/>
-      <c r="CD5" s="175"/>
-      <c r="CE5" s="175"/>
-      <c r="CF5" s="175"/>
-      <c r="CG5" s="175"/>
-      <c r="CH5" s="175"/>
-      <c r="CI5" s="175"/>
-      <c r="CJ5" s="175"/>
-      <c r="CK5" s="175"/>
-      <c r="CL5" s="175"/>
-      <c r="CM5" s="175"/>
-      <c r="CN5" s="175"/>
-      <c r="CO5" s="175"/>
-      <c r="CP5" s="175"/>
-      <c r="CQ5" s="175"/>
-      <c r="CR5" s="175"/>
-      <c r="CS5" s="175"/>
-      <c r="CT5" s="175"/>
-      <c r="CU5" s="175"/>
-      <c r="CV5" s="175"/>
-      <c r="CW5" s="175"/>
-      <c r="CX5" s="175"/>
-      <c r="CY5" s="175"/>
-      <c r="CZ5" s="175"/>
-      <c r="DA5" s="175"/>
-      <c r="DB5" s="175"/>
-      <c r="DC5" s="175"/>
-      <c r="DD5" s="175"/>
-      <c r="DE5" s="175"/>
-      <c r="DF5" s="175"/>
-      <c r="DG5" s="175"/>
-      <c r="DH5" s="175"/>
-      <c r="DI5" s="175"/>
-      <c r="DJ5" s="175"/>
-      <c r="DK5" s="175"/>
-      <c r="DL5" s="175"/>
-      <c r="DM5" s="175"/>
-      <c r="DN5" s="175"/>
-      <c r="DO5" s="175"/>
-      <c r="DP5" s="175"/>
-      <c r="DQ5" s="175"/>
-      <c r="DR5" s="175"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="173"/>
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="173"/>
+      <c r="AP5" s="173"/>
+      <c r="AQ5" s="173"/>
+      <c r="AR5" s="173"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="173"/>
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="173"/>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="173"/>
+      <c r="BE5" s="173"/>
+      <c r="BF5" s="173"/>
+      <c r="BG5" s="173"/>
+      <c r="BH5" s="173"/>
+      <c r="BI5" s="173"/>
+      <c r="BJ5" s="173"/>
+      <c r="BK5" s="173"/>
+      <c r="BL5" s="173"/>
+      <c r="BM5" s="173"/>
+      <c r="BN5" s="173"/>
+      <c r="BO5" s="173"/>
+      <c r="BP5" s="173"/>
+      <c r="BQ5" s="173"/>
+      <c r="BR5" s="173"/>
+      <c r="BS5" s="173"/>
+      <c r="BT5" s="173"/>
+      <c r="BU5" s="173"/>
+      <c r="BV5" s="173"/>
+      <c r="BW5" s="173"/>
+      <c r="BX5" s="173"/>
+      <c r="BY5" s="173"/>
+      <c r="BZ5" s="173"/>
+      <c r="CA5" s="173"/>
+      <c r="CB5" s="173"/>
+      <c r="CC5" s="173"/>
+      <c r="CD5" s="173"/>
+      <c r="CE5" s="173"/>
+      <c r="CF5" s="173"/>
+      <c r="CG5" s="173"/>
+      <c r="CH5" s="173"/>
+      <c r="CI5" s="173"/>
+      <c r="CJ5" s="173"/>
+      <c r="CK5" s="173"/>
+      <c r="CL5" s="173"/>
+      <c r="CM5" s="173"/>
+      <c r="CN5" s="173"/>
+      <c r="CO5" s="173"/>
+      <c r="CP5" s="173"/>
+      <c r="CQ5" s="173"/>
+      <c r="CR5" s="173"/>
+      <c r="CS5" s="173"/>
+      <c r="CT5" s="173"/>
+      <c r="CU5" s="173"/>
+      <c r="CV5" s="173"/>
+      <c r="CW5" s="173"/>
+      <c r="CX5" s="173"/>
+      <c r="CY5" s="173"/>
+      <c r="CZ5" s="173"/>
+      <c r="DA5" s="173"/>
+      <c r="DB5" s="173"/>
+      <c r="DC5" s="173"/>
+      <c r="DD5" s="173"/>
+      <c r="DE5" s="173"/>
+      <c r="DF5" s="173"/>
+      <c r="DG5" s="173"/>
+      <c r="DH5" s="173"/>
+      <c r="DI5" s="173"/>
+      <c r="DJ5" s="173"/>
+      <c r="DK5" s="173"/>
+      <c r="DL5" s="173"/>
+      <c r="DM5" s="173"/>
+      <c r="DN5" s="173"/>
+      <c r="DO5" s="173"/>
+      <c r="DP5" s="173"/>
+      <c r="DQ5" s="173"/>
+      <c r="DR5" s="173"/>
       <c r="DS5" s="18"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="77">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="176"/>
-      <c r="C6" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>573</v>
-      </c>
-      <c r="E6" t="s" s="132">
-        <v>479</v>
-      </c>
+      <c r="A6" s="77"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="132"/>
       <c r="F6" s="132"/>
-      <c r="G6" s="157">
-        <v>1</v>
-      </c>
+      <c r="G6" s="157"/>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
-      <c r="AL6" s="175"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="175"/>
-      <c r="AO6" s="175"/>
-      <c r="AP6" s="175"/>
-      <c r="AQ6" s="175"/>
-      <c r="AR6" s="175"/>
-      <c r="AS6" s="175"/>
-      <c r="AT6" s="175"/>
-      <c r="AU6" s="175"/>
-      <c r="AV6" s="175"/>
-      <c r="AW6" s="175"/>
-      <c r="AX6" s="175"/>
-      <c r="AY6" s="175"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="175"/>
-      <c r="BB6" s="175"/>
-      <c r="BC6" s="175"/>
-      <c r="BD6" s="175"/>
-      <c r="BE6" s="175"/>
-      <c r="BF6" s="175"/>
-      <c r="BG6" s="175"/>
-      <c r="BH6" s="175"/>
-      <c r="BI6" s="175"/>
-      <c r="BJ6" s="175"/>
-      <c r="BK6" s="175"/>
-      <c r="BL6" s="175"/>
-      <c r="BM6" s="175"/>
-      <c r="BN6" s="175"/>
-      <c r="BO6" s="175"/>
-      <c r="BP6" s="175"/>
-      <c r="BQ6" s="175"/>
-      <c r="BR6" s="175"/>
-      <c r="BS6" s="175"/>
-      <c r="BT6" s="175"/>
-      <c r="BU6" s="175"/>
-      <c r="BV6" s="175"/>
-      <c r="BW6" s="175"/>
-      <c r="BX6" s="175"/>
-      <c r="BY6" s="175"/>
-      <c r="BZ6" s="175"/>
-      <c r="CA6" s="175"/>
-      <c r="CB6" s="175"/>
-      <c r="CC6" s="175"/>
-      <c r="CD6" s="175"/>
-      <c r="CE6" s="175"/>
-      <c r="CF6" s="175"/>
-      <c r="CG6" s="175"/>
-      <c r="CH6" s="175"/>
-      <c r="CI6" s="175"/>
-      <c r="CJ6" s="175"/>
-      <c r="CK6" s="175"/>
-      <c r="CL6" s="175"/>
-      <c r="CM6" s="175"/>
-      <c r="CN6" s="175"/>
-      <c r="CO6" s="175"/>
-      <c r="CP6" s="175"/>
-      <c r="CQ6" s="175"/>
-      <c r="CR6" s="175"/>
-      <c r="CS6" s="175"/>
-      <c r="CT6" s="175"/>
-      <c r="CU6" s="175"/>
-      <c r="CV6" s="175"/>
-      <c r="CW6" s="175"/>
-      <c r="CX6" s="175"/>
-      <c r="CY6" s="175"/>
-      <c r="CZ6" s="175"/>
-      <c r="DA6" s="175"/>
-      <c r="DB6" s="175"/>
-      <c r="DC6" s="175"/>
-      <c r="DD6" s="175"/>
-      <c r="DE6" s="175"/>
-      <c r="DF6" s="175"/>
-      <c r="DG6" s="175"/>
-      <c r="DH6" s="175"/>
-      <c r="DI6" s="175"/>
-      <c r="DJ6" s="175"/>
-      <c r="DK6" s="175"/>
-      <c r="DL6" s="175"/>
-      <c r="DM6" s="175"/>
-      <c r="DN6" s="175"/>
-      <c r="DO6" s="175"/>
-      <c r="DP6" s="175"/>
-      <c r="DQ6" s="175"/>
-      <c r="DR6" s="175"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="173"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="173"/>
+      <c r="AA6" s="173"/>
+      <c r="AB6" s="173"/>
+      <c r="AC6" s="173"/>
+      <c r="AD6" s="173"/>
+      <c r="AE6" s="173"/>
+      <c r="AF6" s="173"/>
+      <c r="AG6" s="173"/>
+      <c r="AH6" s="173"/>
+      <c r="AI6" s="173"/>
+      <c r="AJ6" s="173"/>
+      <c r="AK6" s="173"/>
+      <c r="AL6" s="173"/>
+      <c r="AM6" s="173"/>
+      <c r="AN6" s="173"/>
+      <c r="AO6" s="173"/>
+      <c r="AP6" s="173"/>
+      <c r="AQ6" s="173"/>
+      <c r="AR6" s="173"/>
+      <c r="AS6" s="173"/>
+      <c r="AT6" s="173"/>
+      <c r="AU6" s="173"/>
+      <c r="AV6" s="173"/>
+      <c r="AW6" s="173"/>
+      <c r="AX6" s="173"/>
+      <c r="AY6" s="173"/>
+      <c r="AZ6" s="173"/>
+      <c r="BA6" s="173"/>
+      <c r="BB6" s="173"/>
+      <c r="BC6" s="173"/>
+      <c r="BD6" s="173"/>
+      <c r="BE6" s="173"/>
+      <c r="BF6" s="173"/>
+      <c r="BG6" s="173"/>
+      <c r="BH6" s="173"/>
+      <c r="BI6" s="173"/>
+      <c r="BJ6" s="173"/>
+      <c r="BK6" s="173"/>
+      <c r="BL6" s="173"/>
+      <c r="BM6" s="173"/>
+      <c r="BN6" s="173"/>
+      <c r="BO6" s="173"/>
+      <c r="BP6" s="173"/>
+      <c r="BQ6" s="173"/>
+      <c r="BR6" s="173"/>
+      <c r="BS6" s="173"/>
+      <c r="BT6" s="173"/>
+      <c r="BU6" s="173"/>
+      <c r="BV6" s="173"/>
+      <c r="BW6" s="173"/>
+      <c r="BX6" s="173"/>
+      <c r="BY6" s="173"/>
+      <c r="BZ6" s="173"/>
+      <c r="CA6" s="173"/>
+      <c r="CB6" s="173"/>
+      <c r="CC6" s="173"/>
+      <c r="CD6" s="173"/>
+      <c r="CE6" s="173"/>
+      <c r="CF6" s="173"/>
+      <c r="CG6" s="173"/>
+      <c r="CH6" s="173"/>
+      <c r="CI6" s="173"/>
+      <c r="CJ6" s="173"/>
+      <c r="CK6" s="173"/>
+      <c r="CL6" s="173"/>
+      <c r="CM6" s="173"/>
+      <c r="CN6" s="173"/>
+      <c r="CO6" s="173"/>
+      <c r="CP6" s="173"/>
+      <c r="CQ6" s="173"/>
+      <c r="CR6" s="173"/>
+      <c r="CS6" s="173"/>
+      <c r="CT6" s="173"/>
+      <c r="CU6" s="173"/>
+      <c r="CV6" s="173"/>
+      <c r="CW6" s="173"/>
+      <c r="CX6" s="173"/>
+      <c r="CY6" s="173"/>
+      <c r="CZ6" s="173"/>
+      <c r="DA6" s="173"/>
+      <c r="DB6" s="173"/>
+      <c r="DC6" s="173"/>
+      <c r="DD6" s="173"/>
+      <c r="DE6" s="173"/>
+      <c r="DF6" s="173"/>
+      <c r="DG6" s="173"/>
+      <c r="DH6" s="173"/>
+      <c r="DI6" s="173"/>
+      <c r="DJ6" s="173"/>
+      <c r="DK6" s="173"/>
+      <c r="DL6" s="173"/>
+      <c r="DM6" s="173"/>
+      <c r="DN6" s="173"/>
+      <c r="DO6" s="173"/>
+      <c r="DP6" s="173"/>
+      <c r="DQ6" s="173"/>
+      <c r="DR6" s="173"/>
       <c r="DS6" s="18"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="87"/>
-      <c r="B7" s="177"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="134"/>
@@ -11041,124 +10634,124 @@
       <c r="G7" s="159"/>
       <c r="H7" s="127"/>
       <c r="I7" s="127"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="175"/>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="175"/>
-      <c r="AJ7" s="175"/>
-      <c r="AK7" s="175"/>
-      <c r="AL7" s="175"/>
-      <c r="AM7" s="175"/>
-      <c r="AN7" s="175"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="175"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="175"/>
-      <c r="AS7" s="175"/>
-      <c r="AT7" s="175"/>
-      <c r="AU7" s="175"/>
-      <c r="AV7" s="175"/>
-      <c r="AW7" s="175"/>
-      <c r="AX7" s="175"/>
-      <c r="AY7" s="175"/>
-      <c r="AZ7" s="175"/>
-      <c r="BA7" s="175"/>
-      <c r="BB7" s="175"/>
-      <c r="BC7" s="175"/>
-      <c r="BD7" s="175"/>
-      <c r="BE7" s="175"/>
-      <c r="BF7" s="175"/>
-      <c r="BG7" s="175"/>
-      <c r="BH7" s="175"/>
-      <c r="BI7" s="175"/>
-      <c r="BJ7" s="175"/>
-      <c r="BK7" s="175"/>
-      <c r="BL7" s="175"/>
-      <c r="BM7" s="175"/>
-      <c r="BN7" s="175"/>
-      <c r="BO7" s="175"/>
-      <c r="BP7" s="175"/>
-      <c r="BQ7" s="175"/>
-      <c r="BR7" s="175"/>
-      <c r="BS7" s="175"/>
-      <c r="BT7" s="175"/>
-      <c r="BU7" s="175"/>
-      <c r="BV7" s="175"/>
-      <c r="BW7" s="175"/>
-      <c r="BX7" s="175"/>
-      <c r="BY7" s="175"/>
-      <c r="BZ7" s="175"/>
-      <c r="CA7" s="175"/>
-      <c r="CB7" s="175"/>
-      <c r="CC7" s="175"/>
-      <c r="CD7" s="175"/>
-      <c r="CE7" s="175"/>
-      <c r="CF7" s="175"/>
-      <c r="CG7" s="175"/>
-      <c r="CH7" s="175"/>
-      <c r="CI7" s="175"/>
-      <c r="CJ7" s="175"/>
-      <c r="CK7" s="175"/>
-      <c r="CL7" s="175"/>
-      <c r="CM7" s="175"/>
-      <c r="CN7" s="175"/>
-      <c r="CO7" s="175"/>
-      <c r="CP7" s="175"/>
-      <c r="CQ7" s="175"/>
-      <c r="CR7" s="175"/>
-      <c r="CS7" s="175"/>
-      <c r="CT7" s="175"/>
-      <c r="CU7" s="175"/>
-      <c r="CV7" s="175"/>
-      <c r="CW7" s="175"/>
-      <c r="CX7" s="175"/>
-      <c r="CY7" s="175"/>
-      <c r="CZ7" s="175"/>
-      <c r="DA7" s="175"/>
-      <c r="DB7" s="175"/>
-      <c r="DC7" s="175"/>
-      <c r="DD7" s="175"/>
-      <c r="DE7" s="175"/>
-      <c r="DF7" s="175"/>
-      <c r="DG7" s="175"/>
-      <c r="DH7" s="175"/>
-      <c r="DI7" s="175"/>
-      <c r="DJ7" s="175"/>
-      <c r="DK7" s="175"/>
-      <c r="DL7" s="175"/>
-      <c r="DM7" s="175"/>
-      <c r="DN7" s="175"/>
-      <c r="DO7" s="175"/>
-      <c r="DP7" s="175"/>
-      <c r="DQ7" s="175"/>
-      <c r="DR7" s="175"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="173"/>
+      <c r="AF7" s="173"/>
+      <c r="AG7" s="173"/>
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="173"/>
+      <c r="AJ7" s="173"/>
+      <c r="AK7" s="173"/>
+      <c r="AL7" s="173"/>
+      <c r="AM7" s="173"/>
+      <c r="AN7" s="173"/>
+      <c r="AO7" s="173"/>
+      <c r="AP7" s="173"/>
+      <c r="AQ7" s="173"/>
+      <c r="AR7" s="173"/>
+      <c r="AS7" s="173"/>
+      <c r="AT7" s="173"/>
+      <c r="AU7" s="173"/>
+      <c r="AV7" s="173"/>
+      <c r="AW7" s="173"/>
+      <c r="AX7" s="173"/>
+      <c r="AY7" s="173"/>
+      <c r="AZ7" s="173"/>
+      <c r="BA7" s="173"/>
+      <c r="BB7" s="173"/>
+      <c r="BC7" s="173"/>
+      <c r="BD7" s="173"/>
+      <c r="BE7" s="173"/>
+      <c r="BF7" s="173"/>
+      <c r="BG7" s="173"/>
+      <c r="BH7" s="173"/>
+      <c r="BI7" s="173"/>
+      <c r="BJ7" s="173"/>
+      <c r="BK7" s="173"/>
+      <c r="BL7" s="173"/>
+      <c r="BM7" s="173"/>
+      <c r="BN7" s="173"/>
+      <c r="BO7" s="173"/>
+      <c r="BP7" s="173"/>
+      <c r="BQ7" s="173"/>
+      <c r="BR7" s="173"/>
+      <c r="BS7" s="173"/>
+      <c r="BT7" s="173"/>
+      <c r="BU7" s="173"/>
+      <c r="BV7" s="173"/>
+      <c r="BW7" s="173"/>
+      <c r="BX7" s="173"/>
+      <c r="BY7" s="173"/>
+      <c r="BZ7" s="173"/>
+      <c r="CA7" s="173"/>
+      <c r="CB7" s="173"/>
+      <c r="CC7" s="173"/>
+      <c r="CD7" s="173"/>
+      <c r="CE7" s="173"/>
+      <c r="CF7" s="173"/>
+      <c r="CG7" s="173"/>
+      <c r="CH7" s="173"/>
+      <c r="CI7" s="173"/>
+      <c r="CJ7" s="173"/>
+      <c r="CK7" s="173"/>
+      <c r="CL7" s="173"/>
+      <c r="CM7" s="173"/>
+      <c r="CN7" s="173"/>
+      <c r="CO7" s="173"/>
+      <c r="CP7" s="173"/>
+      <c r="CQ7" s="173"/>
+      <c r="CR7" s="173"/>
+      <c r="CS7" s="173"/>
+      <c r="CT7" s="173"/>
+      <c r="CU7" s="173"/>
+      <c r="CV7" s="173"/>
+      <c r="CW7" s="173"/>
+      <c r="CX7" s="173"/>
+      <c r="CY7" s="173"/>
+      <c r="CZ7" s="173"/>
+      <c r="DA7" s="173"/>
+      <c r="DB7" s="173"/>
+      <c r="DC7" s="173"/>
+      <c r="DD7" s="173"/>
+      <c r="DE7" s="173"/>
+      <c r="DF7" s="173"/>
+      <c r="DG7" s="173"/>
+      <c r="DH7" s="173"/>
+      <c r="DI7" s="173"/>
+      <c r="DJ7" s="173"/>
+      <c r="DK7" s="173"/>
+      <c r="DL7" s="173"/>
+      <c r="DM7" s="173"/>
+      <c r="DN7" s="173"/>
+      <c r="DO7" s="173"/>
+      <c r="DP7" s="173"/>
+      <c r="DQ7" s="173"/>
+      <c r="DR7" s="173"/>
       <c r="DS7" s="18"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="77"/>
-      <c r="B8" s="176"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="132"/>
@@ -11166,124 +10759,124 @@
       <c r="G8" s="157"/>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175"/>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="175"/>
-      <c r="AN8" s="175"/>
-      <c r="AO8" s="175"/>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175"/>
-      <c r="AT8" s="175"/>
-      <c r="AU8" s="175"/>
-      <c r="AV8" s="175"/>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175"/>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="175"/>
-      <c r="BB8" s="175"/>
-      <c r="BC8" s="175"/>
-      <c r="BD8" s="175"/>
-      <c r="BE8" s="175"/>
-      <c r="BF8" s="175"/>
-      <c r="BG8" s="175"/>
-      <c r="BH8" s="175"/>
-      <c r="BI8" s="175"/>
-      <c r="BJ8" s="175"/>
-      <c r="BK8" s="175"/>
-      <c r="BL8" s="175"/>
-      <c r="BM8" s="175"/>
-      <c r="BN8" s="175"/>
-      <c r="BO8" s="175"/>
-      <c r="BP8" s="175"/>
-      <c r="BQ8" s="175"/>
-      <c r="BR8" s="175"/>
-      <c r="BS8" s="175"/>
-      <c r="BT8" s="175"/>
-      <c r="BU8" s="175"/>
-      <c r="BV8" s="175"/>
-      <c r="BW8" s="175"/>
-      <c r="BX8" s="175"/>
-      <c r="BY8" s="175"/>
-      <c r="BZ8" s="175"/>
-      <c r="CA8" s="175"/>
-      <c r="CB8" s="175"/>
-      <c r="CC8" s="175"/>
-      <c r="CD8" s="175"/>
-      <c r="CE8" s="175"/>
-      <c r="CF8" s="175"/>
-      <c r="CG8" s="175"/>
-      <c r="CH8" s="175"/>
-      <c r="CI8" s="175"/>
-      <c r="CJ8" s="175"/>
-      <c r="CK8" s="175"/>
-      <c r="CL8" s="175"/>
-      <c r="CM8" s="175"/>
-      <c r="CN8" s="175"/>
-      <c r="CO8" s="175"/>
-      <c r="CP8" s="175"/>
-      <c r="CQ8" s="175"/>
-      <c r="CR8" s="175"/>
-      <c r="CS8" s="175"/>
-      <c r="CT8" s="175"/>
-      <c r="CU8" s="175"/>
-      <c r="CV8" s="175"/>
-      <c r="CW8" s="175"/>
-      <c r="CX8" s="175"/>
-      <c r="CY8" s="175"/>
-      <c r="CZ8" s="175"/>
-      <c r="DA8" s="175"/>
-      <c r="DB8" s="175"/>
-      <c r="DC8" s="175"/>
-      <c r="DD8" s="175"/>
-      <c r="DE8" s="175"/>
-      <c r="DF8" s="175"/>
-      <c r="DG8" s="175"/>
-      <c r="DH8" s="175"/>
-      <c r="DI8" s="175"/>
-      <c r="DJ8" s="175"/>
-      <c r="DK8" s="175"/>
-      <c r="DL8" s="175"/>
-      <c r="DM8" s="175"/>
-      <c r="DN8" s="175"/>
-      <c r="DO8" s="175"/>
-      <c r="DP8" s="175"/>
-      <c r="DQ8" s="175"/>
-      <c r="DR8" s="175"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="173"/>
+      <c r="AM8" s="173"/>
+      <c r="AN8" s="173"/>
+      <c r="AO8" s="173"/>
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="173"/>
+      <c r="AR8" s="173"/>
+      <c r="AS8" s="173"/>
+      <c r="AT8" s="173"/>
+      <c r="AU8" s="173"/>
+      <c r="AV8" s="173"/>
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="173"/>
+      <c r="AY8" s="173"/>
+      <c r="AZ8" s="173"/>
+      <c r="BA8" s="173"/>
+      <c r="BB8" s="173"/>
+      <c r="BC8" s="173"/>
+      <c r="BD8" s="173"/>
+      <c r="BE8" s="173"/>
+      <c r="BF8" s="173"/>
+      <c r="BG8" s="173"/>
+      <c r="BH8" s="173"/>
+      <c r="BI8" s="173"/>
+      <c r="BJ8" s="173"/>
+      <c r="BK8" s="173"/>
+      <c r="BL8" s="173"/>
+      <c r="BM8" s="173"/>
+      <c r="BN8" s="173"/>
+      <c r="BO8" s="173"/>
+      <c r="BP8" s="173"/>
+      <c r="BQ8" s="173"/>
+      <c r="BR8" s="173"/>
+      <c r="BS8" s="173"/>
+      <c r="BT8" s="173"/>
+      <c r="BU8" s="173"/>
+      <c r="BV8" s="173"/>
+      <c r="BW8" s="173"/>
+      <c r="BX8" s="173"/>
+      <c r="BY8" s="173"/>
+      <c r="BZ8" s="173"/>
+      <c r="CA8" s="173"/>
+      <c r="CB8" s="173"/>
+      <c r="CC8" s="173"/>
+      <c r="CD8" s="173"/>
+      <c r="CE8" s="173"/>
+      <c r="CF8" s="173"/>
+      <c r="CG8" s="173"/>
+      <c r="CH8" s="173"/>
+      <c r="CI8" s="173"/>
+      <c r="CJ8" s="173"/>
+      <c r="CK8" s="173"/>
+      <c r="CL8" s="173"/>
+      <c r="CM8" s="173"/>
+      <c r="CN8" s="173"/>
+      <c r="CO8" s="173"/>
+      <c r="CP8" s="173"/>
+      <c r="CQ8" s="173"/>
+      <c r="CR8" s="173"/>
+      <c r="CS8" s="173"/>
+      <c r="CT8" s="173"/>
+      <c r="CU8" s="173"/>
+      <c r="CV8" s="173"/>
+      <c r="CW8" s="173"/>
+      <c r="CX8" s="173"/>
+      <c r="CY8" s="173"/>
+      <c r="CZ8" s="173"/>
+      <c r="DA8" s="173"/>
+      <c r="DB8" s="173"/>
+      <c r="DC8" s="173"/>
+      <c r="DD8" s="173"/>
+      <c r="DE8" s="173"/>
+      <c r="DF8" s="173"/>
+      <c r="DG8" s="173"/>
+      <c r="DH8" s="173"/>
+      <c r="DI8" s="173"/>
+      <c r="DJ8" s="173"/>
+      <c r="DK8" s="173"/>
+      <c r="DL8" s="173"/>
+      <c r="DM8" s="173"/>
+      <c r="DN8" s="173"/>
+      <c r="DO8" s="173"/>
+      <c r="DP8" s="173"/>
+      <c r="DQ8" s="173"/>
+      <c r="DR8" s="173"/>
       <c r="DS8" s="18"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="87"/>
-      <c r="B9" s="177"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
       <c r="E9" s="134"/>
@@ -11291,124 +10884,124 @@
       <c r="G9" s="159"/>
       <c r="H9" s="127"/>
       <c r="I9" s="127"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="175"/>
-      <c r="AB9" s="175"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="175"/>
-      <c r="AJ9" s="175"/>
-      <c r="AK9" s="175"/>
-      <c r="AL9" s="175"/>
-      <c r="AM9" s="175"/>
-      <c r="AN9" s="175"/>
-      <c r="AO9" s="175"/>
-      <c r="AP9" s="175"/>
-      <c r="AQ9" s="175"/>
-      <c r="AR9" s="175"/>
-      <c r="AS9" s="175"/>
-      <c r="AT9" s="175"/>
-      <c r="AU9" s="175"/>
-      <c r="AV9" s="175"/>
-      <c r="AW9" s="175"/>
-      <c r="AX9" s="175"/>
-      <c r="AY9" s="175"/>
-      <c r="AZ9" s="175"/>
-      <c r="BA9" s="175"/>
-      <c r="BB9" s="175"/>
-      <c r="BC9" s="175"/>
-      <c r="BD9" s="175"/>
-      <c r="BE9" s="175"/>
-      <c r="BF9" s="175"/>
-      <c r="BG9" s="175"/>
-      <c r="BH9" s="175"/>
-      <c r="BI9" s="175"/>
-      <c r="BJ9" s="175"/>
-      <c r="BK9" s="175"/>
-      <c r="BL9" s="175"/>
-      <c r="BM9" s="175"/>
-      <c r="BN9" s="175"/>
-      <c r="BO9" s="175"/>
-      <c r="BP9" s="175"/>
-      <c r="BQ9" s="175"/>
-      <c r="BR9" s="175"/>
-      <c r="BS9" s="175"/>
-      <c r="BT9" s="175"/>
-      <c r="BU9" s="175"/>
-      <c r="BV9" s="175"/>
-      <c r="BW9" s="175"/>
-      <c r="BX9" s="175"/>
-      <c r="BY9" s="175"/>
-      <c r="BZ9" s="175"/>
-      <c r="CA9" s="175"/>
-      <c r="CB9" s="175"/>
-      <c r="CC9" s="175"/>
-      <c r="CD9" s="175"/>
-      <c r="CE9" s="175"/>
-      <c r="CF9" s="175"/>
-      <c r="CG9" s="175"/>
-      <c r="CH9" s="175"/>
-      <c r="CI9" s="175"/>
-      <c r="CJ9" s="175"/>
-      <c r="CK9" s="175"/>
-      <c r="CL9" s="175"/>
-      <c r="CM9" s="175"/>
-      <c r="CN9" s="175"/>
-      <c r="CO9" s="175"/>
-      <c r="CP9" s="175"/>
-      <c r="CQ9" s="175"/>
-      <c r="CR9" s="175"/>
-      <c r="CS9" s="175"/>
-      <c r="CT9" s="175"/>
-      <c r="CU9" s="175"/>
-      <c r="CV9" s="175"/>
-      <c r="CW9" s="175"/>
-      <c r="CX9" s="175"/>
-      <c r="CY9" s="175"/>
-      <c r="CZ9" s="175"/>
-      <c r="DA9" s="175"/>
-      <c r="DB9" s="175"/>
-      <c r="DC9" s="175"/>
-      <c r="DD9" s="175"/>
-      <c r="DE9" s="175"/>
-      <c r="DF9" s="175"/>
-      <c r="DG9" s="175"/>
-      <c r="DH9" s="175"/>
-      <c r="DI9" s="175"/>
-      <c r="DJ9" s="175"/>
-      <c r="DK9" s="175"/>
-      <c r="DL9" s="175"/>
-      <c r="DM9" s="175"/>
-      <c r="DN9" s="175"/>
-      <c r="DO9" s="175"/>
-      <c r="DP9" s="175"/>
-      <c r="DQ9" s="175"/>
-      <c r="DR9" s="175"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="173"/>
+      <c r="AK9" s="173"/>
+      <c r="AL9" s="173"/>
+      <c r="AM9" s="173"/>
+      <c r="AN9" s="173"/>
+      <c r="AO9" s="173"/>
+      <c r="AP9" s="173"/>
+      <c r="AQ9" s="173"/>
+      <c r="AR9" s="173"/>
+      <c r="AS9" s="173"/>
+      <c r="AT9" s="173"/>
+      <c r="AU9" s="173"/>
+      <c r="AV9" s="173"/>
+      <c r="AW9" s="173"/>
+      <c r="AX9" s="173"/>
+      <c r="AY9" s="173"/>
+      <c r="AZ9" s="173"/>
+      <c r="BA9" s="173"/>
+      <c r="BB9" s="173"/>
+      <c r="BC9" s="173"/>
+      <c r="BD9" s="173"/>
+      <c r="BE9" s="173"/>
+      <c r="BF9" s="173"/>
+      <c r="BG9" s="173"/>
+      <c r="BH9" s="173"/>
+      <c r="BI9" s="173"/>
+      <c r="BJ9" s="173"/>
+      <c r="BK9" s="173"/>
+      <c r="BL9" s="173"/>
+      <c r="BM9" s="173"/>
+      <c r="BN9" s="173"/>
+      <c r="BO9" s="173"/>
+      <c r="BP9" s="173"/>
+      <c r="BQ9" s="173"/>
+      <c r="BR9" s="173"/>
+      <c r="BS9" s="173"/>
+      <c r="BT9" s="173"/>
+      <c r="BU9" s="173"/>
+      <c r="BV9" s="173"/>
+      <c r="BW9" s="173"/>
+      <c r="BX9" s="173"/>
+      <c r="BY9" s="173"/>
+      <c r="BZ9" s="173"/>
+      <c r="CA9" s="173"/>
+      <c r="CB9" s="173"/>
+      <c r="CC9" s="173"/>
+      <c r="CD9" s="173"/>
+      <c r="CE9" s="173"/>
+      <c r="CF9" s="173"/>
+      <c r="CG9" s="173"/>
+      <c r="CH9" s="173"/>
+      <c r="CI9" s="173"/>
+      <c r="CJ9" s="173"/>
+      <c r="CK9" s="173"/>
+      <c r="CL9" s="173"/>
+      <c r="CM9" s="173"/>
+      <c r="CN9" s="173"/>
+      <c r="CO9" s="173"/>
+      <c r="CP9" s="173"/>
+      <c r="CQ9" s="173"/>
+      <c r="CR9" s="173"/>
+      <c r="CS9" s="173"/>
+      <c r="CT9" s="173"/>
+      <c r="CU9" s="173"/>
+      <c r="CV9" s="173"/>
+      <c r="CW9" s="173"/>
+      <c r="CX9" s="173"/>
+      <c r="CY9" s="173"/>
+      <c r="CZ9" s="173"/>
+      <c r="DA9" s="173"/>
+      <c r="DB9" s="173"/>
+      <c r="DC9" s="173"/>
+      <c r="DD9" s="173"/>
+      <c r="DE9" s="173"/>
+      <c r="DF9" s="173"/>
+      <c r="DG9" s="173"/>
+      <c r="DH9" s="173"/>
+      <c r="DI9" s="173"/>
+      <c r="DJ9" s="173"/>
+      <c r="DK9" s="173"/>
+      <c r="DL9" s="173"/>
+      <c r="DM9" s="173"/>
+      <c r="DN9" s="173"/>
+      <c r="DO9" s="173"/>
+      <c r="DP9" s="173"/>
+      <c r="DQ9" s="173"/>
+      <c r="DR9" s="173"/>
       <c r="DS9" s="18"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="77"/>
-      <c r="B10" s="176"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="132"/>
@@ -11416,124 +11009,124 @@
       <c r="G10" s="157"/>
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="175"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="175"/>
-      <c r="AJ10" s="175"/>
-      <c r="AK10" s="175"/>
-      <c r="AL10" s="175"/>
-      <c r="AM10" s="175"/>
-      <c r="AN10" s="175"/>
-      <c r="AO10" s="175"/>
-      <c r="AP10" s="175"/>
-      <c r="AQ10" s="175"/>
-      <c r="AR10" s="175"/>
-      <c r="AS10" s="175"/>
-      <c r="AT10" s="175"/>
-      <c r="AU10" s="175"/>
-      <c r="AV10" s="175"/>
-      <c r="AW10" s="175"/>
-      <c r="AX10" s="175"/>
-      <c r="AY10" s="175"/>
-      <c r="AZ10" s="175"/>
-      <c r="BA10" s="175"/>
-      <c r="BB10" s="175"/>
-      <c r="BC10" s="175"/>
-      <c r="BD10" s="175"/>
-      <c r="BE10" s="175"/>
-      <c r="BF10" s="175"/>
-      <c r="BG10" s="175"/>
-      <c r="BH10" s="175"/>
-      <c r="BI10" s="175"/>
-      <c r="BJ10" s="175"/>
-      <c r="BK10" s="175"/>
-      <c r="BL10" s="175"/>
-      <c r="BM10" s="175"/>
-      <c r="BN10" s="175"/>
-      <c r="BO10" s="175"/>
-      <c r="BP10" s="175"/>
-      <c r="BQ10" s="175"/>
-      <c r="BR10" s="175"/>
-      <c r="BS10" s="175"/>
-      <c r="BT10" s="175"/>
-      <c r="BU10" s="175"/>
-      <c r="BV10" s="175"/>
-      <c r="BW10" s="175"/>
-      <c r="BX10" s="175"/>
-      <c r="BY10" s="175"/>
-      <c r="BZ10" s="175"/>
-      <c r="CA10" s="175"/>
-      <c r="CB10" s="175"/>
-      <c r="CC10" s="175"/>
-      <c r="CD10" s="175"/>
-      <c r="CE10" s="175"/>
-      <c r="CF10" s="175"/>
-      <c r="CG10" s="175"/>
-      <c r="CH10" s="175"/>
-      <c r="CI10" s="175"/>
-      <c r="CJ10" s="175"/>
-      <c r="CK10" s="175"/>
-      <c r="CL10" s="175"/>
-      <c r="CM10" s="175"/>
-      <c r="CN10" s="175"/>
-      <c r="CO10" s="175"/>
-      <c r="CP10" s="175"/>
-      <c r="CQ10" s="175"/>
-      <c r="CR10" s="175"/>
-      <c r="CS10" s="175"/>
-      <c r="CT10" s="175"/>
-      <c r="CU10" s="175"/>
-      <c r="CV10" s="175"/>
-      <c r="CW10" s="175"/>
-      <c r="CX10" s="175"/>
-      <c r="CY10" s="175"/>
-      <c r="CZ10" s="175"/>
-      <c r="DA10" s="175"/>
-      <c r="DB10" s="175"/>
-      <c r="DC10" s="175"/>
-      <c r="DD10" s="175"/>
-      <c r="DE10" s="175"/>
-      <c r="DF10" s="175"/>
-      <c r="DG10" s="175"/>
-      <c r="DH10" s="175"/>
-      <c r="DI10" s="175"/>
-      <c r="DJ10" s="175"/>
-      <c r="DK10" s="175"/>
-      <c r="DL10" s="175"/>
-      <c r="DM10" s="175"/>
-      <c r="DN10" s="175"/>
-      <c r="DO10" s="175"/>
-      <c r="DP10" s="175"/>
-      <c r="DQ10" s="175"/>
-      <c r="DR10" s="175"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="173"/>
+      <c r="AK10" s="173"/>
+      <c r="AL10" s="173"/>
+      <c r="AM10" s="173"/>
+      <c r="AN10" s="173"/>
+      <c r="AO10" s="173"/>
+      <c r="AP10" s="173"/>
+      <c r="AQ10" s="173"/>
+      <c r="AR10" s="173"/>
+      <c r="AS10" s="173"/>
+      <c r="AT10" s="173"/>
+      <c r="AU10" s="173"/>
+      <c r="AV10" s="173"/>
+      <c r="AW10" s="173"/>
+      <c r="AX10" s="173"/>
+      <c r="AY10" s="173"/>
+      <c r="AZ10" s="173"/>
+      <c r="BA10" s="173"/>
+      <c r="BB10" s="173"/>
+      <c r="BC10" s="173"/>
+      <c r="BD10" s="173"/>
+      <c r="BE10" s="173"/>
+      <c r="BF10" s="173"/>
+      <c r="BG10" s="173"/>
+      <c r="BH10" s="173"/>
+      <c r="BI10" s="173"/>
+      <c r="BJ10" s="173"/>
+      <c r="BK10" s="173"/>
+      <c r="BL10" s="173"/>
+      <c r="BM10" s="173"/>
+      <c r="BN10" s="173"/>
+      <c r="BO10" s="173"/>
+      <c r="BP10" s="173"/>
+      <c r="BQ10" s="173"/>
+      <c r="BR10" s="173"/>
+      <c r="BS10" s="173"/>
+      <c r="BT10" s="173"/>
+      <c r="BU10" s="173"/>
+      <c r="BV10" s="173"/>
+      <c r="BW10" s="173"/>
+      <c r="BX10" s="173"/>
+      <c r="BY10" s="173"/>
+      <c r="BZ10" s="173"/>
+      <c r="CA10" s="173"/>
+      <c r="CB10" s="173"/>
+      <c r="CC10" s="173"/>
+      <c r="CD10" s="173"/>
+      <c r="CE10" s="173"/>
+      <c r="CF10" s="173"/>
+      <c r="CG10" s="173"/>
+      <c r="CH10" s="173"/>
+      <c r="CI10" s="173"/>
+      <c r="CJ10" s="173"/>
+      <c r="CK10" s="173"/>
+      <c r="CL10" s="173"/>
+      <c r="CM10" s="173"/>
+      <c r="CN10" s="173"/>
+      <c r="CO10" s="173"/>
+      <c r="CP10" s="173"/>
+      <c r="CQ10" s="173"/>
+      <c r="CR10" s="173"/>
+      <c r="CS10" s="173"/>
+      <c r="CT10" s="173"/>
+      <c r="CU10" s="173"/>
+      <c r="CV10" s="173"/>
+      <c r="CW10" s="173"/>
+      <c r="CX10" s="173"/>
+      <c r="CY10" s="173"/>
+      <c r="CZ10" s="173"/>
+      <c r="DA10" s="173"/>
+      <c r="DB10" s="173"/>
+      <c r="DC10" s="173"/>
+      <c r="DD10" s="173"/>
+      <c r="DE10" s="173"/>
+      <c r="DF10" s="173"/>
+      <c r="DG10" s="173"/>
+      <c r="DH10" s="173"/>
+      <c r="DI10" s="173"/>
+      <c r="DJ10" s="173"/>
+      <c r="DK10" s="173"/>
+      <c r="DL10" s="173"/>
+      <c r="DM10" s="173"/>
+      <c r="DN10" s="173"/>
+      <c r="DO10" s="173"/>
+      <c r="DP10" s="173"/>
+      <c r="DQ10" s="173"/>
+      <c r="DR10" s="173"/>
       <c r="DS10" s="18"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="87"/>
-      <c r="B11" s="177"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
       <c r="E11" s="134"/>
@@ -11541,119 +11134,119 @@
       <c r="G11" s="159"/>
       <c r="H11" s="127"/>
       <c r="I11" s="127"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
-      <c r="Y11" s="175"/>
-      <c r="Z11" s="175"/>
-      <c r="AA11" s="175"/>
-      <c r="AB11" s="175"/>
-      <c r="AC11" s="175"/>
-      <c r="AD11" s="175"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="175"/>
-      <c r="AH11" s="175"/>
-      <c r="AI11" s="175"/>
-      <c r="AJ11" s="175"/>
-      <c r="AK11" s="175"/>
-      <c r="AL11" s="175"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="175"/>
-      <c r="AO11" s="175"/>
-      <c r="AP11" s="175"/>
-      <c r="AQ11" s="175"/>
-      <c r="AR11" s="175"/>
-      <c r="AS11" s="175"/>
-      <c r="AT11" s="175"/>
-      <c r="AU11" s="175"/>
-      <c r="AV11" s="175"/>
-      <c r="AW11" s="175"/>
-      <c r="AX11" s="175"/>
-      <c r="AY11" s="175"/>
-      <c r="AZ11" s="175"/>
-      <c r="BA11" s="175"/>
-      <c r="BB11" s="175"/>
-      <c r="BC11" s="175"/>
-      <c r="BD11" s="175"/>
-      <c r="BE11" s="175"/>
-      <c r="BF11" s="175"/>
-      <c r="BG11" s="175"/>
-      <c r="BH11" s="175"/>
-      <c r="BI11" s="175"/>
-      <c r="BJ11" s="175"/>
-      <c r="BK11" s="175"/>
-      <c r="BL11" s="175"/>
-      <c r="BM11" s="175"/>
-      <c r="BN11" s="175"/>
-      <c r="BO11" s="175"/>
-      <c r="BP11" s="175"/>
-      <c r="BQ11" s="175"/>
-      <c r="BR11" s="175"/>
-      <c r="BS11" s="175"/>
-      <c r="BT11" s="175"/>
-      <c r="BU11" s="175"/>
-      <c r="BV11" s="175"/>
-      <c r="BW11" s="175"/>
-      <c r="BX11" s="175"/>
-      <c r="BY11" s="175"/>
-      <c r="BZ11" s="175"/>
-      <c r="CA11" s="175"/>
-      <c r="CB11" s="175"/>
-      <c r="CC11" s="175"/>
-      <c r="CD11" s="175"/>
-      <c r="CE11" s="175"/>
-      <c r="CF11" s="175"/>
-      <c r="CG11" s="175"/>
-      <c r="CH11" s="175"/>
-      <c r="CI11" s="175"/>
-      <c r="CJ11" s="175"/>
-      <c r="CK11" s="175"/>
-      <c r="CL11" s="175"/>
-      <c r="CM11" s="175"/>
-      <c r="CN11" s="175"/>
-      <c r="CO11" s="175"/>
-      <c r="CP11" s="175"/>
-      <c r="CQ11" s="175"/>
-      <c r="CR11" s="175"/>
-      <c r="CS11" s="175"/>
-      <c r="CT11" s="175"/>
-      <c r="CU11" s="175"/>
-      <c r="CV11" s="175"/>
-      <c r="CW11" s="175"/>
-      <c r="CX11" s="175"/>
-      <c r="CY11" s="175"/>
-      <c r="CZ11" s="175"/>
-      <c r="DA11" s="175"/>
-      <c r="DB11" s="175"/>
-      <c r="DC11" s="175"/>
-      <c r="DD11" s="175"/>
-      <c r="DE11" s="175"/>
-      <c r="DF11" s="175"/>
-      <c r="DG11" s="175"/>
-      <c r="DH11" s="175"/>
-      <c r="DI11" s="175"/>
-      <c r="DJ11" s="175"/>
-      <c r="DK11" s="175"/>
-      <c r="DL11" s="175"/>
-      <c r="DM11" s="175"/>
-      <c r="DN11" s="175"/>
-      <c r="DO11" s="175"/>
-      <c r="DP11" s="175"/>
-      <c r="DQ11" s="175"/>
-      <c r="DR11" s="175"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="173"/>
+      <c r="AL11" s="173"/>
+      <c r="AM11" s="173"/>
+      <c r="AN11" s="173"/>
+      <c r="AO11" s="173"/>
+      <c r="AP11" s="173"/>
+      <c r="AQ11" s="173"/>
+      <c r="AR11" s="173"/>
+      <c r="AS11" s="173"/>
+      <c r="AT11" s="173"/>
+      <c r="AU11" s="173"/>
+      <c r="AV11" s="173"/>
+      <c r="AW11" s="173"/>
+      <c r="AX11" s="173"/>
+      <c r="AY11" s="173"/>
+      <c r="AZ11" s="173"/>
+      <c r="BA11" s="173"/>
+      <c r="BB11" s="173"/>
+      <c r="BC11" s="173"/>
+      <c r="BD11" s="173"/>
+      <c r="BE11" s="173"/>
+      <c r="BF11" s="173"/>
+      <c r="BG11" s="173"/>
+      <c r="BH11" s="173"/>
+      <c r="BI11" s="173"/>
+      <c r="BJ11" s="173"/>
+      <c r="BK11" s="173"/>
+      <c r="BL11" s="173"/>
+      <c r="BM11" s="173"/>
+      <c r="BN11" s="173"/>
+      <c r="BO11" s="173"/>
+      <c r="BP11" s="173"/>
+      <c r="BQ11" s="173"/>
+      <c r="BR11" s="173"/>
+      <c r="BS11" s="173"/>
+      <c r="BT11" s="173"/>
+      <c r="BU11" s="173"/>
+      <c r="BV11" s="173"/>
+      <c r="BW11" s="173"/>
+      <c r="BX11" s="173"/>
+      <c r="BY11" s="173"/>
+      <c r="BZ11" s="173"/>
+      <c r="CA11" s="173"/>
+      <c r="CB11" s="173"/>
+      <c r="CC11" s="173"/>
+      <c r="CD11" s="173"/>
+      <c r="CE11" s="173"/>
+      <c r="CF11" s="173"/>
+      <c r="CG11" s="173"/>
+      <c r="CH11" s="173"/>
+      <c r="CI11" s="173"/>
+      <c r="CJ11" s="173"/>
+      <c r="CK11" s="173"/>
+      <c r="CL11" s="173"/>
+      <c r="CM11" s="173"/>
+      <c r="CN11" s="173"/>
+      <c r="CO11" s="173"/>
+      <c r="CP11" s="173"/>
+      <c r="CQ11" s="173"/>
+      <c r="CR11" s="173"/>
+      <c r="CS11" s="173"/>
+      <c r="CT11" s="173"/>
+      <c r="CU11" s="173"/>
+      <c r="CV11" s="173"/>
+      <c r="CW11" s="173"/>
+      <c r="CX11" s="173"/>
+      <c r="CY11" s="173"/>
+      <c r="CZ11" s="173"/>
+      <c r="DA11" s="173"/>
+      <c r="DB11" s="173"/>
+      <c r="DC11" s="173"/>
+      <c r="DD11" s="173"/>
+      <c r="DE11" s="173"/>
+      <c r="DF11" s="173"/>
+      <c r="DG11" s="173"/>
+      <c r="DH11" s="173"/>
+      <c r="DI11" s="173"/>
+      <c r="DJ11" s="173"/>
+      <c r="DK11" s="173"/>
+      <c r="DL11" s="173"/>
+      <c r="DM11" s="173"/>
+      <c r="DN11" s="173"/>
+      <c r="DO11" s="173"/>
+      <c r="DP11" s="173"/>
+      <c r="DQ11" s="173"/>
+      <c r="DR11" s="173"/>
       <c r="DS11" s="18"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
@@ -11666,119 +11259,119 @@
       <c r="G12" s="41"/>
       <c r="H12" s="161"/>
       <c r="I12" s="161"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="178"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="178"/>
-      <c r="Z12" s="178"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="178"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="178"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="178"/>
-      <c r="AJ12" s="178"/>
-      <c r="AK12" s="178"/>
-      <c r="AL12" s="178"/>
-      <c r="AM12" s="178"/>
-      <c r="AN12" s="178"/>
-      <c r="AO12" s="178"/>
-      <c r="AP12" s="178"/>
-      <c r="AQ12" s="178"/>
-      <c r="AR12" s="178"/>
-      <c r="AS12" s="178"/>
-      <c r="AT12" s="178"/>
-      <c r="AU12" s="178"/>
-      <c r="AV12" s="178"/>
-      <c r="AW12" s="178"/>
-      <c r="AX12" s="178"/>
-      <c r="AY12" s="178"/>
-      <c r="AZ12" s="178"/>
-      <c r="BA12" s="178"/>
-      <c r="BB12" s="178"/>
-      <c r="BC12" s="178"/>
-      <c r="BD12" s="178"/>
-      <c r="BE12" s="178"/>
-      <c r="BF12" s="178"/>
-      <c r="BG12" s="178"/>
-      <c r="BH12" s="178"/>
-      <c r="BI12" s="178"/>
-      <c r="BJ12" s="178"/>
-      <c r="BK12" s="178"/>
-      <c r="BL12" s="178"/>
-      <c r="BM12" s="178"/>
-      <c r="BN12" s="178"/>
-      <c r="BO12" s="178"/>
-      <c r="BP12" s="178"/>
-      <c r="BQ12" s="178"/>
-      <c r="BR12" s="178"/>
-      <c r="BS12" s="178"/>
-      <c r="BT12" s="178"/>
-      <c r="BU12" s="178"/>
-      <c r="BV12" s="178"/>
-      <c r="BW12" s="178"/>
-      <c r="BX12" s="178"/>
-      <c r="BY12" s="178"/>
-      <c r="BZ12" s="178"/>
-      <c r="CA12" s="178"/>
-      <c r="CB12" s="178"/>
-      <c r="CC12" s="178"/>
-      <c r="CD12" s="178"/>
-      <c r="CE12" s="178"/>
-      <c r="CF12" s="178"/>
-      <c r="CG12" s="178"/>
-      <c r="CH12" s="178"/>
-      <c r="CI12" s="178"/>
-      <c r="CJ12" s="178"/>
-      <c r="CK12" s="178"/>
-      <c r="CL12" s="178"/>
-      <c r="CM12" s="178"/>
-      <c r="CN12" s="178"/>
-      <c r="CO12" s="178"/>
-      <c r="CP12" s="178"/>
-      <c r="CQ12" s="178"/>
-      <c r="CR12" s="178"/>
-      <c r="CS12" s="178"/>
-      <c r="CT12" s="178"/>
-      <c r="CU12" s="178"/>
-      <c r="CV12" s="178"/>
-      <c r="CW12" s="178"/>
-      <c r="CX12" s="178"/>
-      <c r="CY12" s="178"/>
-      <c r="CZ12" s="178"/>
-      <c r="DA12" s="178"/>
-      <c r="DB12" s="178"/>
-      <c r="DC12" s="178"/>
-      <c r="DD12" s="178"/>
-      <c r="DE12" s="178"/>
-      <c r="DF12" s="178"/>
-      <c r="DG12" s="178"/>
-      <c r="DH12" s="178"/>
-      <c r="DI12" s="178"/>
-      <c r="DJ12" s="178"/>
-      <c r="DK12" s="178"/>
-      <c r="DL12" s="178"/>
-      <c r="DM12" s="178"/>
-      <c r="DN12" s="178"/>
-      <c r="DO12" s="178"/>
-      <c r="DP12" s="178"/>
-      <c r="DQ12" s="178"/>
-      <c r="DR12" s="178"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="176"/>
+      <c r="AA12" s="176"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="176"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="176"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="176"/>
+      <c r="AL12" s="176"/>
+      <c r="AM12" s="176"/>
+      <c r="AN12" s="176"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="176"/>
+      <c r="AS12" s="176"/>
+      <c r="AT12" s="176"/>
+      <c r="AU12" s="176"/>
+      <c r="AV12" s="176"/>
+      <c r="AW12" s="176"/>
+      <c r="AX12" s="176"/>
+      <c r="AY12" s="176"/>
+      <c r="AZ12" s="176"/>
+      <c r="BA12" s="176"/>
+      <c r="BB12" s="176"/>
+      <c r="BC12" s="176"/>
+      <c r="BD12" s="176"/>
+      <c r="BE12" s="176"/>
+      <c r="BF12" s="176"/>
+      <c r="BG12" s="176"/>
+      <c r="BH12" s="176"/>
+      <c r="BI12" s="176"/>
+      <c r="BJ12" s="176"/>
+      <c r="BK12" s="176"/>
+      <c r="BL12" s="176"/>
+      <c r="BM12" s="176"/>
+      <c r="BN12" s="176"/>
+      <c r="BO12" s="176"/>
+      <c r="BP12" s="176"/>
+      <c r="BQ12" s="176"/>
+      <c r="BR12" s="176"/>
+      <c r="BS12" s="176"/>
+      <c r="BT12" s="176"/>
+      <c r="BU12" s="176"/>
+      <c r="BV12" s="176"/>
+      <c r="BW12" s="176"/>
+      <c r="BX12" s="176"/>
+      <c r="BY12" s="176"/>
+      <c r="BZ12" s="176"/>
+      <c r="CA12" s="176"/>
+      <c r="CB12" s="176"/>
+      <c r="CC12" s="176"/>
+      <c r="CD12" s="176"/>
+      <c r="CE12" s="176"/>
+      <c r="CF12" s="176"/>
+      <c r="CG12" s="176"/>
+      <c r="CH12" s="176"/>
+      <c r="CI12" s="176"/>
+      <c r="CJ12" s="176"/>
+      <c r="CK12" s="176"/>
+      <c r="CL12" s="176"/>
+      <c r="CM12" s="176"/>
+      <c r="CN12" s="176"/>
+      <c r="CO12" s="176"/>
+      <c r="CP12" s="176"/>
+      <c r="CQ12" s="176"/>
+      <c r="CR12" s="176"/>
+      <c r="CS12" s="176"/>
+      <c r="CT12" s="176"/>
+      <c r="CU12" s="176"/>
+      <c r="CV12" s="176"/>
+      <c r="CW12" s="176"/>
+      <c r="CX12" s="176"/>
+      <c r="CY12" s="176"/>
+      <c r="CZ12" s="176"/>
+      <c r="DA12" s="176"/>
+      <c r="DB12" s="176"/>
+      <c r="DC12" s="176"/>
+      <c r="DD12" s="176"/>
+      <c r="DE12" s="176"/>
+      <c r="DF12" s="176"/>
+      <c r="DG12" s="176"/>
+      <c r="DH12" s="176"/>
+      <c r="DI12" s="176"/>
+      <c r="DJ12" s="176"/>
+      <c r="DK12" s="176"/>
+      <c r="DL12" s="176"/>
+      <c r="DM12" s="176"/>
+      <c r="DN12" s="176"/>
+      <c r="DO12" s="176"/>
+      <c r="DP12" s="176"/>
+      <c r="DQ12" s="176"/>
+      <c r="DR12" s="176"/>
       <c r="DS12" s="23"/>
     </row>
   </sheetData>
@@ -11798,20 +11391,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.8516" style="179" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="179" customWidth="1"/>
-    <col min="3" max="3" width="29.8516" style="179" customWidth="1"/>
-    <col min="4" max="5" width="19.8516" style="179" customWidth="1"/>
-    <col min="6" max="6" width="24.1719" style="179" customWidth="1"/>
-    <col min="7" max="7" width="15.3516" style="179" customWidth="1"/>
-    <col min="8" max="8" width="34.3516" style="179" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="179" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="179" customWidth="1"/>
+    <col min="1" max="1" width="28.8516" style="177" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="177" customWidth="1"/>
+    <col min="3" max="3" width="29.8516" style="177" customWidth="1"/>
+    <col min="4" max="5" width="19.8516" style="177" customWidth="1"/>
+    <col min="6" max="6" width="24.1719" style="177" customWidth="1"/>
+    <col min="7" max="7" width="15.3516" style="177" customWidth="1"/>
+    <col min="8" max="8" width="34.3516" style="177" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="177" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="177" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="180">
-        <v>588</v>
+      <c r="A1" t="s" s="178">
+        <v>549</v>
       </c>
       <c r="B1" t="s" s="150">
         <v>1</v>
@@ -11819,12 +11412,12 @@
       <c r="C1" t="s" s="151">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="181">
+      <c r="D1" t="s" s="179">
         <v>3</v>
       </c>
-      <c r="E1" s="181"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="26"/>
       <c r="I1" s="117"/>
     </row>
@@ -11839,11 +11432,11 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G2" t="s" s="139">
         <v>447</v>
@@ -11879,324 +11472,174 @@
       <c r="I3" s="86"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="156">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="176"/>
-      <c r="C4" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s" s="78">
-        <v>473</v>
-      </c>
+      <c r="A4" s="156"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="78"/>
-      <c r="F4" t="s" s="78">
-        <v>551</v>
-      </c>
-      <c r="G4" s="157">
-        <v>1</v>
-      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="79"/>
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A5" s="158"/>
       <c r="B5" s="158"/>
-      <c r="C5" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s" s="88">
-        <v>552</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="88"/>
-      <c r="F5" t="s" s="88">
-        <v>553</v>
-      </c>
-      <c r="G5" s="159">
-        <v>2</v>
-      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="159"/>
       <c r="H5" s="89"/>
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A6" s="156"/>
       <c r="B6" s="156"/>
-      <c r="C6" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>311</v>
-      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" t="s" s="132">
-        <v>313</v>
-      </c>
-      <c r="G6" s="157">
-        <v>3</v>
-      </c>
+      <c r="F6" s="132"/>
+      <c r="G6" s="157"/>
       <c r="H6" s="79"/>
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A7" s="158"/>
       <c r="B7" s="158"/>
-      <c r="C7" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s" s="88">
-        <v>554</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="88"/>
-      <c r="F7" t="s" s="134">
-        <v>555</v>
-      </c>
-      <c r="G7" s="159">
-        <v>4</v>
-      </c>
+      <c r="F7" s="134"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="89"/>
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A8" s="156"/>
       <c r="B8" s="156"/>
-      <c r="C8" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="78">
-        <v>556</v>
-      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="78"/>
-      <c r="F8" t="s" s="132">
-        <v>557</v>
-      </c>
-      <c r="G8" s="157">
-        <v>5</v>
-      </c>
+      <c r="F8" s="132"/>
+      <c r="G8" s="157"/>
       <c r="H8" s="79"/>
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A9" s="158"/>
       <c r="B9" s="158"/>
-      <c r="C9" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s" s="88">
-        <v>558</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="88"/>
-      <c r="F9" t="s" s="134">
-        <v>559</v>
-      </c>
-      <c r="G9" s="159">
-        <v>6</v>
-      </c>
+      <c r="F9" s="134"/>
+      <c r="G9" s="159"/>
       <c r="H9" s="89"/>
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A10" s="156"/>
       <c r="B10" s="156"/>
-      <c r="C10" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s" s="78">
-        <v>560</v>
-      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="78"/>
-      <c r="F10" t="s" s="132">
-        <v>561</v>
-      </c>
-      <c r="G10" s="157">
-        <v>7</v>
-      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="79"/>
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A11" s="158"/>
       <c r="B11" s="158"/>
-      <c r="C11" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="88">
-        <v>562</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="88"/>
-      <c r="F11" t="s" s="88">
-        <v>563</v>
-      </c>
-      <c r="G11" s="159">
-        <v>8</v>
-      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="159"/>
       <c r="H11" s="89"/>
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A12" s="156"/>
       <c r="B12" s="156"/>
-      <c r="C12" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="78">
-        <v>564</v>
-      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="78"/>
-      <c r="F12" t="s" s="78">
-        <v>565</v>
-      </c>
-      <c r="G12" s="157">
-        <v>9</v>
-      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="79"/>
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A13" s="158"/>
       <c r="B13" s="158"/>
-      <c r="C13" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s" s="88">
-        <v>566</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="88"/>
-      <c r="F13" t="s" s="88">
-        <v>567</v>
-      </c>
-      <c r="G13" s="159">
-        <v>10</v>
-      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="89"/>
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A14" s="156"/>
       <c r="B14" s="156"/>
-      <c r="C14" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s" s="78">
-        <v>474</v>
-      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="78"/>
-      <c r="F14" t="s" s="78">
-        <v>568</v>
-      </c>
-      <c r="G14" s="157">
-        <v>11</v>
-      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="157"/>
       <c r="H14" s="79"/>
       <c r="I14" s="86"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A15" s="158"/>
       <c r="B15" s="158"/>
-      <c r="C15" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s" s="88">
-        <v>569</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="88"/>
-      <c r="F15" t="s" s="88">
-        <v>570</v>
-      </c>
-      <c r="G15" s="159">
-        <v>12</v>
-      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="89"/>
       <c r="I15" s="86"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A16" s="156"/>
       <c r="B16" s="156"/>
-      <c r="C16" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s" s="78">
-        <v>571</v>
-      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="78"/>
-      <c r="F16" t="s" s="78">
-        <v>572</v>
-      </c>
-      <c r="G16" s="157">
-        <v>13</v>
-      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="157"/>
       <c r="H16" s="79"/>
       <c r="I16" s="86"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="158">
-        <v>42736</v>
-      </c>
+      <c r="A17" s="158"/>
       <c r="B17" s="158"/>
-      <c r="C17" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s" s="88">
-        <v>581</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="88"/>
-      <c r="F17" t="s" s="88">
-        <v>587</v>
-      </c>
-      <c r="G17" s="159">
-        <v>14</v>
-      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="89"/>
       <c r="I17" s="86"/>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="156">
-        <v>42736</v>
-      </c>
+      <c r="A18" s="156"/>
       <c r="B18" s="156"/>
-      <c r="C18" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s" s="78">
-        <v>573</v>
-      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="78"/>
-      <c r="F18" t="s" s="78">
-        <v>479</v>
-      </c>
-      <c r="G18" s="157">
-        <v>15</v>
-      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="157"/>
       <c r="H18" s="79"/>
       <c r="I18" s="86"/>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="183"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="103"/>
-      <c r="C19" s="184"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
       <c r="F19" s="103"/>
@@ -12216,9 +11659,9 @@
       <c r="I20" s="86"/>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="183"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="103"/>
-      <c r="C21" s="184"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="104"/>
       <c r="E21" s="104"/>
       <c r="F21" s="103"/>
@@ -12238,9 +11681,9 @@
       <c r="I22" s="86"/>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="183"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="103"/>
-      <c r="C23" s="184"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
       <c r="F23" s="103"/>
@@ -12407,22 +11850,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.3516" style="185" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="185" customWidth="1"/>
-    <col min="3" max="3" width="30.1719" style="185" customWidth="1"/>
-    <col min="4" max="4" width="29.6719" style="185" customWidth="1"/>
-    <col min="5" max="5" width="25.1719" style="185" customWidth="1"/>
-    <col min="6" max="6" width="38.6719" style="185" customWidth="1"/>
-    <col min="7" max="7" width="13.3516" style="185" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="185" customWidth="1"/>
-    <col min="9" max="9" width="46" style="185" customWidth="1"/>
-    <col min="10" max="64" width="8.85156" style="185" customWidth="1"/>
-    <col min="65" max="16384" width="8.85156" style="185" customWidth="1"/>
+    <col min="1" max="1" width="22.3516" style="183" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="183" customWidth="1"/>
+    <col min="3" max="3" width="30.1719" style="183" customWidth="1"/>
+    <col min="4" max="4" width="29.6719" style="183" customWidth="1"/>
+    <col min="5" max="5" width="25.1719" style="183" customWidth="1"/>
+    <col min="6" max="6" width="38.6719" style="183" customWidth="1"/>
+    <col min="7" max="7" width="13.3516" style="183" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="183" customWidth="1"/>
+    <col min="9" max="9" width="46" style="183" customWidth="1"/>
+    <col min="10" max="64" width="8.85156" style="183" customWidth="1"/>
+    <col min="65" max="16384" width="8.85156" style="183" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -12505,14 +11948,14 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="G2" t="s" s="139">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="H2" s="82"/>
       <c r="I2" s="83"/>
@@ -12595,7 +12038,7 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="I3" t="s" s="84">
         <v>184</v>
@@ -12657,25 +12100,15 @@
       <c r="BL3" s="66"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="187"/>
-      <c r="C4" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s" s="188">
-        <v>581</v>
-      </c>
-      <c r="E4" s="188"/>
-      <c r="F4" t="s" s="188">
-        <v>587</v>
-      </c>
-      <c r="G4" s="187">
-        <v>1</v>
-      </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
       <c r="J4" s="65"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -12733,25 +12166,15 @@
       <c r="BL4" s="66"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="190"/>
-      <c r="C5" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s" s="191">
-        <v>473</v>
-      </c>
-      <c r="E5" s="191"/>
-      <c r="F5" t="s" s="191">
-        <v>551</v>
-      </c>
-      <c r="G5" s="190">
-        <v>2</v>
-      </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
       <c r="J5" s="65"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -12809,25 +12232,15 @@
       <c r="BL5" s="66"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="188"/>
-      <c r="C6" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="188">
-        <v>552</v>
-      </c>
-      <c r="E6" s="188"/>
-      <c r="F6" t="s" s="188">
-        <v>552</v>
-      </c>
-      <c r="G6" s="187">
-        <v>3</v>
-      </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
       <c r="J6" s="65"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -12885,25 +12298,15 @@
       <c r="BL6" s="66"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="191"/>
-      <c r="C7" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s" s="191">
-        <v>311</v>
-      </c>
-      <c r="E7" s="191"/>
-      <c r="F7" t="s" s="191">
-        <v>311</v>
-      </c>
-      <c r="G7" s="190">
-        <v>4</v>
-      </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
       <c r="J7" s="65"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -12961,25 +12364,15 @@
       <c r="BL7" s="66"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="188"/>
-      <c r="C8" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="188">
-        <v>554</v>
-      </c>
-      <c r="E8" s="188"/>
-      <c r="F8" t="s" s="188">
-        <v>554</v>
-      </c>
-      <c r="G8" s="187">
-        <v>5</v>
-      </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
       <c r="J8" s="65"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -13037,25 +12430,15 @@
       <c r="BL8" s="66"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="191"/>
-      <c r="C9" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s" s="191">
-        <v>556</v>
-      </c>
-      <c r="E9" s="191"/>
-      <c r="F9" t="s" s="191">
-        <v>556</v>
-      </c>
-      <c r="G9" s="190">
-        <v>6</v>
-      </c>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="65"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -13113,25 +12496,15 @@
       <c r="BL9" s="66"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="188"/>
-      <c r="C10" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s" s="188">
-        <v>558</v>
-      </c>
-      <c r="E10" s="188"/>
-      <c r="F10" t="s" s="188">
-        <v>558</v>
-      </c>
-      <c r="G10" s="187">
-        <v>7</v>
-      </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
       <c r="J10" s="65"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -13189,25 +12562,15 @@
       <c r="BL10" s="66"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="191"/>
-      <c r="C11" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="191">
-        <v>560</v>
-      </c>
-      <c r="E11" s="191"/>
-      <c r="F11" t="s" s="191">
-        <v>560</v>
-      </c>
-      <c r="G11" s="190">
-        <v>8</v>
-      </c>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
       <c r="J11" s="65"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -13265,25 +12628,15 @@
       <c r="BL11" s="66"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="188"/>
-      <c r="C12" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="188">
-        <v>562</v>
-      </c>
-      <c r="E12" s="188"/>
-      <c r="F12" t="s" s="188">
-        <v>562</v>
-      </c>
-      <c r="G12" s="187">
-        <v>9</v>
-      </c>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="65"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -13341,25 +12694,15 @@
       <c r="BL12" s="66"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="191"/>
-      <c r="C13" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s" s="191">
-        <v>590</v>
-      </c>
-      <c r="E13" s="191"/>
-      <c r="F13" t="s" s="191">
-        <v>590</v>
-      </c>
-      <c r="G13" s="190">
-        <v>10</v>
-      </c>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
       <c r="J13" s="65"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -13417,25 +12760,15 @@
       <c r="BL13" s="66"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="188"/>
-      <c r="C14" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s" s="188">
-        <v>564</v>
-      </c>
-      <c r="E14" s="188"/>
-      <c r="F14" t="s" s="188">
-        <v>564</v>
-      </c>
-      <c r="G14" s="187">
-        <v>11</v>
-      </c>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
+      <c r="A14" s="184"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
       <c r="J14" s="65"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -13493,25 +12826,15 @@
       <c r="BL14" s="66"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="191"/>
-      <c r="C15" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s" s="191">
-        <v>566</v>
-      </c>
-      <c r="E15" s="191"/>
-      <c r="F15" t="s" s="191">
-        <v>566</v>
-      </c>
-      <c r="G15" s="190">
-        <v>12</v>
-      </c>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
       <c r="J15" s="65"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -13569,25 +12892,15 @@
       <c r="BL15" s="66"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="188"/>
-      <c r="C16" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s" s="188">
-        <v>474</v>
-      </c>
-      <c r="E16" s="188"/>
-      <c r="F16" t="s" s="188">
-        <v>474</v>
-      </c>
-      <c r="G16" s="187">
-        <v>13</v>
-      </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
       <c r="J16" s="65"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -13645,25 +12958,15 @@
       <c r="BL16" s="66"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="191"/>
-      <c r="C17" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s" s="191">
-        <v>571</v>
-      </c>
-      <c r="E17" s="191"/>
-      <c r="F17" t="s" s="191">
-        <v>571</v>
-      </c>
-      <c r="G17" s="190">
-        <v>14</v>
-      </c>
-      <c r="H17" s="191"/>
-      <c r="I17" s="191"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
       <c r="J17" s="65"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -13721,25 +13024,15 @@
       <c r="BL17" s="66"/>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="188"/>
-      <c r="C18" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s" s="188">
-        <v>569</v>
-      </c>
-      <c r="E18" s="188"/>
-      <c r="F18" t="s" s="188">
-        <v>569</v>
-      </c>
-      <c r="G18" s="187">
-        <v>15</v>
-      </c>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="65"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -13797,25 +13090,15 @@
       <c r="BL18" s="66"/>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="191"/>
-      <c r="C19" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s" s="191">
-        <v>325</v>
-      </c>
-      <c r="E19" s="191"/>
-      <c r="F19" t="s" s="191">
-        <v>591</v>
-      </c>
-      <c r="G19" s="190">
-        <v>16</v>
-      </c>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
       <c r="J19" s="65"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -13873,25 +13156,15 @@
       <c r="BL19" s="66"/>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="186">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="188"/>
-      <c r="C20" t="s" s="90">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s" s="188">
-        <v>573</v>
-      </c>
-      <c r="E20" s="188"/>
-      <c r="F20" t="s" s="188">
-        <v>479</v>
-      </c>
-      <c r="G20" s="187">
-        <v>17</v>
-      </c>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
       <c r="J20" s="65"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -13949,25 +13222,15 @@
       <c r="BL20" s="66"/>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="189">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="191"/>
-      <c r="C21" t="s" s="105">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s" s="191">
-        <v>336</v>
-      </c>
-      <c r="E21" s="191"/>
-      <c r="F21" t="s" s="191">
-        <v>109</v>
-      </c>
-      <c r="G21" s="190">
-        <v>18</v>
-      </c>
-      <c r="H21" s="191"/>
-      <c r="I21" s="191"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
       <c r="J21" s="65"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -14025,15 +13288,15 @@
       <c r="BL21" s="66"/>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
+      <c r="A22" s="184"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
       <c r="J22" s="65"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -14091,15 +13354,15 @@
       <c r="BL22" s="66"/>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="192"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
       <c r="J23" s="65"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -14157,15 +13420,15 @@
       <c r="BL23" s="66"/>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="186"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
       <c r="J24" s="65"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -14223,15 +13486,15 @@
       <c r="BL24" s="66"/>
     </row>
     <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="192"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
       <c r="J25" s="65"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -14289,15 +13552,15 @@
       <c r="BL25" s="66"/>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="186"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
+      <c r="A26" s="184"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="65"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -14355,15 +13618,15 @@
       <c r="BL26" s="66"/>
     </row>
     <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="192"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
       <c r="J27" s="65"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -14421,15 +13684,15 @@
       <c r="BL27" s="66"/>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="186"/>
-      <c r="B28" s="187"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
       <c r="J28" s="65"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -14487,15 +13750,15 @@
       <c r="BL28" s="66"/>
     </row>
     <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="192"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
       <c r="J29" s="65"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -14553,15 +13816,15 @@
       <c r="BL29" s="66"/>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
       <c r="J30" s="65"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -14701,19 +13964,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="195" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="195" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="195" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="195" customWidth="1"/>
-    <col min="5" max="5" width="26.8516" style="195" customWidth="1"/>
-    <col min="6" max="6" width="22.8516" style="195" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="195" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="195" customWidth="1"/>
+    <col min="1" max="1" width="16.1719" style="193" customWidth="1"/>
+    <col min="2" max="2" width="17.8516" style="193" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="193" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="193" customWidth="1"/>
+    <col min="5" max="5" width="26.8516" style="193" customWidth="1"/>
+    <col min="6" max="6" width="22.8516" style="193" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="193" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="193" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -14737,13 +14000,13 @@
       </c>
       <c r="C2" s="148"/>
       <c r="D2" t="s" s="139">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="E2" t="s" s="139">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -14755,16 +14018,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="84">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="D3" t="s" s="84">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s" s="84">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="F3" t="s" s="84">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -14776,7 +14039,7 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s" s="78">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="D4" t="s" s="78">
         <v>14</v>
@@ -14785,7 +14048,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="78">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -14797,7 +14060,7 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s" s="88">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="D5" t="s" s="88">
         <v>14</v>
@@ -14806,7 +14069,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="88">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -14921,46 +14184,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.8516" style="196" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="196" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="196" customWidth="1"/>
-    <col min="4" max="4" width="32.6719" style="196" customWidth="1"/>
-    <col min="5" max="5" width="28" style="196" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="196" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="196" customWidth="1"/>
+    <col min="1" max="1" width="30.8516" style="194" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="194" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="194" customWidth="1"/>
+    <col min="4" max="4" width="32.6719" style="194" customWidth="1"/>
+    <col min="5" max="5" width="28" style="194" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="194" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="194" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="197">
-        <v>602</v>
-      </c>
-      <c r="B1" t="s" s="198">
+      <c r="A1" t="s" s="195">
+        <v>561</v>
+      </c>
+      <c r="B1" t="s" s="196">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="199">
+      <c r="C1" t="s" s="197">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="200">
+      <c r="D1" t="s" s="198">
         <v>3</v>
       </c>
-      <c r="E1" s="201"/>
+      <c r="E1" s="199"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="46.75" customHeight="1">
-      <c r="A2" t="s" s="202">
+      <c r="A2" t="s" s="200">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="202">
+      <c r="B2" t="s" s="200">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="202">
-        <v>603</v>
-      </c>
-      <c r="D2" t="s" s="202">
+      <c r="C2" t="s" s="200">
+        <v>562</v>
+      </c>
+      <c r="D2" t="s" s="200">
         <v>364</v>
       </c>
-      <c r="E2" t="s" s="202">
-        <v>604</v>
+      <c r="E2" t="s" s="200">
+        <v>563</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -14991,7 +14254,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="E4" t="s" s="78">
         <v>368</v>
@@ -15007,7 +14270,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s" s="104">
         <v>368</v>
@@ -15023,7 +14286,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s" s="78">
         <v>368</v>
@@ -15039,7 +14302,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="88">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="E7" t="s" s="104">
         <v>368</v>
@@ -15095,19 +14358,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33" style="203" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="203" customWidth="1"/>
-    <col min="3" max="3" width="30.3516" style="203" customWidth="1"/>
-    <col min="4" max="4" width="40.8516" style="203" customWidth="1"/>
-    <col min="5" max="5" width="28.3516" style="203" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="203" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="203" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="203" customWidth="1"/>
+    <col min="1" max="1" width="33" style="201" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="201" customWidth="1"/>
+    <col min="3" max="3" width="30.3516" style="201" customWidth="1"/>
+    <col min="4" max="4" width="40.8516" style="201" customWidth="1"/>
+    <col min="5" max="5" width="28.3516" style="201" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="201" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="201" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="201" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -15133,13 +14396,13 @@
         <v>362</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s" s="139">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="G2" s="86"/>
     </row>
@@ -15172,11 +14435,11 @@
       <c r="C4" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D4" t="s" s="204">
+      <c r="D4" t="s" s="202">
         <v>100</v>
       </c>
       <c r="E4" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s" s="88">
         <v>368</v>
@@ -15191,11 +14454,11 @@
       <c r="C5" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D5" t="s" s="204">
+      <c r="D5" t="s" s="202">
         <v>104</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F5" t="s" s="88">
         <v>368</v>
@@ -15210,11 +14473,11 @@
       <c r="C6" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D6" t="s" s="204">
+      <c r="D6" t="s" s="202">
         <v>107</v>
       </c>
       <c r="E6" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F6" t="s" s="88">
         <v>368</v>
@@ -15229,11 +14492,11 @@
       <c r="C7" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="204">
+      <c r="D7" t="s" s="202">
         <v>110</v>
       </c>
       <c r="E7" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F7" t="s" s="88">
         <v>368</v>
@@ -15248,11 +14511,11 @@
       <c r="C8" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D8" t="s" s="204">
+      <c r="D8" t="s" s="202">
         <v>113</v>
       </c>
       <c r="E8" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F8" t="s" s="88">
         <v>368</v>
@@ -15267,11 +14530,11 @@
       <c r="C9" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D9" t="s" s="204">
+      <c r="D9" t="s" s="202">
         <v>116</v>
       </c>
       <c r="E9" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F9" t="s" s="88">
         <v>368</v>
@@ -15286,11 +14549,11 @@
       <c r="C10" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="204">
+      <c r="D10" t="s" s="202">
         <v>120</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F10" t="s" s="88">
         <v>368</v>
@@ -15305,11 +14568,11 @@
       <c r="C11" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D11" t="s" s="204">
+      <c r="D11" t="s" s="202">
         <v>123</v>
       </c>
       <c r="E11" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F11" t="s" s="88">
         <v>368</v>
@@ -15324,11 +14587,11 @@
       <c r="C12" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D12" t="s" s="204">
+      <c r="D12" t="s" s="202">
         <v>126</v>
       </c>
       <c r="E12" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F12" t="s" s="88">
         <v>368</v>
@@ -15343,11 +14606,11 @@
       <c r="C13" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D13" t="s" s="204">
+      <c r="D13" t="s" s="202">
         <v>129</v>
       </c>
       <c r="E13" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F13" t="s" s="88">
         <v>368</v>
@@ -15362,11 +14625,11 @@
       <c r="C14" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D14" t="s" s="204">
+      <c r="D14" t="s" s="202">
         <v>132</v>
       </c>
       <c r="E14" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F14" t="s" s="88">
         <v>368</v>
@@ -15381,11 +14644,11 @@
       <c r="C15" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D15" t="s" s="204">
+      <c r="D15" t="s" s="202">
         <v>135</v>
       </c>
       <c r="E15" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F15" t="s" s="88">
         <v>368</v>
@@ -15400,11 +14663,11 @@
       <c r="C16" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D16" t="s" s="204">
+      <c r="D16" t="s" s="202">
         <v>139</v>
       </c>
       <c r="E16" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s" s="88">
         <v>368</v>
@@ -15419,11 +14682,11 @@
       <c r="C17" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D17" t="s" s="204">
+      <c r="D17" t="s" s="202">
         <v>142</v>
       </c>
       <c r="E17" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s" s="88">
         <v>368</v>
@@ -15438,11 +14701,11 @@
       <c r="C18" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D18" t="s" s="204">
+      <c r="D18" t="s" s="202">
         <v>144</v>
       </c>
       <c r="E18" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F18" t="s" s="88">
         <v>368</v>
@@ -15457,11 +14720,11 @@
       <c r="C19" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D19" t="s" s="204">
+      <c r="D19" t="s" s="202">
         <v>147</v>
       </c>
       <c r="E19" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F19" t="s" s="88">
         <v>368</v>
@@ -15476,11 +14739,11 @@
       <c r="C20" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D20" t="s" s="204">
+      <c r="D20" t="s" s="202">
         <v>151</v>
       </c>
       <c r="E20" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F20" t="s" s="88">
         <v>368</v>
@@ -15495,11 +14758,11 @@
       <c r="C21" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D21" t="s" s="204">
+      <c r="D21" t="s" s="202">
         <v>154</v>
       </c>
       <c r="E21" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F21" t="s" s="88">
         <v>368</v>
@@ -15514,11 +14777,11 @@
       <c r="C22" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D22" t="s" s="204">
+      <c r="D22" t="s" s="202">
         <v>157</v>
       </c>
       <c r="E22" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F22" t="s" s="88">
         <v>368</v>
@@ -15533,11 +14796,11 @@
       <c r="C23" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D23" t="s" s="204">
+      <c r="D23" t="s" s="202">
         <v>160</v>
       </c>
       <c r="E23" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F23" t="s" s="88">
         <v>368</v>
@@ -15552,11 +14815,11 @@
       <c r="C24" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D24" t="s" s="204">
+      <c r="D24" t="s" s="202">
         <v>163</v>
       </c>
       <c r="E24" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F24" t="s" s="88">
         <v>368</v>
@@ -15571,11 +14834,11 @@
       <c r="C25" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="204">
+      <c r="D25" t="s" s="202">
         <v>166</v>
       </c>
       <c r="E25" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F25" t="s" s="88">
         <v>368</v>
@@ -15590,11 +14853,11 @@
       <c r="C26" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D26" t="s" s="204">
+      <c r="D26" t="s" s="202">
         <v>168</v>
       </c>
       <c r="E26" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F26" t="s" s="88">
         <v>368</v>
@@ -15609,11 +14872,11 @@
       <c r="C27" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D27" t="s" s="204">
+      <c r="D27" t="s" s="202">
         <v>171</v>
       </c>
       <c r="E27" t="s" s="88">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F27" t="s" s="88">
         <v>368</v>
@@ -15700,14 +14963,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="28.8516" style="205" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="205" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="205" customWidth="1"/>
+    <col min="1" max="4" width="28.8516" style="203" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="203" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="203" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" t="s" s="107">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -15715,23 +14978,23 @@
       <c r="C1" t="s" s="138">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="206">
+      <c r="D1" t="s" s="204">
         <v>3</v>
       </c>
       <c r="E1" s="45"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="116">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s" s="116">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="C2" t="s" s="116">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s" s="116">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="E2" s="45"/>
     </row>
@@ -15755,13 +15018,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="78">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s" s="78">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="E4" s="45"/>
     </row>
@@ -15769,14 +15032,14 @@
       <c r="A5" t="s" s="44">
         <v>41</v>
       </c>
-      <c r="B5" t="s" s="207">
-        <v>616</v>
-      </c>
-      <c r="C5" t="s" s="207">
-        <v>617</v>
-      </c>
-      <c r="D5" t="s" s="207">
-        <v>618</v>
+      <c r="B5" t="s" s="205">
+        <v>575</v>
+      </c>
+      <c r="C5" t="s" s="205">
+        <v>576</v>
+      </c>
+      <c r="D5" t="s" s="205">
+        <v>577</v>
       </c>
       <c r="E5" s="45"/>
     </row>
@@ -15785,13 +15048,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="78">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s" s="78">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="E6" s="45"/>
     </row>
@@ -15799,14 +15062,14 @@
       <c r="A7" t="s" s="44">
         <v>41</v>
       </c>
-      <c r="B7" t="s" s="207">
-        <v>622</v>
-      </c>
-      <c r="C7" t="s" s="207">
-        <v>623</v>
-      </c>
-      <c r="D7" t="s" s="207">
-        <v>624</v>
+      <c r="B7" t="s" s="205">
+        <v>581</v>
+      </c>
+      <c r="C7" t="s" s="205">
+        <v>582</v>
+      </c>
+      <c r="D7" t="s" s="205">
+        <v>583</v>
       </c>
       <c r="E7" s="45"/>
     </row>
@@ -15818,10 +15081,10 @@
       <c r="E8" s="45"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="208"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
+      <c r="A9" s="206"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
       <c r="E9" s="45"/>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -15832,10 +15095,10 @@
       <c r="E10" s="45"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="208"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
       <c r="E11" s="45"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
@@ -15862,18 +15125,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.1719" style="209" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="209" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="209" customWidth="1"/>
-    <col min="4" max="4" width="29" style="209" customWidth="1"/>
-    <col min="5" max="6" width="30.1719" style="209" customWidth="1"/>
-    <col min="7" max="141" width="8.85156" style="209" customWidth="1"/>
-    <col min="142" max="16384" width="8.85156" style="209" customWidth="1"/>
+    <col min="1" max="1" width="27.1719" style="207" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="207" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="207" customWidth="1"/>
+    <col min="4" max="4" width="29" style="207" customWidth="1"/>
+    <col min="5" max="6" width="30.1719" style="207" customWidth="1"/>
+    <col min="7" max="141" width="8.85156" style="207" customWidth="1"/>
+    <col min="142" max="16384" width="8.85156" style="207" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -16030,16 +15293,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="139">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s" s="139">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="20"/>
@@ -16341,10 +15604,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s" s="78">
         <v>368</v>
@@ -16494,10 +15757,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s" s="104">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="F5" t="s" s="104">
         <v>368</v>
@@ -16647,10 +15910,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s" s="78">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="F6" t="s" s="78">
         <v>368</v>
@@ -16800,10 +16063,10 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F7" t="s" s="104">
         <v>368</v>
@@ -16953,10 +16216,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="78">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s" s="78">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="F8" t="s" s="78">
         <v>368</v>
@@ -17829,18 +17092,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="210" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="210" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="210" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="210" customWidth="1"/>
-    <col min="5" max="6" width="29.3516" style="210" customWidth="1"/>
-    <col min="7" max="84" width="8.85156" style="210" customWidth="1"/>
-    <col min="85" max="16384" width="8.85156" style="210" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="208" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="208" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="208" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="208" customWidth="1"/>
+    <col min="5" max="6" width="29.3516" style="208" customWidth="1"/>
+    <col min="7" max="84" width="8.85156" style="208" customWidth="1"/>
+    <col min="85" max="16384" width="8.85156" style="208" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>627</v>
+        <v>586</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -17943,13 +17206,13 @@
         <v>362</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="E2" t="s" s="9">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="9">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="20"/>
@@ -18041,7 +17304,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s" s="84">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s" s="84">
         <v>367</v>
@@ -18137,10 +17400,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s" s="78">
         <v>368</v>
@@ -18233,13 +17496,13 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E5" t="s" s="104">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s" s="104">
-        <v>630</v>
+        <v>589</v>
       </c>
       <c r="G5" s="65"/>
       <c r="H5" s="20"/>
@@ -18329,10 +17592,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E6" t="s" s="78">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="F6" t="s" s="78">
         <v>368</v>
@@ -18425,10 +17688,10 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F7" t="s" s="104">
         <v>368</v>
@@ -18521,10 +17784,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="78">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E8" t="s" s="78">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="F8" t="s" s="78">
         <v>368</v>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1503,6 +1503,15 @@
     <t>TabShowCondition</t>
   </si>
   <si>
+    <t>notApplicable</t>
+  </si>
+  <si>
+    <t>NameTab</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
@@ -1747,6 +1756,39 @@
 MaxLength: 200</t>
   </si>
   <si>
+    <t>Text Field</t>
+  </si>
+  <si>
+    <t>Text Area</t>
+  </si>
+  <si>
+    <t>Address Field</t>
+  </si>
+  <si>
+    <t>Phone Field</t>
+  </si>
+  <si>
+    <t>Number Field</t>
+  </si>
+  <si>
+    <t>Yes or No Field</t>
+  </si>
+  <si>
+    <t>Collection Field</t>
+  </si>
+  <si>
+    <t>Money Field</t>
+  </si>
+  <si>
+    <t>Document Field</t>
+  </si>
+  <si>
+    <t>Multi Select Field</t>
+  </si>
+  <si>
+    <t>Email Field</t>
+  </si>
+  <si>
     <t>SearchCasesResultFields</t>
   </si>
   <si>
@@ -1754,6 +1796,24 @@
   </si>
   <si>
     <t>UseCase</t>
+  </si>
+  <si>
+    <t>`Text` orgcases</t>
+  </si>
+  <si>
+    <t>1:ASC</t>
+  </si>
+  <si>
+    <t>orgcases</t>
+  </si>
+  <si>
+    <t>`Email` orgcases</t>
+  </si>
+  <si>
+    <t>[CASE_REFERENCE]</t>
+  </si>
+  <si>
+    <t>`CaseReference` orgcases</t>
   </si>
   <si>
     <t>SearchResultFields</t>
@@ -1770,10 +1830,19 @@
 Positive Integer</t>
   </si>
   <si>
+    <t>Case Reference</t>
+  </si>
+  <si>
+    <t>[STATE]</t>
+  </si>
+  <si>
     <t>WorkBasketInputFields</t>
   </si>
   <si>
     <t>WorkBasketResultFields</t>
+  </si>
+  <si>
+    <t>TextAreaField</t>
   </si>
   <si>
     <t>UserProfile</t>
@@ -2107,11 +2176,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="29"/>
+      <color indexed="30"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2187,6 +2256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="28"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -2507,7 +2582,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -3003,13 +3078,19 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="22" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="22" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="22" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3049,6 +3130,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="22" fillId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="22" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3114,7 +3213,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3171,6 +3270,7 @@
       <rgbColor rgb="ff00b050"/>
       <rgbColor rgb="ff333333"/>
       <rgbColor rgb="ff800000"/>
+      <rgbColor rgb="ffdbe5f1"/>
       <rgbColor rgb="ff3f6797"/>
       <rgbColor rgb="ff602826"/>
     </indexedColors>
@@ -5158,7 +5258,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CR16"/>
+  <dimension ref="A1:CR12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5528,15 +5628,31 @@
       <c r="CR3" s="66"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="77">
+        <v>42736</v>
+      </c>
       <c r="B4" s="77"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="133"/>
+      <c r="C4" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="78">
+        <v>470</v>
+      </c>
+      <c r="E4" t="s" s="78">
+        <v>471</v>
+      </c>
+      <c r="F4" t="s" s="132">
+        <v>472</v>
+      </c>
+      <c r="G4" s="133">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="78">
+        <v>166</v>
+      </c>
+      <c r="I4" s="133">
+        <v>1</v>
+      </c>
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
       <c r="L4" s="79"/>
@@ -5626,15 +5742,31 @@
       <c r="CR4" s="66"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="87"/>
+      <c r="A5" s="87">
+        <v>42736</v>
+      </c>
       <c r="B5" s="87"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="135"/>
+      <c r="C5" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="88">
+        <v>470</v>
+      </c>
+      <c r="E5" t="s" s="88">
+        <v>471</v>
+      </c>
+      <c r="F5" t="s" s="134">
+        <v>472</v>
+      </c>
+      <c r="G5" s="135">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="88">
+        <v>126</v>
+      </c>
+      <c r="I5" s="135">
+        <v>2</v>
+      </c>
       <c r="J5" s="89"/>
       <c r="K5" s="89"/>
       <c r="L5" s="89"/>
@@ -5724,15 +5856,15 @@
       <c r="CR5" s="66"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="133"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="79"/>
       <c r="K6" s="79"/>
       <c r="L6" s="79"/>
@@ -5822,15 +5954,15 @@
       <c r="CR6" s="66"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="135"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="89"/>
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
@@ -6311,495 +6443,103 @@
       <c r="CQ11" s="20"/>
       <c r="CR11" s="66"/>
     </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
-      <c r="BK12" s="20"/>
-      <c r="BL12" s="20"/>
-      <c r="BM12" s="20"/>
-      <c r="BN12" s="20"/>
-      <c r="BO12" s="20"/>
-      <c r="BP12" s="20"/>
-      <c r="BQ12" s="20"/>
-      <c r="BR12" s="20"/>
-      <c r="BS12" s="20"/>
-      <c r="BT12" s="20"/>
-      <c r="BU12" s="20"/>
-      <c r="BV12" s="20"/>
-      <c r="BW12" s="20"/>
-      <c r="BX12" s="20"/>
-      <c r="BY12" s="20"/>
-      <c r="BZ12" s="20"/>
-      <c r="CA12" s="20"/>
-      <c r="CB12" s="20"/>
-      <c r="CC12" s="20"/>
-      <c r="CD12" s="20"/>
-      <c r="CE12" s="20"/>
-      <c r="CF12" s="20"/>
-      <c r="CG12" s="20"/>
-      <c r="CH12" s="20"/>
-      <c r="CI12" s="20"/>
-      <c r="CJ12" s="20"/>
-      <c r="CK12" s="20"/>
-      <c r="CL12" s="20"/>
-      <c r="CM12" s="20"/>
-      <c r="CN12" s="20"/>
-      <c r="CO12" s="20"/>
-      <c r="CP12" s="20"/>
-      <c r="CQ12" s="20"/>
-      <c r="CR12" s="66"/>
-    </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="20"/>
-      <c r="BF13" s="20"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
-      <c r="BK13" s="20"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="20"/>
-      <c r="BN13" s="20"/>
-      <c r="BO13" s="20"/>
-      <c r="BP13" s="20"/>
-      <c r="BQ13" s="20"/>
-      <c r="BR13" s="20"/>
-      <c r="BS13" s="20"/>
-      <c r="BT13" s="20"/>
-      <c r="BU13" s="20"/>
-      <c r="BV13" s="20"/>
-      <c r="BW13" s="20"/>
-      <c r="BX13" s="20"/>
-      <c r="BY13" s="20"/>
-      <c r="BZ13" s="20"/>
-      <c r="CA13" s="20"/>
-      <c r="CB13" s="20"/>
-      <c r="CC13" s="20"/>
-      <c r="CD13" s="20"/>
-      <c r="CE13" s="20"/>
-      <c r="CF13" s="20"/>
-      <c r="CG13" s="20"/>
-      <c r="CH13" s="20"/>
-      <c r="CI13" s="20"/>
-      <c r="CJ13" s="20"/>
-      <c r="CK13" s="20"/>
-      <c r="CL13" s="20"/>
-      <c r="CM13" s="20"/>
-      <c r="CN13" s="20"/>
-      <c r="CO13" s="20"/>
-      <c r="CP13" s="20"/>
-      <c r="CQ13" s="20"/>
-      <c r="CR13" s="66"/>
-    </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="20"/>
-      <c r="AX14" s="20"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="20"/>
-      <c r="BC14" s="20"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="20"/>
-      <c r="BF14" s="20"/>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="20"/>
-      <c r="BI14" s="20"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="20"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
-      <c r="BN14" s="20"/>
-      <c r="BO14" s="20"/>
-      <c r="BP14" s="20"/>
-      <c r="BQ14" s="20"/>
-      <c r="BR14" s="20"/>
-      <c r="BS14" s="20"/>
-      <c r="BT14" s="20"/>
-      <c r="BU14" s="20"/>
-      <c r="BV14" s="20"/>
-      <c r="BW14" s="20"/>
-      <c r="BX14" s="20"/>
-      <c r="BY14" s="20"/>
-      <c r="BZ14" s="20"/>
-      <c r="CA14" s="20"/>
-      <c r="CB14" s="20"/>
-      <c r="CC14" s="20"/>
-      <c r="CD14" s="20"/>
-      <c r="CE14" s="20"/>
-      <c r="CF14" s="20"/>
-      <c r="CG14" s="20"/>
-      <c r="CH14" s="20"/>
-      <c r="CI14" s="20"/>
-      <c r="CJ14" s="20"/>
-      <c r="CK14" s="20"/>
-      <c r="CL14" s="20"/>
-      <c r="CM14" s="20"/>
-      <c r="CN14" s="20"/>
-      <c r="CO14" s="20"/>
-      <c r="CP14" s="20"/>
-      <c r="CQ14" s="20"/>
-      <c r="CR14" s="66"/>
-    </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="20"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="20"/>
-      <c r="BD15" s="20"/>
-      <c r="BE15" s="20"/>
-      <c r="BF15" s="20"/>
-      <c r="BG15" s="20"/>
-      <c r="BH15" s="20"/>
-      <c r="BI15" s="20"/>
-      <c r="BJ15" s="20"/>
-      <c r="BK15" s="20"/>
-      <c r="BL15" s="20"/>
-      <c r="BM15" s="20"/>
-      <c r="BN15" s="20"/>
-      <c r="BO15" s="20"/>
-      <c r="BP15" s="20"/>
-      <c r="BQ15" s="20"/>
-      <c r="BR15" s="20"/>
-      <c r="BS15" s="20"/>
-      <c r="BT15" s="20"/>
-      <c r="BU15" s="20"/>
-      <c r="BV15" s="20"/>
-      <c r="BW15" s="20"/>
-      <c r="BX15" s="20"/>
-      <c r="BY15" s="20"/>
-      <c r="BZ15" s="20"/>
-      <c r="CA15" s="20"/>
-      <c r="CB15" s="20"/>
-      <c r="CC15" s="20"/>
-      <c r="CD15" s="20"/>
-      <c r="CE15" s="20"/>
-      <c r="CF15" s="20"/>
-      <c r="CG15" s="20"/>
-      <c r="CH15" s="20"/>
-      <c r="CI15" s="20"/>
-      <c r="CJ15" s="20"/>
-      <c r="CK15" s="20"/>
-      <c r="CL15" s="20"/>
-      <c r="CM15" s="20"/>
-      <c r="CN15" s="20"/>
-      <c r="CO15" s="20"/>
-      <c r="CP15" s="20"/>
-      <c r="CQ15" s="20"/>
-      <c r="CR15" s="66"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
-      <c r="BD16" s="22"/>
-      <c r="BE16" s="22"/>
-      <c r="BF16" s="22"/>
-      <c r="BG16" s="22"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="22"/>
-      <c r="BJ16" s="22"/>
-      <c r="BK16" s="22"/>
-      <c r="BL16" s="22"/>
-      <c r="BM16" s="22"/>
-      <c r="BN16" s="22"/>
-      <c r="BO16" s="22"/>
-      <c r="BP16" s="22"/>
-      <c r="BQ16" s="22"/>
-      <c r="BR16" s="22"/>
-      <c r="BS16" s="22"/>
-      <c r="BT16" s="22"/>
-      <c r="BU16" s="22"/>
-      <c r="BV16" s="22"/>
-      <c r="BW16" s="22"/>
-      <c r="BX16" s="22"/>
-      <c r="BY16" s="22"/>
-      <c r="BZ16" s="22"/>
-      <c r="CA16" s="22"/>
-      <c r="CB16" s="22"/>
-      <c r="CC16" s="22"/>
-      <c r="CD16" s="22"/>
-      <c r="CE16" s="22"/>
-      <c r="CF16" s="22"/>
-      <c r="CG16" s="22"/>
-      <c r="CH16" s="22"/>
-      <c r="CI16" s="22"/>
-      <c r="CJ16" s="22"/>
-      <c r="CK16" s="22"/>
-      <c r="CL16" s="22"/>
-      <c r="CM16" s="22"/>
-      <c r="CN16" s="22"/>
-      <c r="CO16" s="22"/>
-      <c r="CP16" s="22"/>
-      <c r="CQ16" s="22"/>
-      <c r="CR16" s="80"/>
+    <row r="12" ht="13.65" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+      <c r="BL12" s="22"/>
+      <c r="BM12" s="22"/>
+      <c r="BN12" s="22"/>
+      <c r="BO12" s="22"/>
+      <c r="BP12" s="22"/>
+      <c r="BQ12" s="22"/>
+      <c r="BR12" s="22"/>
+      <c r="BS12" s="22"/>
+      <c r="BT12" s="22"/>
+      <c r="BU12" s="22"/>
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="22"/>
+      <c r="BX12" s="22"/>
+      <c r="BY12" s="22"/>
+      <c r="BZ12" s="22"/>
+      <c r="CA12" s="22"/>
+      <c r="CB12" s="22"/>
+      <c r="CC12" s="22"/>
+      <c r="CD12" s="22"/>
+      <c r="CE12" s="22"/>
+      <c r="CF12" s="22"/>
+      <c r="CG12" s="22"/>
+      <c r="CH12" s="22"/>
+      <c r="CI12" s="22"/>
+      <c r="CJ12" s="22"/>
+      <c r="CK12" s="22"/>
+      <c r="CL12" s="22"/>
+      <c r="CM12" s="22"/>
+      <c r="CN12" s="22"/>
+      <c r="CO12" s="22"/>
+      <c r="CP12" s="22"/>
+      <c r="CQ12" s="22"/>
+      <c r="CR12" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.3"/>
@@ -6832,7 +6572,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -7015,19 +6755,19 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E2" t="s" s="139">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G2" t="s" s="139">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H2" t="s" s="139">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I2" s="65"/>
       <c r="J2" s="20"/>
@@ -7209,7 +6949,7 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I3" s="65"/>
       <c r="J3" s="20"/>
@@ -7377,10 +7117,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="133">
@@ -7553,10 +7293,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="88">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F5" s="89"/>
       <c r="G5" s="135">
@@ -7928,7 +7668,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -7970,61 +7710,61 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s" s="9">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s" s="9">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s" s="9">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I2" t="s" s="9">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J2" t="s" s="9">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K2" t="s" s="9">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L2" t="s" s="9">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M2" t="s" s="9">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N2" t="s" s="9">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O2" t="s" s="9">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P2" t="s" s="9">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q2" t="s" s="9">
         <v>36</v>
       </c>
       <c r="R2" t="s" s="9">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="S2" t="s" s="9">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="T2" t="s" s="9">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="U2" t="s" s="9">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="V2" t="s" s="9">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="W2" s="86"/>
     </row>
@@ -8051,49 +7791,49 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J3" t="s" s="84">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K3" t="s" s="141">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L3" t="s" s="141">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M3" t="s" s="141">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="N3" t="s" s="141">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="O3" t="s" s="141">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P3" t="s" s="141">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q3" t="s" s="84">
         <v>40</v>
       </c>
       <c r="R3" t="s" s="84">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="S3" t="s" s="84">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="T3" t="s" s="84">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="U3" t="s" s="84">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="V3" t="s" s="84">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="W3" s="86"/>
     </row>
@@ -8106,24 +7846,24 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F4" t="s" s="78">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G4" s="133">
         <v>1</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" t="s" s="78">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J4" s="78"/>
       <c r="K4" t="s" s="78">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L4" s="142"/>
       <c r="M4" s="142"/>
@@ -8153,22 +7893,22 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="88">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F5" t="s" s="88">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G5" s="135">
         <v>1</v>
       </c>
       <c r="H5" t="s" s="88">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I5" t="s" s="88">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J5" s="88"/>
       <c r="K5" s="135"/>
@@ -8305,7 +8045,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -8343,44 +8083,44 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="104">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E2" t="s" s="104">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G2" t="s" s="139">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H2" t="s" s="139">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I2" t="s" s="139">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J2" t="s" s="139">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K2" t="s" s="139">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L2" t="s" s="139">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M2" t="s" s="104">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N2" s="104"/>
       <c r="O2" t="s" s="139">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P2" t="s" s="139">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q2" t="s" s="115">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="R2" s="26"/>
       <c r="S2" s="86"/>
@@ -8402,22 +8142,22 @@
         <v>366</v>
       </c>
       <c r="F3" t="s" s="84">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s" s="84">
         <v>387</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="J3" t="s" s="84">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K3" t="s" s="84">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L3" t="s" s="84">
         <v>182</v>
@@ -8426,19 +8166,19 @@
         <v>183</v>
       </c>
       <c r="N3" t="s" s="84">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O3" t="s" s="84">
         <v>184</v>
       </c>
       <c r="P3" t="s" s="84">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Q3" t="s" s="84">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="R3" t="s" s="141">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="S3" s="86"/>
     </row>
@@ -8451,7 +8191,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s" s="71">
         <v>100</v>
@@ -8460,13 +8200,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H4" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I4" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J4" s="148">
         <v>21</v>
@@ -8492,7 +8232,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s" s="71">
         <v>107</v>
@@ -8501,13 +8241,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H5" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I5" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J5" s="148">
         <v>23</v>
@@ -8533,7 +8273,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s" s="71">
         <v>113</v>
@@ -8542,13 +8282,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H6" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I6" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J6" s="148">
         <v>25</v>
@@ -8574,7 +8314,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>116</v>
@@ -8583,13 +8323,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H7" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I7" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J7" s="148">
         <v>26</v>
@@ -8615,7 +8355,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s" s="71">
         <v>120</v>
@@ -8624,13 +8364,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H8" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I8" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J8" s="148">
         <v>27</v>
@@ -8656,7 +8396,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E9" t="s" s="71">
         <v>123</v>
@@ -8665,13 +8405,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H9" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I9" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J9" s="148">
         <v>28</v>
@@ -8697,7 +8437,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E10" t="s" s="71">
         <v>126</v>
@@ -8706,13 +8446,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H10" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I10" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J10" s="148">
         <v>29</v>
@@ -8738,7 +8478,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E11" t="s" s="71">
         <v>129</v>
@@ -8747,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H11" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I11" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J11" s="148">
         <v>30</v>
@@ -8779,7 +8519,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E12" t="s" s="71">
         <v>132</v>
@@ -8788,13 +8528,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H12" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I12" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J12" s="148">
         <v>31</v>
@@ -8820,7 +8560,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E13" t="s" s="71">
         <v>135</v>
@@ -8829,13 +8569,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H13" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I13" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J13" s="148">
         <v>32</v>
@@ -8861,7 +8601,7 @@
         <v>41</v>
       </c>
       <c r="D14" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s" s="71">
         <v>139</v>
@@ -8870,13 +8610,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H14" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I14" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J14" s="148">
         <v>33</v>
@@ -8902,7 +8642,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s" s="71">
         <v>144</v>
@@ -8911,13 +8651,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H15" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I15" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J15" s="148">
         <v>35</v>
@@ -8943,7 +8683,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E16" t="s" s="71">
         <v>147</v>
@@ -8952,13 +8692,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H16" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I16" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J16" s="148">
         <v>36</v>
@@ -8984,7 +8724,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E17" t="s" s="71">
         <v>151</v>
@@ -8993,13 +8733,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H17" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I17" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J17" s="148">
         <v>37</v>
@@ -9025,7 +8765,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E18" t="s" s="71">
         <v>154</v>
@@ -9034,13 +8774,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s" s="104">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H18" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I18" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J18" s="148">
         <v>38</v>
@@ -9066,7 +8806,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E19" t="s" s="71">
         <v>157</v>
@@ -9075,13 +8815,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H19" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I19" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J19" s="148">
         <v>39</v>
@@ -9107,7 +8847,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E20" t="s" s="71">
         <v>160</v>
@@ -9116,13 +8856,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H20" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I20" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J20" s="148">
         <v>41</v>
@@ -9148,7 +8888,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E21" t="s" s="71">
         <v>163</v>
@@ -9157,13 +8897,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H21" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I21" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J21" s="148">
         <v>42</v>
@@ -9189,7 +8929,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E22" t="s" s="71">
         <v>166</v>
@@ -9198,13 +8938,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H22" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I22" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J22" s="148">
         <v>43</v>
@@ -9230,7 +8970,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E23" t="s" s="71">
         <v>168</v>
@@ -9239,13 +8979,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H23" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I23" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J23" s="148">
         <v>44</v>
@@ -9271,7 +9011,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E24" t="s" s="71">
         <v>171</v>
@@ -9280,13 +9020,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="s" s="104">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H24" t="s" s="104">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I24" t="s" s="104">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J24" s="148">
         <v>45</v>
@@ -9314,7 +9054,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -9334,7 +9074,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B1" t="s" s="150">
         <v>1</v>
@@ -9362,11 +9102,11 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G2" t="s" s="139">
         <v>447</v>
@@ -9402,213 +9142,300 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="156"/>
+      <c r="A4" s="156">
+        <v>42736</v>
+      </c>
       <c r="B4" s="156"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="132"/>
+      <c r="C4" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="132">
+        <v>166</v>
+      </c>
       <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="157"/>
+      <c r="F4" t="s" s="132">
+        <v>545</v>
+      </c>
+      <c r="G4" s="157">
+        <v>1</v>
+      </c>
       <c r="H4" s="132"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="158"/>
+      <c r="A5" s="158">
+        <v>42736</v>
+      </c>
       <c r="B5" s="158"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="88"/>
+      <c r="C5" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="88">
+        <v>168</v>
+      </c>
       <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="159"/>
+      <c r="F5" t="s" s="88">
+        <v>546</v>
+      </c>
+      <c r="G5" s="159">
+        <v>2</v>
+      </c>
       <c r="H5" s="160"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="156"/>
+      <c r="A6" s="156">
+        <v>42736</v>
+      </c>
       <c r="B6" s="156"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="78"/>
+      <c r="C6" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="78">
+        <v>120</v>
+      </c>
       <c r="E6" s="78"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="157"/>
+      <c r="F6" t="s" s="132">
+        <v>313</v>
+      </c>
+      <c r="G6" s="157">
+        <v>3</v>
+      </c>
       <c r="H6" s="132"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="158"/>
+      <c r="A7" s="158">
+        <v>42736</v>
+      </c>
       <c r="B7" s="158"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="88"/>
+      <c r="C7" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s" s="88">
+        <v>100</v>
+      </c>
       <c r="E7" s="88"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="159"/>
+      <c r="F7" t="s" s="134">
+        <v>547</v>
+      </c>
+      <c r="G7" s="159">
+        <v>4</v>
+      </c>
       <c r="H7" s="160"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="156"/>
+      <c r="A8" s="156">
+        <v>42736</v>
+      </c>
       <c r="B8" s="156"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="78"/>
+      <c r="C8" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s" s="78">
+        <v>160</v>
+      </c>
       <c r="E8" s="78"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="157"/>
+      <c r="F8" t="s" s="132">
+        <v>548</v>
+      </c>
+      <c r="G8" s="157">
+        <v>5</v>
+      </c>
       <c r="H8" s="132"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="158"/>
+      <c r="A9" s="158">
+        <v>42736</v>
+      </c>
       <c r="B9" s="158"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="88"/>
+      <c r="C9" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s" s="88">
+        <v>151</v>
+      </c>
       <c r="E9" s="88"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="159"/>
+      <c r="F9" t="s" s="134">
+        <v>549</v>
+      </c>
+      <c r="G9" s="159">
+        <v>6</v>
+      </c>
       <c r="H9" s="160"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="156"/>
+      <c r="A10" s="156">
+        <v>42736</v>
+      </c>
       <c r="B10" s="156"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="78"/>
+      <c r="C10" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s" s="78">
+        <v>171</v>
+      </c>
       <c r="E10" s="78"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="157"/>
+      <c r="F10" t="s" s="132">
+        <v>550</v>
+      </c>
+      <c r="G10" s="157">
+        <v>7</v>
+      </c>
       <c r="H10" s="132"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="158"/>
+      <c r="A11" s="158">
+        <v>42736</v>
+      </c>
       <c r="B11" s="158"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="88"/>
+      <c r="C11" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s" s="88">
+        <v>116</v>
+      </c>
       <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="159"/>
+      <c r="F11" t="s" s="88">
+        <v>551</v>
+      </c>
+      <c r="G11" s="159">
+        <v>8</v>
+      </c>
       <c r="H11" s="160"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="132"/>
+      <c r="A12" s="158">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="158"/>
+      <c r="C12" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="88">
+        <v>144</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" t="s" s="88">
+        <v>552</v>
+      </c>
+      <c r="G12" s="159">
+        <v>10</v>
+      </c>
+      <c r="H12" s="160"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="160"/>
+      <c r="A13" s="156">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="156"/>
+      <c r="C13" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="78">
+        <v>126</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" t="s" s="78">
+        <v>553</v>
+      </c>
+      <c r="G13" s="157">
+        <v>11</v>
+      </c>
+      <c r="H13" s="132"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="132"/>
+      <c r="A14" s="158">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="158"/>
+      <c r="C14" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="88">
+        <v>147</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" t="s" s="88">
+        <v>554</v>
+      </c>
+      <c r="G14" s="159">
+        <v>12</v>
+      </c>
+      <c r="H14" s="160"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="160"/>
+      <c r="A15" s="156">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="156"/>
+      <c r="C15" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s" s="78">
+        <v>132</v>
+      </c>
+      <c r="E15" s="78"/>
+      <c r="F15" t="s" s="78">
+        <v>555</v>
+      </c>
+      <c r="G15" s="157">
+        <v>13</v>
+      </c>
+      <c r="H15" s="132"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="132"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="158"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="156"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="132"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="160"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="158"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="23"/>
+    <row r="19" ht="13.65" customHeight="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.3"/>
@@ -9644,7 +9471,7 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1">
       <c r="A1" t="s" s="163">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -9698,56 +9525,100 @@
         <v>393</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="J3" t="s" s="84">
         <v>184</v>
       </c>
       <c r="K3" t="s" s="84">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="L3" s="45"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="91"/>
+      <c r="A4" s="164">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="164">
+        <v>42736</v>
+      </c>
+      <c r="C4" t="s" s="90">
+        <v>41</v>
+      </c>
       <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="E4" t="s" s="90">
+        <v>166</v>
+      </c>
       <c r="F4" s="91"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="165"/>
+      <c r="G4" t="s" s="165">
+        <v>559</v>
+      </c>
+      <c r="H4" s="166">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="165">
+        <v>560</v>
+      </c>
       <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
+      <c r="K4" t="s" s="90">
+        <v>561</v>
+      </c>
       <c r="L4" s="45"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="127"/>
+      <c r="A5" s="167">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="167">
+        <v>42736</v>
+      </c>
+      <c r="C5" t="s" s="44">
+        <v>41</v>
+      </c>
       <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="E5" t="s" s="44">
+        <v>132</v>
+      </c>
       <c r="F5" s="127"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="127"/>
+      <c r="G5" t="s" s="168">
+        <v>562</v>
+      </c>
+      <c r="H5" s="169">
+        <v>2</v>
+      </c>
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
+      <c r="K5" t="s" s="44">
+        <v>561</v>
+      </c>
       <c r="L5" s="45"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="164"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="164">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="164">
+        <v>42736</v>
+      </c>
+      <c r="C6" t="s" s="90">
+        <v>41</v>
+      </c>
       <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="E6" t="s" s="90">
+        <v>563</v>
+      </c>
       <c r="F6" s="91"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="91"/>
+      <c r="G6" t="s" s="165">
+        <v>564</v>
+      </c>
+      <c r="H6" s="166">
+        <v>3</v>
+      </c>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="K6" t="s" s="90">
+        <v>561</v>
+      </c>
       <c r="L6" s="45"/>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -9823,22 +9694,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="168" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="168" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="168" customWidth="1"/>
-    <col min="4" max="4" width="28.1719" style="168" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="168" customWidth="1"/>
-    <col min="6" max="6" width="23.8516" style="168" customWidth="1"/>
-    <col min="7" max="7" width="13.3516" style="168" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="168" customWidth="1"/>
-    <col min="9" max="9" width="43.1719" style="168" customWidth="1"/>
-    <col min="10" max="123" width="8.85156" style="168" customWidth="1"/>
-    <col min="124" max="16384" width="8.85156" style="168" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="170" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="170" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="170" customWidth="1"/>
+    <col min="4" max="4" width="28.1719" style="170" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="170" customWidth="1"/>
+    <col min="6" max="6" width="23.8516" style="170" customWidth="1"/>
+    <col min="7" max="7" width="13.3516" style="170" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="170" customWidth="1"/>
+    <col min="9" max="9" width="43.1719" style="170" customWidth="1"/>
+    <col min="10" max="123" width="8.85156" style="170" customWidth="1"/>
+    <col min="124" max="16384" width="8.85156" style="170" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -9854,120 +9725,120 @@
       <c r="G1" s="103"/>
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="170"/>
-      <c r="AI1" s="170"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="170"/>
-      <c r="AL1" s="170"/>
-      <c r="AM1" s="170"/>
-      <c r="AN1" s="170"/>
-      <c r="AO1" s="170"/>
-      <c r="AP1" s="170"/>
-      <c r="AQ1" s="170"/>
-      <c r="AR1" s="170"/>
-      <c r="AS1" s="170"/>
-      <c r="AT1" s="170"/>
-      <c r="AU1" s="170"/>
-      <c r="AV1" s="170"/>
-      <c r="AW1" s="170"/>
-      <c r="AX1" s="170"/>
-      <c r="AY1" s="170"/>
-      <c r="AZ1" s="170"/>
-      <c r="BA1" s="170"/>
-      <c r="BB1" s="170"/>
-      <c r="BC1" s="170"/>
-      <c r="BD1" s="170"/>
-      <c r="BE1" s="170"/>
-      <c r="BF1" s="170"/>
-      <c r="BG1" s="170"/>
-      <c r="BH1" s="170"/>
-      <c r="BI1" s="170"/>
-      <c r="BJ1" s="170"/>
-      <c r="BK1" s="170"/>
-      <c r="BL1" s="170"/>
-      <c r="BM1" s="170"/>
-      <c r="BN1" s="170"/>
-      <c r="BO1" s="170"/>
-      <c r="BP1" s="170"/>
-      <c r="BQ1" s="170"/>
-      <c r="BR1" s="170"/>
-      <c r="BS1" s="170"/>
-      <c r="BT1" s="170"/>
-      <c r="BU1" s="170"/>
-      <c r="BV1" s="170"/>
-      <c r="BW1" s="170"/>
-      <c r="BX1" s="170"/>
-      <c r="BY1" s="170"/>
-      <c r="BZ1" s="170"/>
-      <c r="CA1" s="170"/>
-      <c r="CB1" s="170"/>
-      <c r="CC1" s="170"/>
-      <c r="CD1" s="170"/>
-      <c r="CE1" s="170"/>
-      <c r="CF1" s="170"/>
-      <c r="CG1" s="170"/>
-      <c r="CH1" s="170"/>
-      <c r="CI1" s="170"/>
-      <c r="CJ1" s="170"/>
-      <c r="CK1" s="170"/>
-      <c r="CL1" s="170"/>
-      <c r="CM1" s="170"/>
-      <c r="CN1" s="170"/>
-      <c r="CO1" s="170"/>
-      <c r="CP1" s="170"/>
-      <c r="CQ1" s="170"/>
-      <c r="CR1" s="170"/>
-      <c r="CS1" s="170"/>
-      <c r="CT1" s="170"/>
-      <c r="CU1" s="170"/>
-      <c r="CV1" s="170"/>
-      <c r="CW1" s="170"/>
-      <c r="CX1" s="170"/>
-      <c r="CY1" s="170"/>
-      <c r="CZ1" s="170"/>
-      <c r="DA1" s="170"/>
-      <c r="DB1" s="170"/>
-      <c r="DC1" s="170"/>
-      <c r="DD1" s="170"/>
-      <c r="DE1" s="170"/>
-      <c r="DF1" s="170"/>
-      <c r="DG1" s="170"/>
-      <c r="DH1" s="170"/>
-      <c r="DI1" s="170"/>
-      <c r="DJ1" s="170"/>
-      <c r="DK1" s="170"/>
-      <c r="DL1" s="170"/>
-      <c r="DM1" s="170"/>
-      <c r="DN1" s="170"/>
-      <c r="DO1" s="170"/>
-      <c r="DP1" s="170"/>
-      <c r="DQ1" s="170"/>
-      <c r="DR1" s="170"/>
-      <c r="DS1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="172"/>
+      <c r="AW1" s="172"/>
+      <c r="AX1" s="172"/>
+      <c r="AY1" s="172"/>
+      <c r="AZ1" s="172"/>
+      <c r="BA1" s="172"/>
+      <c r="BB1" s="172"/>
+      <c r="BC1" s="172"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
+      <c r="BF1" s="172"/>
+      <c r="BG1" s="172"/>
+      <c r="BH1" s="172"/>
+      <c r="BI1" s="172"/>
+      <c r="BJ1" s="172"/>
+      <c r="BK1" s="172"/>
+      <c r="BL1" s="172"/>
+      <c r="BM1" s="172"/>
+      <c r="BN1" s="172"/>
+      <c r="BO1" s="172"/>
+      <c r="BP1" s="172"/>
+      <c r="BQ1" s="172"/>
+      <c r="BR1" s="172"/>
+      <c r="BS1" s="172"/>
+      <c r="BT1" s="172"/>
+      <c r="BU1" s="172"/>
+      <c r="BV1" s="172"/>
+      <c r="BW1" s="172"/>
+      <c r="BX1" s="172"/>
+      <c r="BY1" s="172"/>
+      <c r="BZ1" s="172"/>
+      <c r="CA1" s="172"/>
+      <c r="CB1" s="172"/>
+      <c r="CC1" s="172"/>
+      <c r="CD1" s="172"/>
+      <c r="CE1" s="172"/>
+      <c r="CF1" s="172"/>
+      <c r="CG1" s="172"/>
+      <c r="CH1" s="172"/>
+      <c r="CI1" s="172"/>
+      <c r="CJ1" s="172"/>
+      <c r="CK1" s="172"/>
+      <c r="CL1" s="172"/>
+      <c r="CM1" s="172"/>
+      <c r="CN1" s="172"/>
+      <c r="CO1" s="172"/>
+      <c r="CP1" s="172"/>
+      <c r="CQ1" s="172"/>
+      <c r="CR1" s="172"/>
+      <c r="CS1" s="172"/>
+      <c r="CT1" s="172"/>
+      <c r="CU1" s="172"/>
+      <c r="CV1" s="172"/>
+      <c r="CW1" s="172"/>
+      <c r="CX1" s="172"/>
+      <c r="CY1" s="172"/>
+      <c r="CZ1" s="172"/>
+      <c r="DA1" s="172"/>
+      <c r="DB1" s="172"/>
+      <c r="DC1" s="172"/>
+      <c r="DD1" s="172"/>
+      <c r="DE1" s="172"/>
+      <c r="DF1" s="172"/>
+      <c r="DG1" s="172"/>
+      <c r="DH1" s="172"/>
+      <c r="DI1" s="172"/>
+      <c r="DJ1" s="172"/>
+      <c r="DK1" s="172"/>
+      <c r="DL1" s="172"/>
+      <c r="DM1" s="172"/>
+      <c r="DN1" s="172"/>
+      <c r="DO1" s="172"/>
+      <c r="DP1" s="172"/>
+      <c r="DQ1" s="172"/>
+      <c r="DR1" s="172"/>
+      <c r="DS1" s="173"/>
     </row>
     <row r="2" ht="41" customHeight="1">
       <c r="A2" t="s" s="139">
@@ -9980,130 +9851,130 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="E2" t="s" s="139">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="F2" s="139"/>
       <c r="G2" t="s" s="139">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="H2" s="127"/>
       <c r="I2" s="127"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="173"/>
-      <c r="AR2" s="173"/>
-      <c r="AS2" s="173"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="173"/>
-      <c r="BB2" s="173"/>
-      <c r="BC2" s="173"/>
-      <c r="BD2" s="173"/>
-      <c r="BE2" s="173"/>
-      <c r="BF2" s="173"/>
-      <c r="BG2" s="173"/>
-      <c r="BH2" s="173"/>
-      <c r="BI2" s="173"/>
-      <c r="BJ2" s="173"/>
-      <c r="BK2" s="173"/>
-      <c r="BL2" s="173"/>
-      <c r="BM2" s="173"/>
-      <c r="BN2" s="173"/>
-      <c r="BO2" s="173"/>
-      <c r="BP2" s="173"/>
-      <c r="BQ2" s="173"/>
-      <c r="BR2" s="173"/>
-      <c r="BS2" s="173"/>
-      <c r="BT2" s="173"/>
-      <c r="BU2" s="173"/>
-      <c r="BV2" s="173"/>
-      <c r="BW2" s="173"/>
-      <c r="BX2" s="173"/>
-      <c r="BY2" s="173"/>
-      <c r="BZ2" s="173"/>
-      <c r="CA2" s="173"/>
-      <c r="CB2" s="173"/>
-      <c r="CC2" s="173"/>
-      <c r="CD2" s="173"/>
-      <c r="CE2" s="173"/>
-      <c r="CF2" s="173"/>
-      <c r="CG2" s="173"/>
-      <c r="CH2" s="173"/>
-      <c r="CI2" s="173"/>
-      <c r="CJ2" s="173"/>
-      <c r="CK2" s="173"/>
-      <c r="CL2" s="173"/>
-      <c r="CM2" s="173"/>
-      <c r="CN2" s="173"/>
-      <c r="CO2" s="173"/>
-      <c r="CP2" s="173"/>
-      <c r="CQ2" s="173"/>
-      <c r="CR2" s="173"/>
-      <c r="CS2" s="173"/>
-      <c r="CT2" s="173"/>
-      <c r="CU2" s="173"/>
-      <c r="CV2" s="173"/>
-      <c r="CW2" s="173"/>
-      <c r="CX2" s="173"/>
-      <c r="CY2" s="173"/>
-      <c r="CZ2" s="173"/>
-      <c r="DA2" s="173"/>
-      <c r="DB2" s="173"/>
-      <c r="DC2" s="173"/>
-      <c r="DD2" s="173"/>
-      <c r="DE2" s="173"/>
-      <c r="DF2" s="173"/>
-      <c r="DG2" s="173"/>
-      <c r="DH2" s="173"/>
-      <c r="DI2" s="173"/>
-      <c r="DJ2" s="173"/>
-      <c r="DK2" s="173"/>
-      <c r="DL2" s="173"/>
-      <c r="DM2" s="173"/>
-      <c r="DN2" s="173"/>
-      <c r="DO2" s="173"/>
-      <c r="DP2" s="173"/>
-      <c r="DQ2" s="173"/>
-      <c r="DR2" s="173"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="175"/>
+      <c r="BA2" s="175"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="175"/>
+      <c r="BF2" s="175"/>
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="175"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="175"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="175"/>
+      <c r="BS2" s="175"/>
+      <c r="BT2" s="175"/>
+      <c r="BU2" s="175"/>
+      <c r="BV2" s="175"/>
+      <c r="BW2" s="175"/>
+      <c r="BX2" s="175"/>
+      <c r="BY2" s="175"/>
+      <c r="BZ2" s="175"/>
+      <c r="CA2" s="175"/>
+      <c r="CB2" s="175"/>
+      <c r="CC2" s="175"/>
+      <c r="CD2" s="175"/>
+      <c r="CE2" s="175"/>
+      <c r="CF2" s="175"/>
+      <c r="CG2" s="175"/>
+      <c r="CH2" s="175"/>
+      <c r="CI2" s="175"/>
+      <c r="CJ2" s="175"/>
+      <c r="CK2" s="175"/>
+      <c r="CL2" s="175"/>
+      <c r="CM2" s="175"/>
+      <c r="CN2" s="175"/>
+      <c r="CO2" s="175"/>
+      <c r="CP2" s="175"/>
+      <c r="CQ2" s="175"/>
+      <c r="CR2" s="175"/>
+      <c r="CS2" s="175"/>
+      <c r="CT2" s="175"/>
+      <c r="CU2" s="175"/>
+      <c r="CV2" s="175"/>
+      <c r="CW2" s="175"/>
+      <c r="CX2" s="175"/>
+      <c r="CY2" s="175"/>
+      <c r="CZ2" s="175"/>
+      <c r="DA2" s="175"/>
+      <c r="DB2" s="175"/>
+      <c r="DC2" s="175"/>
+      <c r="DD2" s="175"/>
+      <c r="DE2" s="175"/>
+      <c r="DF2" s="175"/>
+      <c r="DG2" s="175"/>
+      <c r="DH2" s="175"/>
+      <c r="DI2" s="175"/>
+      <c r="DJ2" s="175"/>
+      <c r="DK2" s="175"/>
+      <c r="DL2" s="175"/>
+      <c r="DM2" s="175"/>
+      <c r="DN2" s="175"/>
+      <c r="DO2" s="175"/>
+      <c r="DP2" s="175"/>
+      <c r="DQ2" s="175"/>
+      <c r="DR2" s="175"/>
       <c r="DS2" s="18"/>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -10129,504 +10000,534 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="155">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="I3" t="s" s="155">
         <v>184</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="173"/>
-      <c r="AJ3" s="173"/>
-      <c r="AK3" s="173"/>
-      <c r="AL3" s="173"/>
-      <c r="AM3" s="173"/>
-      <c r="AN3" s="173"/>
-      <c r="AO3" s="173"/>
-      <c r="AP3" s="173"/>
-      <c r="AQ3" s="173"/>
-      <c r="AR3" s="173"/>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="173"/>
-      <c r="AW3" s="173"/>
-      <c r="AX3" s="173"/>
-      <c r="AY3" s="173"/>
-      <c r="AZ3" s="173"/>
-      <c r="BA3" s="173"/>
-      <c r="BB3" s="173"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="173"/>
-      <c r="BE3" s="173"/>
-      <c r="BF3" s="173"/>
-      <c r="BG3" s="173"/>
-      <c r="BH3" s="173"/>
-      <c r="BI3" s="173"/>
-      <c r="BJ3" s="173"/>
-      <c r="BK3" s="173"/>
-      <c r="BL3" s="173"/>
-      <c r="BM3" s="173"/>
-      <c r="BN3" s="173"/>
-      <c r="BO3" s="173"/>
-      <c r="BP3" s="173"/>
-      <c r="BQ3" s="173"/>
-      <c r="BR3" s="173"/>
-      <c r="BS3" s="173"/>
-      <c r="BT3" s="173"/>
-      <c r="BU3" s="173"/>
-      <c r="BV3" s="173"/>
-      <c r="BW3" s="173"/>
-      <c r="BX3" s="173"/>
-      <c r="BY3" s="173"/>
-      <c r="BZ3" s="173"/>
-      <c r="CA3" s="173"/>
-      <c r="CB3" s="173"/>
-      <c r="CC3" s="173"/>
-      <c r="CD3" s="173"/>
-      <c r="CE3" s="173"/>
-      <c r="CF3" s="173"/>
-      <c r="CG3" s="173"/>
-      <c r="CH3" s="173"/>
-      <c r="CI3" s="173"/>
-      <c r="CJ3" s="173"/>
-      <c r="CK3" s="173"/>
-      <c r="CL3" s="173"/>
-      <c r="CM3" s="173"/>
-      <c r="CN3" s="173"/>
-      <c r="CO3" s="173"/>
-      <c r="CP3" s="173"/>
-      <c r="CQ3" s="173"/>
-      <c r="CR3" s="173"/>
-      <c r="CS3" s="173"/>
-      <c r="CT3" s="173"/>
-      <c r="CU3" s="173"/>
-      <c r="CV3" s="173"/>
-      <c r="CW3" s="173"/>
-      <c r="CX3" s="173"/>
-      <c r="CY3" s="173"/>
-      <c r="CZ3" s="173"/>
-      <c r="DA3" s="173"/>
-      <c r="DB3" s="173"/>
-      <c r="DC3" s="173"/>
-      <c r="DD3" s="173"/>
-      <c r="DE3" s="173"/>
-      <c r="DF3" s="173"/>
-      <c r="DG3" s="173"/>
-      <c r="DH3" s="173"/>
-      <c r="DI3" s="173"/>
-      <c r="DJ3" s="173"/>
-      <c r="DK3" s="173"/>
-      <c r="DL3" s="173"/>
-      <c r="DM3" s="173"/>
-      <c r="DN3" s="173"/>
-      <c r="DO3" s="173"/>
-      <c r="DP3" s="173"/>
-      <c r="DQ3" s="173"/>
-      <c r="DR3" s="173"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="175"/>
+      <c r="AM3" s="175"/>
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="175"/>
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="175"/>
+      <c r="BB3" s="175"/>
+      <c r="BC3" s="175"/>
+      <c r="BD3" s="175"/>
+      <c r="BE3" s="175"/>
+      <c r="BF3" s="175"/>
+      <c r="BG3" s="175"/>
+      <c r="BH3" s="175"/>
+      <c r="BI3" s="175"/>
+      <c r="BJ3" s="175"/>
+      <c r="BK3" s="175"/>
+      <c r="BL3" s="175"/>
+      <c r="BM3" s="175"/>
+      <c r="BN3" s="175"/>
+      <c r="BO3" s="175"/>
+      <c r="BP3" s="175"/>
+      <c r="BQ3" s="175"/>
+      <c r="BR3" s="175"/>
+      <c r="BS3" s="175"/>
+      <c r="BT3" s="175"/>
+      <c r="BU3" s="175"/>
+      <c r="BV3" s="175"/>
+      <c r="BW3" s="175"/>
+      <c r="BX3" s="175"/>
+      <c r="BY3" s="175"/>
+      <c r="BZ3" s="175"/>
+      <c r="CA3" s="175"/>
+      <c r="CB3" s="175"/>
+      <c r="CC3" s="175"/>
+      <c r="CD3" s="175"/>
+      <c r="CE3" s="175"/>
+      <c r="CF3" s="175"/>
+      <c r="CG3" s="175"/>
+      <c r="CH3" s="175"/>
+      <c r="CI3" s="175"/>
+      <c r="CJ3" s="175"/>
+      <c r="CK3" s="175"/>
+      <c r="CL3" s="175"/>
+      <c r="CM3" s="175"/>
+      <c r="CN3" s="175"/>
+      <c r="CO3" s="175"/>
+      <c r="CP3" s="175"/>
+      <c r="CQ3" s="175"/>
+      <c r="CR3" s="175"/>
+      <c r="CS3" s="175"/>
+      <c r="CT3" s="175"/>
+      <c r="CU3" s="175"/>
+      <c r="CV3" s="175"/>
+      <c r="CW3" s="175"/>
+      <c r="CX3" s="175"/>
+      <c r="CY3" s="175"/>
+      <c r="CZ3" s="175"/>
+      <c r="DA3" s="175"/>
+      <c r="DB3" s="175"/>
+      <c r="DC3" s="175"/>
+      <c r="DD3" s="175"/>
+      <c r="DE3" s="175"/>
+      <c r="DF3" s="175"/>
+      <c r="DG3" s="175"/>
+      <c r="DH3" s="175"/>
+      <c r="DI3" s="175"/>
+      <c r="DJ3" s="175"/>
+      <c r="DK3" s="175"/>
+      <c r="DL3" s="175"/>
+      <c r="DM3" s="175"/>
+      <c r="DN3" s="175"/>
+      <c r="DO3" s="175"/>
+      <c r="DP3" s="175"/>
+      <c r="DQ3" s="175"/>
+      <c r="DR3" s="175"/>
       <c r="DS3" s="18"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="132"/>
+      <c r="A4" s="77">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="176"/>
+      <c r="C4" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="78">
+        <v>563</v>
+      </c>
+      <c r="E4" t="s" s="132">
+        <v>569</v>
+      </c>
       <c r="F4" s="157"/>
-      <c r="G4" s="79"/>
+      <c r="G4" s="121">
+        <v>1</v>
+      </c>
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="173"/>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="173"/>
-      <c r="AK4" s="173"/>
-      <c r="AL4" s="173"/>
-      <c r="AM4" s="173"/>
-      <c r="AN4" s="173"/>
-      <c r="AO4" s="173"/>
-      <c r="AP4" s="173"/>
-      <c r="AQ4" s="173"/>
-      <c r="AR4" s="173"/>
-      <c r="AS4" s="173"/>
-      <c r="AT4" s="173"/>
-      <c r="AU4" s="173"/>
-      <c r="AV4" s="173"/>
-      <c r="AW4" s="173"/>
-      <c r="AX4" s="173"/>
-      <c r="AY4" s="173"/>
-      <c r="AZ4" s="173"/>
-      <c r="BA4" s="173"/>
-      <c r="BB4" s="173"/>
-      <c r="BC4" s="173"/>
-      <c r="BD4" s="173"/>
-      <c r="BE4" s="173"/>
-      <c r="BF4" s="173"/>
-      <c r="BG4" s="173"/>
-      <c r="BH4" s="173"/>
-      <c r="BI4" s="173"/>
-      <c r="BJ4" s="173"/>
-      <c r="BK4" s="173"/>
-      <c r="BL4" s="173"/>
-      <c r="BM4" s="173"/>
-      <c r="BN4" s="173"/>
-      <c r="BO4" s="173"/>
-      <c r="BP4" s="173"/>
-      <c r="BQ4" s="173"/>
-      <c r="BR4" s="173"/>
-      <c r="BS4" s="173"/>
-      <c r="BT4" s="173"/>
-      <c r="BU4" s="173"/>
-      <c r="BV4" s="173"/>
-      <c r="BW4" s="173"/>
-      <c r="BX4" s="173"/>
-      <c r="BY4" s="173"/>
-      <c r="BZ4" s="173"/>
-      <c r="CA4" s="173"/>
-      <c r="CB4" s="173"/>
-      <c r="CC4" s="173"/>
-      <c r="CD4" s="173"/>
-      <c r="CE4" s="173"/>
-      <c r="CF4" s="173"/>
-      <c r="CG4" s="173"/>
-      <c r="CH4" s="173"/>
-      <c r="CI4" s="173"/>
-      <c r="CJ4" s="173"/>
-      <c r="CK4" s="173"/>
-      <c r="CL4" s="173"/>
-      <c r="CM4" s="173"/>
-      <c r="CN4" s="173"/>
-      <c r="CO4" s="173"/>
-      <c r="CP4" s="173"/>
-      <c r="CQ4" s="173"/>
-      <c r="CR4" s="173"/>
-      <c r="CS4" s="173"/>
-      <c r="CT4" s="173"/>
-      <c r="CU4" s="173"/>
-      <c r="CV4" s="173"/>
-      <c r="CW4" s="173"/>
-      <c r="CX4" s="173"/>
-      <c r="CY4" s="173"/>
-      <c r="CZ4" s="173"/>
-      <c r="DA4" s="173"/>
-      <c r="DB4" s="173"/>
-      <c r="DC4" s="173"/>
-      <c r="DD4" s="173"/>
-      <c r="DE4" s="173"/>
-      <c r="DF4" s="173"/>
-      <c r="DG4" s="173"/>
-      <c r="DH4" s="173"/>
-      <c r="DI4" s="173"/>
-      <c r="DJ4" s="173"/>
-      <c r="DK4" s="173"/>
-      <c r="DL4" s="173"/>
-      <c r="DM4" s="173"/>
-      <c r="DN4" s="173"/>
-      <c r="DO4" s="173"/>
-      <c r="DP4" s="173"/>
-      <c r="DQ4" s="173"/>
-      <c r="DR4" s="173"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="175"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="175"/>
+      <c r="AL4" s="175"/>
+      <c r="AM4" s="175"/>
+      <c r="AN4" s="175"/>
+      <c r="AO4" s="175"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="175"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="175"/>
+      <c r="AT4" s="175"/>
+      <c r="AU4" s="175"/>
+      <c r="AV4" s="175"/>
+      <c r="AW4" s="175"/>
+      <c r="AX4" s="175"/>
+      <c r="AY4" s="175"/>
+      <c r="AZ4" s="175"/>
+      <c r="BA4" s="175"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="175"/>
+      <c r="BD4" s="175"/>
+      <c r="BE4" s="175"/>
+      <c r="BF4" s="175"/>
+      <c r="BG4" s="175"/>
+      <c r="BH4" s="175"/>
+      <c r="BI4" s="175"/>
+      <c r="BJ4" s="175"/>
+      <c r="BK4" s="175"/>
+      <c r="BL4" s="175"/>
+      <c r="BM4" s="175"/>
+      <c r="BN4" s="175"/>
+      <c r="BO4" s="175"/>
+      <c r="BP4" s="175"/>
+      <c r="BQ4" s="175"/>
+      <c r="BR4" s="175"/>
+      <c r="BS4" s="175"/>
+      <c r="BT4" s="175"/>
+      <c r="BU4" s="175"/>
+      <c r="BV4" s="175"/>
+      <c r="BW4" s="175"/>
+      <c r="BX4" s="175"/>
+      <c r="BY4" s="175"/>
+      <c r="BZ4" s="175"/>
+      <c r="CA4" s="175"/>
+      <c r="CB4" s="175"/>
+      <c r="CC4" s="175"/>
+      <c r="CD4" s="175"/>
+      <c r="CE4" s="175"/>
+      <c r="CF4" s="175"/>
+      <c r="CG4" s="175"/>
+      <c r="CH4" s="175"/>
+      <c r="CI4" s="175"/>
+      <c r="CJ4" s="175"/>
+      <c r="CK4" s="175"/>
+      <c r="CL4" s="175"/>
+      <c r="CM4" s="175"/>
+      <c r="CN4" s="175"/>
+      <c r="CO4" s="175"/>
+      <c r="CP4" s="175"/>
+      <c r="CQ4" s="175"/>
+      <c r="CR4" s="175"/>
+      <c r="CS4" s="175"/>
+      <c r="CT4" s="175"/>
+      <c r="CU4" s="175"/>
+      <c r="CV4" s="175"/>
+      <c r="CW4" s="175"/>
+      <c r="CX4" s="175"/>
+      <c r="CY4" s="175"/>
+      <c r="CZ4" s="175"/>
+      <c r="DA4" s="175"/>
+      <c r="DB4" s="175"/>
+      <c r="DC4" s="175"/>
+      <c r="DD4" s="175"/>
+      <c r="DE4" s="175"/>
+      <c r="DF4" s="175"/>
+      <c r="DG4" s="175"/>
+      <c r="DH4" s="175"/>
+      <c r="DI4" s="175"/>
+      <c r="DJ4" s="175"/>
+      <c r="DK4" s="175"/>
+      <c r="DL4" s="175"/>
+      <c r="DM4" s="175"/>
+      <c r="DN4" s="175"/>
+      <c r="DO4" s="175"/>
+      <c r="DP4" s="175"/>
+      <c r="DQ4" s="175"/>
+      <c r="DR4" s="175"/>
       <c r="DS4" s="18"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="134"/>
+      <c r="A5" s="87">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="177"/>
+      <c r="C5" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="88">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s" s="134">
+        <v>545</v>
+      </c>
       <c r="F5" s="134"/>
-      <c r="G5" s="159"/>
+      <c r="G5" s="159">
+        <v>1</v>
+      </c>
       <c r="H5" s="127"/>
       <c r="I5" s="127"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="173"/>
-      <c r="BE5" s="173"/>
-      <c r="BF5" s="173"/>
-      <c r="BG5" s="173"/>
-      <c r="BH5" s="173"/>
-      <c r="BI5" s="173"/>
-      <c r="BJ5" s="173"/>
-      <c r="BK5" s="173"/>
-      <c r="BL5" s="173"/>
-      <c r="BM5" s="173"/>
-      <c r="BN5" s="173"/>
-      <c r="BO5" s="173"/>
-      <c r="BP5" s="173"/>
-      <c r="BQ5" s="173"/>
-      <c r="BR5" s="173"/>
-      <c r="BS5" s="173"/>
-      <c r="BT5" s="173"/>
-      <c r="BU5" s="173"/>
-      <c r="BV5" s="173"/>
-      <c r="BW5" s="173"/>
-      <c r="BX5" s="173"/>
-      <c r="BY5" s="173"/>
-      <c r="BZ5" s="173"/>
-      <c r="CA5" s="173"/>
-      <c r="CB5" s="173"/>
-      <c r="CC5" s="173"/>
-      <c r="CD5" s="173"/>
-      <c r="CE5" s="173"/>
-      <c r="CF5" s="173"/>
-      <c r="CG5" s="173"/>
-      <c r="CH5" s="173"/>
-      <c r="CI5" s="173"/>
-      <c r="CJ5" s="173"/>
-      <c r="CK5" s="173"/>
-      <c r="CL5" s="173"/>
-      <c r="CM5" s="173"/>
-      <c r="CN5" s="173"/>
-      <c r="CO5" s="173"/>
-      <c r="CP5" s="173"/>
-      <c r="CQ5" s="173"/>
-      <c r="CR5" s="173"/>
-      <c r="CS5" s="173"/>
-      <c r="CT5" s="173"/>
-      <c r="CU5" s="173"/>
-      <c r="CV5" s="173"/>
-      <c r="CW5" s="173"/>
-      <c r="CX5" s="173"/>
-      <c r="CY5" s="173"/>
-      <c r="CZ5" s="173"/>
-      <c r="DA5" s="173"/>
-      <c r="DB5" s="173"/>
-      <c r="DC5" s="173"/>
-      <c r="DD5" s="173"/>
-      <c r="DE5" s="173"/>
-      <c r="DF5" s="173"/>
-      <c r="DG5" s="173"/>
-      <c r="DH5" s="173"/>
-      <c r="DI5" s="173"/>
-      <c r="DJ5" s="173"/>
-      <c r="DK5" s="173"/>
-      <c r="DL5" s="173"/>
-      <c r="DM5" s="173"/>
-      <c r="DN5" s="173"/>
-      <c r="DO5" s="173"/>
-      <c r="DP5" s="173"/>
-      <c r="DQ5" s="173"/>
-      <c r="DR5" s="173"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="175"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="175"/>
+      <c r="AR5" s="175"/>
+      <c r="AS5" s="175"/>
+      <c r="AT5" s="175"/>
+      <c r="AU5" s="175"/>
+      <c r="AV5" s="175"/>
+      <c r="AW5" s="175"/>
+      <c r="AX5" s="175"/>
+      <c r="AY5" s="175"/>
+      <c r="AZ5" s="175"/>
+      <c r="BA5" s="175"/>
+      <c r="BB5" s="175"/>
+      <c r="BC5" s="175"/>
+      <c r="BD5" s="175"/>
+      <c r="BE5" s="175"/>
+      <c r="BF5" s="175"/>
+      <c r="BG5" s="175"/>
+      <c r="BH5" s="175"/>
+      <c r="BI5" s="175"/>
+      <c r="BJ5" s="175"/>
+      <c r="BK5" s="175"/>
+      <c r="BL5" s="175"/>
+      <c r="BM5" s="175"/>
+      <c r="BN5" s="175"/>
+      <c r="BO5" s="175"/>
+      <c r="BP5" s="175"/>
+      <c r="BQ5" s="175"/>
+      <c r="BR5" s="175"/>
+      <c r="BS5" s="175"/>
+      <c r="BT5" s="175"/>
+      <c r="BU5" s="175"/>
+      <c r="BV5" s="175"/>
+      <c r="BW5" s="175"/>
+      <c r="BX5" s="175"/>
+      <c r="BY5" s="175"/>
+      <c r="BZ5" s="175"/>
+      <c r="CA5" s="175"/>
+      <c r="CB5" s="175"/>
+      <c r="CC5" s="175"/>
+      <c r="CD5" s="175"/>
+      <c r="CE5" s="175"/>
+      <c r="CF5" s="175"/>
+      <c r="CG5" s="175"/>
+      <c r="CH5" s="175"/>
+      <c r="CI5" s="175"/>
+      <c r="CJ5" s="175"/>
+      <c r="CK5" s="175"/>
+      <c r="CL5" s="175"/>
+      <c r="CM5" s="175"/>
+      <c r="CN5" s="175"/>
+      <c r="CO5" s="175"/>
+      <c r="CP5" s="175"/>
+      <c r="CQ5" s="175"/>
+      <c r="CR5" s="175"/>
+      <c r="CS5" s="175"/>
+      <c r="CT5" s="175"/>
+      <c r="CU5" s="175"/>
+      <c r="CV5" s="175"/>
+      <c r="CW5" s="175"/>
+      <c r="CX5" s="175"/>
+      <c r="CY5" s="175"/>
+      <c r="CZ5" s="175"/>
+      <c r="DA5" s="175"/>
+      <c r="DB5" s="175"/>
+      <c r="DC5" s="175"/>
+      <c r="DD5" s="175"/>
+      <c r="DE5" s="175"/>
+      <c r="DF5" s="175"/>
+      <c r="DG5" s="175"/>
+      <c r="DH5" s="175"/>
+      <c r="DI5" s="175"/>
+      <c r="DJ5" s="175"/>
+      <c r="DK5" s="175"/>
+      <c r="DL5" s="175"/>
+      <c r="DM5" s="175"/>
+      <c r="DN5" s="175"/>
+      <c r="DO5" s="175"/>
+      <c r="DP5" s="175"/>
+      <c r="DQ5" s="175"/>
+      <c r="DR5" s="175"/>
       <c r="DS5" s="18"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="132"/>
+      <c r="A6" s="77">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="176"/>
+      <c r="C6" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="78">
+        <v>570</v>
+      </c>
+      <c r="E6" t="s" s="132">
+        <v>473</v>
+      </c>
       <c r="F6" s="132"/>
-      <c r="G6" s="157"/>
+      <c r="G6" s="157">
+        <v>1</v>
+      </c>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="173"/>
-      <c r="X6" s="173"/>
-      <c r="Y6" s="173"/>
-      <c r="Z6" s="173"/>
-      <c r="AA6" s="173"/>
-      <c r="AB6" s="173"/>
-      <c r="AC6" s="173"/>
-      <c r="AD6" s="173"/>
-      <c r="AE6" s="173"/>
-      <c r="AF6" s="173"/>
-      <c r="AG6" s="173"/>
-      <c r="AH6" s="173"/>
-      <c r="AI6" s="173"/>
-      <c r="AJ6" s="173"/>
-      <c r="AK6" s="173"/>
-      <c r="AL6" s="173"/>
-      <c r="AM6" s="173"/>
-      <c r="AN6" s="173"/>
-      <c r="AO6" s="173"/>
-      <c r="AP6" s="173"/>
-      <c r="AQ6" s="173"/>
-      <c r="AR6" s="173"/>
-      <c r="AS6" s="173"/>
-      <c r="AT6" s="173"/>
-      <c r="AU6" s="173"/>
-      <c r="AV6" s="173"/>
-      <c r="AW6" s="173"/>
-      <c r="AX6" s="173"/>
-      <c r="AY6" s="173"/>
-      <c r="AZ6" s="173"/>
-      <c r="BA6" s="173"/>
-      <c r="BB6" s="173"/>
-      <c r="BC6" s="173"/>
-      <c r="BD6" s="173"/>
-      <c r="BE6" s="173"/>
-      <c r="BF6" s="173"/>
-      <c r="BG6" s="173"/>
-      <c r="BH6" s="173"/>
-      <c r="BI6" s="173"/>
-      <c r="BJ6" s="173"/>
-      <c r="BK6" s="173"/>
-      <c r="BL6" s="173"/>
-      <c r="BM6" s="173"/>
-      <c r="BN6" s="173"/>
-      <c r="BO6" s="173"/>
-      <c r="BP6" s="173"/>
-      <c r="BQ6" s="173"/>
-      <c r="BR6" s="173"/>
-      <c r="BS6" s="173"/>
-      <c r="BT6" s="173"/>
-      <c r="BU6" s="173"/>
-      <c r="BV6" s="173"/>
-      <c r="BW6" s="173"/>
-      <c r="BX6" s="173"/>
-      <c r="BY6" s="173"/>
-      <c r="BZ6" s="173"/>
-      <c r="CA6" s="173"/>
-      <c r="CB6" s="173"/>
-      <c r="CC6" s="173"/>
-      <c r="CD6" s="173"/>
-      <c r="CE6" s="173"/>
-      <c r="CF6" s="173"/>
-      <c r="CG6" s="173"/>
-      <c r="CH6" s="173"/>
-      <c r="CI6" s="173"/>
-      <c r="CJ6" s="173"/>
-      <c r="CK6" s="173"/>
-      <c r="CL6" s="173"/>
-      <c r="CM6" s="173"/>
-      <c r="CN6" s="173"/>
-      <c r="CO6" s="173"/>
-      <c r="CP6" s="173"/>
-      <c r="CQ6" s="173"/>
-      <c r="CR6" s="173"/>
-      <c r="CS6" s="173"/>
-      <c r="CT6" s="173"/>
-      <c r="CU6" s="173"/>
-      <c r="CV6" s="173"/>
-      <c r="CW6" s="173"/>
-      <c r="CX6" s="173"/>
-      <c r="CY6" s="173"/>
-      <c r="CZ6" s="173"/>
-      <c r="DA6" s="173"/>
-      <c r="DB6" s="173"/>
-      <c r="DC6" s="173"/>
-      <c r="DD6" s="173"/>
-      <c r="DE6" s="173"/>
-      <c r="DF6" s="173"/>
-      <c r="DG6" s="173"/>
-      <c r="DH6" s="173"/>
-      <c r="DI6" s="173"/>
-      <c r="DJ6" s="173"/>
-      <c r="DK6" s="173"/>
-      <c r="DL6" s="173"/>
-      <c r="DM6" s="173"/>
-      <c r="DN6" s="173"/>
-      <c r="DO6" s="173"/>
-      <c r="DP6" s="173"/>
-      <c r="DQ6" s="173"/>
-      <c r="DR6" s="173"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
+      <c r="AL6" s="175"/>
+      <c r="AM6" s="175"/>
+      <c r="AN6" s="175"/>
+      <c r="AO6" s="175"/>
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175"/>
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175"/>
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="175"/>
+      <c r="BC6" s="175"/>
+      <c r="BD6" s="175"/>
+      <c r="BE6" s="175"/>
+      <c r="BF6" s="175"/>
+      <c r="BG6" s="175"/>
+      <c r="BH6" s="175"/>
+      <c r="BI6" s="175"/>
+      <c r="BJ6" s="175"/>
+      <c r="BK6" s="175"/>
+      <c r="BL6" s="175"/>
+      <c r="BM6" s="175"/>
+      <c r="BN6" s="175"/>
+      <c r="BO6" s="175"/>
+      <c r="BP6" s="175"/>
+      <c r="BQ6" s="175"/>
+      <c r="BR6" s="175"/>
+      <c r="BS6" s="175"/>
+      <c r="BT6" s="175"/>
+      <c r="BU6" s="175"/>
+      <c r="BV6" s="175"/>
+      <c r="BW6" s="175"/>
+      <c r="BX6" s="175"/>
+      <c r="BY6" s="175"/>
+      <c r="BZ6" s="175"/>
+      <c r="CA6" s="175"/>
+      <c r="CB6" s="175"/>
+      <c r="CC6" s="175"/>
+      <c r="CD6" s="175"/>
+      <c r="CE6" s="175"/>
+      <c r="CF6" s="175"/>
+      <c r="CG6" s="175"/>
+      <c r="CH6" s="175"/>
+      <c r="CI6" s="175"/>
+      <c r="CJ6" s="175"/>
+      <c r="CK6" s="175"/>
+      <c r="CL6" s="175"/>
+      <c r="CM6" s="175"/>
+      <c r="CN6" s="175"/>
+      <c r="CO6" s="175"/>
+      <c r="CP6" s="175"/>
+      <c r="CQ6" s="175"/>
+      <c r="CR6" s="175"/>
+      <c r="CS6" s="175"/>
+      <c r="CT6" s="175"/>
+      <c r="CU6" s="175"/>
+      <c r="CV6" s="175"/>
+      <c r="CW6" s="175"/>
+      <c r="CX6" s="175"/>
+      <c r="CY6" s="175"/>
+      <c r="CZ6" s="175"/>
+      <c r="DA6" s="175"/>
+      <c r="DB6" s="175"/>
+      <c r="DC6" s="175"/>
+      <c r="DD6" s="175"/>
+      <c r="DE6" s="175"/>
+      <c r="DF6" s="175"/>
+      <c r="DG6" s="175"/>
+      <c r="DH6" s="175"/>
+      <c r="DI6" s="175"/>
+      <c r="DJ6" s="175"/>
+      <c r="DK6" s="175"/>
+      <c r="DL6" s="175"/>
+      <c r="DM6" s="175"/>
+      <c r="DN6" s="175"/>
+      <c r="DO6" s="175"/>
+      <c r="DP6" s="175"/>
+      <c r="DQ6" s="175"/>
+      <c r="DR6" s="175"/>
       <c r="DS6" s="18"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="87"/>
-      <c r="B7" s="175"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="134"/>
@@ -10634,124 +10535,124 @@
       <c r="G7" s="159"/>
       <c r="H7" s="127"/>
       <c r="I7" s="127"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173"/>
-      <c r="AF7" s="173"/>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="173"/>
-      <c r="AJ7" s="173"/>
-      <c r="AK7" s="173"/>
-      <c r="AL7" s="173"/>
-      <c r="AM7" s="173"/>
-      <c r="AN7" s="173"/>
-      <c r="AO7" s="173"/>
-      <c r="AP7" s="173"/>
-      <c r="AQ7" s="173"/>
-      <c r="AR7" s="173"/>
-      <c r="AS7" s="173"/>
-      <c r="AT7" s="173"/>
-      <c r="AU7" s="173"/>
-      <c r="AV7" s="173"/>
-      <c r="AW7" s="173"/>
-      <c r="AX7" s="173"/>
-      <c r="AY7" s="173"/>
-      <c r="AZ7" s="173"/>
-      <c r="BA7" s="173"/>
-      <c r="BB7" s="173"/>
-      <c r="BC7" s="173"/>
-      <c r="BD7" s="173"/>
-      <c r="BE7" s="173"/>
-      <c r="BF7" s="173"/>
-      <c r="BG7" s="173"/>
-      <c r="BH7" s="173"/>
-      <c r="BI7" s="173"/>
-      <c r="BJ7" s="173"/>
-      <c r="BK7" s="173"/>
-      <c r="BL7" s="173"/>
-      <c r="BM7" s="173"/>
-      <c r="BN7" s="173"/>
-      <c r="BO7" s="173"/>
-      <c r="BP7" s="173"/>
-      <c r="BQ7" s="173"/>
-      <c r="BR7" s="173"/>
-      <c r="BS7" s="173"/>
-      <c r="BT7" s="173"/>
-      <c r="BU7" s="173"/>
-      <c r="BV7" s="173"/>
-      <c r="BW7" s="173"/>
-      <c r="BX7" s="173"/>
-      <c r="BY7" s="173"/>
-      <c r="BZ7" s="173"/>
-      <c r="CA7" s="173"/>
-      <c r="CB7" s="173"/>
-      <c r="CC7" s="173"/>
-      <c r="CD7" s="173"/>
-      <c r="CE7" s="173"/>
-      <c r="CF7" s="173"/>
-      <c r="CG7" s="173"/>
-      <c r="CH7" s="173"/>
-      <c r="CI7" s="173"/>
-      <c r="CJ7" s="173"/>
-      <c r="CK7" s="173"/>
-      <c r="CL7" s="173"/>
-      <c r="CM7" s="173"/>
-      <c r="CN7" s="173"/>
-      <c r="CO7" s="173"/>
-      <c r="CP7" s="173"/>
-      <c r="CQ7" s="173"/>
-      <c r="CR7" s="173"/>
-      <c r="CS7" s="173"/>
-      <c r="CT7" s="173"/>
-      <c r="CU7" s="173"/>
-      <c r="CV7" s="173"/>
-      <c r="CW7" s="173"/>
-      <c r="CX7" s="173"/>
-      <c r="CY7" s="173"/>
-      <c r="CZ7" s="173"/>
-      <c r="DA7" s="173"/>
-      <c r="DB7" s="173"/>
-      <c r="DC7" s="173"/>
-      <c r="DD7" s="173"/>
-      <c r="DE7" s="173"/>
-      <c r="DF7" s="173"/>
-      <c r="DG7" s="173"/>
-      <c r="DH7" s="173"/>
-      <c r="DI7" s="173"/>
-      <c r="DJ7" s="173"/>
-      <c r="DK7" s="173"/>
-      <c r="DL7" s="173"/>
-      <c r="DM7" s="173"/>
-      <c r="DN7" s="173"/>
-      <c r="DO7" s="173"/>
-      <c r="DP7" s="173"/>
-      <c r="DQ7" s="173"/>
-      <c r="DR7" s="173"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="175"/>
+      <c r="W7" s="175"/>
+      <c r="X7" s="175"/>
+      <c r="Y7" s="175"/>
+      <c r="Z7" s="175"/>
+      <c r="AA7" s="175"/>
+      <c r="AB7" s="175"/>
+      <c r="AC7" s="175"/>
+      <c r="AD7" s="175"/>
+      <c r="AE7" s="175"/>
+      <c r="AF7" s="175"/>
+      <c r="AG7" s="175"/>
+      <c r="AH7" s="175"/>
+      <c r="AI7" s="175"/>
+      <c r="AJ7" s="175"/>
+      <c r="AK7" s="175"/>
+      <c r="AL7" s="175"/>
+      <c r="AM7" s="175"/>
+      <c r="AN7" s="175"/>
+      <c r="AO7" s="175"/>
+      <c r="AP7" s="175"/>
+      <c r="AQ7" s="175"/>
+      <c r="AR7" s="175"/>
+      <c r="AS7" s="175"/>
+      <c r="AT7" s="175"/>
+      <c r="AU7" s="175"/>
+      <c r="AV7" s="175"/>
+      <c r="AW7" s="175"/>
+      <c r="AX7" s="175"/>
+      <c r="AY7" s="175"/>
+      <c r="AZ7" s="175"/>
+      <c r="BA7" s="175"/>
+      <c r="BB7" s="175"/>
+      <c r="BC7" s="175"/>
+      <c r="BD7" s="175"/>
+      <c r="BE7" s="175"/>
+      <c r="BF7" s="175"/>
+      <c r="BG7" s="175"/>
+      <c r="BH7" s="175"/>
+      <c r="BI7" s="175"/>
+      <c r="BJ7" s="175"/>
+      <c r="BK7" s="175"/>
+      <c r="BL7" s="175"/>
+      <c r="BM7" s="175"/>
+      <c r="BN7" s="175"/>
+      <c r="BO7" s="175"/>
+      <c r="BP7" s="175"/>
+      <c r="BQ7" s="175"/>
+      <c r="BR7" s="175"/>
+      <c r="BS7" s="175"/>
+      <c r="BT7" s="175"/>
+      <c r="BU7" s="175"/>
+      <c r="BV7" s="175"/>
+      <c r="BW7" s="175"/>
+      <c r="BX7" s="175"/>
+      <c r="BY7" s="175"/>
+      <c r="BZ7" s="175"/>
+      <c r="CA7" s="175"/>
+      <c r="CB7" s="175"/>
+      <c r="CC7" s="175"/>
+      <c r="CD7" s="175"/>
+      <c r="CE7" s="175"/>
+      <c r="CF7" s="175"/>
+      <c r="CG7" s="175"/>
+      <c r="CH7" s="175"/>
+      <c r="CI7" s="175"/>
+      <c r="CJ7" s="175"/>
+      <c r="CK7" s="175"/>
+      <c r="CL7" s="175"/>
+      <c r="CM7" s="175"/>
+      <c r="CN7" s="175"/>
+      <c r="CO7" s="175"/>
+      <c r="CP7" s="175"/>
+      <c r="CQ7" s="175"/>
+      <c r="CR7" s="175"/>
+      <c r="CS7" s="175"/>
+      <c r="CT7" s="175"/>
+      <c r="CU7" s="175"/>
+      <c r="CV7" s="175"/>
+      <c r="CW7" s="175"/>
+      <c r="CX7" s="175"/>
+      <c r="CY7" s="175"/>
+      <c r="CZ7" s="175"/>
+      <c r="DA7" s="175"/>
+      <c r="DB7" s="175"/>
+      <c r="DC7" s="175"/>
+      <c r="DD7" s="175"/>
+      <c r="DE7" s="175"/>
+      <c r="DF7" s="175"/>
+      <c r="DG7" s="175"/>
+      <c r="DH7" s="175"/>
+      <c r="DI7" s="175"/>
+      <c r="DJ7" s="175"/>
+      <c r="DK7" s="175"/>
+      <c r="DL7" s="175"/>
+      <c r="DM7" s="175"/>
+      <c r="DN7" s="175"/>
+      <c r="DO7" s="175"/>
+      <c r="DP7" s="175"/>
+      <c r="DQ7" s="175"/>
+      <c r="DR7" s="175"/>
       <c r="DS7" s="18"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="77"/>
-      <c r="B8" s="174"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="132"/>
@@ -10759,124 +10660,124 @@
       <c r="G8" s="157"/>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="173"/>
-      <c r="AM8" s="173"/>
-      <c r="AN8" s="173"/>
-      <c r="AO8" s="173"/>
-      <c r="AP8" s="173"/>
-      <c r="AQ8" s="173"/>
-      <c r="AR8" s="173"/>
-      <c r="AS8" s="173"/>
-      <c r="AT8" s="173"/>
-      <c r="AU8" s="173"/>
-      <c r="AV8" s="173"/>
-      <c r="AW8" s="173"/>
-      <c r="AX8" s="173"/>
-      <c r="AY8" s="173"/>
-      <c r="AZ8" s="173"/>
-      <c r="BA8" s="173"/>
-      <c r="BB8" s="173"/>
-      <c r="BC8" s="173"/>
-      <c r="BD8" s="173"/>
-      <c r="BE8" s="173"/>
-      <c r="BF8" s="173"/>
-      <c r="BG8" s="173"/>
-      <c r="BH8" s="173"/>
-      <c r="BI8" s="173"/>
-      <c r="BJ8" s="173"/>
-      <c r="BK8" s="173"/>
-      <c r="BL8" s="173"/>
-      <c r="BM8" s="173"/>
-      <c r="BN8" s="173"/>
-      <c r="BO8" s="173"/>
-      <c r="BP8" s="173"/>
-      <c r="BQ8" s="173"/>
-      <c r="BR8" s="173"/>
-      <c r="BS8" s="173"/>
-      <c r="BT8" s="173"/>
-      <c r="BU8" s="173"/>
-      <c r="BV8" s="173"/>
-      <c r="BW8" s="173"/>
-      <c r="BX8" s="173"/>
-      <c r="BY8" s="173"/>
-      <c r="BZ8" s="173"/>
-      <c r="CA8" s="173"/>
-      <c r="CB8" s="173"/>
-      <c r="CC8" s="173"/>
-      <c r="CD8" s="173"/>
-      <c r="CE8" s="173"/>
-      <c r="CF8" s="173"/>
-      <c r="CG8" s="173"/>
-      <c r="CH8" s="173"/>
-      <c r="CI8" s="173"/>
-      <c r="CJ8" s="173"/>
-      <c r="CK8" s="173"/>
-      <c r="CL8" s="173"/>
-      <c r="CM8" s="173"/>
-      <c r="CN8" s="173"/>
-      <c r="CO8" s="173"/>
-      <c r="CP8" s="173"/>
-      <c r="CQ8" s="173"/>
-      <c r="CR8" s="173"/>
-      <c r="CS8" s="173"/>
-      <c r="CT8" s="173"/>
-      <c r="CU8" s="173"/>
-      <c r="CV8" s="173"/>
-      <c r="CW8" s="173"/>
-      <c r="CX8" s="173"/>
-      <c r="CY8" s="173"/>
-      <c r="CZ8" s="173"/>
-      <c r="DA8" s="173"/>
-      <c r="DB8" s="173"/>
-      <c r="DC8" s="173"/>
-      <c r="DD8" s="173"/>
-      <c r="DE8" s="173"/>
-      <c r="DF8" s="173"/>
-      <c r="DG8" s="173"/>
-      <c r="DH8" s="173"/>
-      <c r="DI8" s="173"/>
-      <c r="DJ8" s="173"/>
-      <c r="DK8" s="173"/>
-      <c r="DL8" s="173"/>
-      <c r="DM8" s="173"/>
-      <c r="DN8" s="173"/>
-      <c r="DO8" s="173"/>
-      <c r="DP8" s="173"/>
-      <c r="DQ8" s="173"/>
-      <c r="DR8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="175"/>
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175"/>
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="175"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175"/>
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="175"/>
+      <c r="AM8" s="175"/>
+      <c r="AN8" s="175"/>
+      <c r="AO8" s="175"/>
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175"/>
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175"/>
+      <c r="AT8" s="175"/>
+      <c r="AU8" s="175"/>
+      <c r="AV8" s="175"/>
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175"/>
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175"/>
+      <c r="BA8" s="175"/>
+      <c r="BB8" s="175"/>
+      <c r="BC8" s="175"/>
+      <c r="BD8" s="175"/>
+      <c r="BE8" s="175"/>
+      <c r="BF8" s="175"/>
+      <c r="BG8" s="175"/>
+      <c r="BH8" s="175"/>
+      <c r="BI8" s="175"/>
+      <c r="BJ8" s="175"/>
+      <c r="BK8" s="175"/>
+      <c r="BL8" s="175"/>
+      <c r="BM8" s="175"/>
+      <c r="BN8" s="175"/>
+      <c r="BO8" s="175"/>
+      <c r="BP8" s="175"/>
+      <c r="BQ8" s="175"/>
+      <c r="BR8" s="175"/>
+      <c r="BS8" s="175"/>
+      <c r="BT8" s="175"/>
+      <c r="BU8" s="175"/>
+      <c r="BV8" s="175"/>
+      <c r="BW8" s="175"/>
+      <c r="BX8" s="175"/>
+      <c r="BY8" s="175"/>
+      <c r="BZ8" s="175"/>
+      <c r="CA8" s="175"/>
+      <c r="CB8" s="175"/>
+      <c r="CC8" s="175"/>
+      <c r="CD8" s="175"/>
+      <c r="CE8" s="175"/>
+      <c r="CF8" s="175"/>
+      <c r="CG8" s="175"/>
+      <c r="CH8" s="175"/>
+      <c r="CI8" s="175"/>
+      <c r="CJ8" s="175"/>
+      <c r="CK8" s="175"/>
+      <c r="CL8" s="175"/>
+      <c r="CM8" s="175"/>
+      <c r="CN8" s="175"/>
+      <c r="CO8" s="175"/>
+      <c r="CP8" s="175"/>
+      <c r="CQ8" s="175"/>
+      <c r="CR8" s="175"/>
+      <c r="CS8" s="175"/>
+      <c r="CT8" s="175"/>
+      <c r="CU8" s="175"/>
+      <c r="CV8" s="175"/>
+      <c r="CW8" s="175"/>
+      <c r="CX8" s="175"/>
+      <c r="CY8" s="175"/>
+      <c r="CZ8" s="175"/>
+      <c r="DA8" s="175"/>
+      <c r="DB8" s="175"/>
+      <c r="DC8" s="175"/>
+      <c r="DD8" s="175"/>
+      <c r="DE8" s="175"/>
+      <c r="DF8" s="175"/>
+      <c r="DG8" s="175"/>
+      <c r="DH8" s="175"/>
+      <c r="DI8" s="175"/>
+      <c r="DJ8" s="175"/>
+      <c r="DK8" s="175"/>
+      <c r="DL8" s="175"/>
+      <c r="DM8" s="175"/>
+      <c r="DN8" s="175"/>
+      <c r="DO8" s="175"/>
+      <c r="DP8" s="175"/>
+      <c r="DQ8" s="175"/>
+      <c r="DR8" s="175"/>
       <c r="DS8" s="18"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="87"/>
-      <c r="B9" s="175"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
       <c r="E9" s="134"/>
@@ -10884,124 +10785,124 @@
       <c r="G9" s="159"/>
       <c r="H9" s="127"/>
       <c r="I9" s="127"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="173"/>
-      <c r="AK9" s="173"/>
-      <c r="AL9" s="173"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="173"/>
-      <c r="AO9" s="173"/>
-      <c r="AP9" s="173"/>
-      <c r="AQ9" s="173"/>
-      <c r="AR9" s="173"/>
-      <c r="AS9" s="173"/>
-      <c r="AT9" s="173"/>
-      <c r="AU9" s="173"/>
-      <c r="AV9" s="173"/>
-      <c r="AW9" s="173"/>
-      <c r="AX9" s="173"/>
-      <c r="AY9" s="173"/>
-      <c r="AZ9" s="173"/>
-      <c r="BA9" s="173"/>
-      <c r="BB9" s="173"/>
-      <c r="BC9" s="173"/>
-      <c r="BD9" s="173"/>
-      <c r="BE9" s="173"/>
-      <c r="BF9" s="173"/>
-      <c r="BG9" s="173"/>
-      <c r="BH9" s="173"/>
-      <c r="BI9" s="173"/>
-      <c r="BJ9" s="173"/>
-      <c r="BK9" s="173"/>
-      <c r="BL9" s="173"/>
-      <c r="BM9" s="173"/>
-      <c r="BN9" s="173"/>
-      <c r="BO9" s="173"/>
-      <c r="BP9" s="173"/>
-      <c r="BQ9" s="173"/>
-      <c r="BR9" s="173"/>
-      <c r="BS9" s="173"/>
-      <c r="BT9" s="173"/>
-      <c r="BU9" s="173"/>
-      <c r="BV9" s="173"/>
-      <c r="BW9" s="173"/>
-      <c r="BX9" s="173"/>
-      <c r="BY9" s="173"/>
-      <c r="BZ9" s="173"/>
-      <c r="CA9" s="173"/>
-      <c r="CB9" s="173"/>
-      <c r="CC9" s="173"/>
-      <c r="CD9" s="173"/>
-      <c r="CE9" s="173"/>
-      <c r="CF9" s="173"/>
-      <c r="CG9" s="173"/>
-      <c r="CH9" s="173"/>
-      <c r="CI9" s="173"/>
-      <c r="CJ9" s="173"/>
-      <c r="CK9" s="173"/>
-      <c r="CL9" s="173"/>
-      <c r="CM9" s="173"/>
-      <c r="CN9" s="173"/>
-      <c r="CO9" s="173"/>
-      <c r="CP9" s="173"/>
-      <c r="CQ9" s="173"/>
-      <c r="CR9" s="173"/>
-      <c r="CS9" s="173"/>
-      <c r="CT9" s="173"/>
-      <c r="CU9" s="173"/>
-      <c r="CV9" s="173"/>
-      <c r="CW9" s="173"/>
-      <c r="CX9" s="173"/>
-      <c r="CY9" s="173"/>
-      <c r="CZ9" s="173"/>
-      <c r="DA9" s="173"/>
-      <c r="DB9" s="173"/>
-      <c r="DC9" s="173"/>
-      <c r="DD9" s="173"/>
-      <c r="DE9" s="173"/>
-      <c r="DF9" s="173"/>
-      <c r="DG9" s="173"/>
-      <c r="DH9" s="173"/>
-      <c r="DI9" s="173"/>
-      <c r="DJ9" s="173"/>
-      <c r="DK9" s="173"/>
-      <c r="DL9" s="173"/>
-      <c r="DM9" s="173"/>
-      <c r="DN9" s="173"/>
-      <c r="DO9" s="173"/>
-      <c r="DP9" s="173"/>
-      <c r="DQ9" s="173"/>
-      <c r="DR9" s="173"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="175"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="175"/>
+      <c r="AQ9" s="175"/>
+      <c r="AR9" s="175"/>
+      <c r="AS9" s="175"/>
+      <c r="AT9" s="175"/>
+      <c r="AU9" s="175"/>
+      <c r="AV9" s="175"/>
+      <c r="AW9" s="175"/>
+      <c r="AX9" s="175"/>
+      <c r="AY9" s="175"/>
+      <c r="AZ9" s="175"/>
+      <c r="BA9" s="175"/>
+      <c r="BB9" s="175"/>
+      <c r="BC9" s="175"/>
+      <c r="BD9" s="175"/>
+      <c r="BE9" s="175"/>
+      <c r="BF9" s="175"/>
+      <c r="BG9" s="175"/>
+      <c r="BH9" s="175"/>
+      <c r="BI9" s="175"/>
+      <c r="BJ9" s="175"/>
+      <c r="BK9" s="175"/>
+      <c r="BL9" s="175"/>
+      <c r="BM9" s="175"/>
+      <c r="BN9" s="175"/>
+      <c r="BO9" s="175"/>
+      <c r="BP9" s="175"/>
+      <c r="BQ9" s="175"/>
+      <c r="BR9" s="175"/>
+      <c r="BS9" s="175"/>
+      <c r="BT9" s="175"/>
+      <c r="BU9" s="175"/>
+      <c r="BV9" s="175"/>
+      <c r="BW9" s="175"/>
+      <c r="BX9" s="175"/>
+      <c r="BY9" s="175"/>
+      <c r="BZ9" s="175"/>
+      <c r="CA9" s="175"/>
+      <c r="CB9" s="175"/>
+      <c r="CC9" s="175"/>
+      <c r="CD9" s="175"/>
+      <c r="CE9" s="175"/>
+      <c r="CF9" s="175"/>
+      <c r="CG9" s="175"/>
+      <c r="CH9" s="175"/>
+      <c r="CI9" s="175"/>
+      <c r="CJ9" s="175"/>
+      <c r="CK9" s="175"/>
+      <c r="CL9" s="175"/>
+      <c r="CM9" s="175"/>
+      <c r="CN9" s="175"/>
+      <c r="CO9" s="175"/>
+      <c r="CP9" s="175"/>
+      <c r="CQ9" s="175"/>
+      <c r="CR9" s="175"/>
+      <c r="CS9" s="175"/>
+      <c r="CT9" s="175"/>
+      <c r="CU9" s="175"/>
+      <c r="CV9" s="175"/>
+      <c r="CW9" s="175"/>
+      <c r="CX9" s="175"/>
+      <c r="CY9" s="175"/>
+      <c r="CZ9" s="175"/>
+      <c r="DA9" s="175"/>
+      <c r="DB9" s="175"/>
+      <c r="DC9" s="175"/>
+      <c r="DD9" s="175"/>
+      <c r="DE9" s="175"/>
+      <c r="DF9" s="175"/>
+      <c r="DG9" s="175"/>
+      <c r="DH9" s="175"/>
+      <c r="DI9" s="175"/>
+      <c r="DJ9" s="175"/>
+      <c r="DK9" s="175"/>
+      <c r="DL9" s="175"/>
+      <c r="DM9" s="175"/>
+      <c r="DN9" s="175"/>
+      <c r="DO9" s="175"/>
+      <c r="DP9" s="175"/>
+      <c r="DQ9" s="175"/>
+      <c r="DR9" s="175"/>
       <c r="DS9" s="18"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="77"/>
-      <c r="B10" s="174"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="132"/>
@@ -11009,124 +10910,124 @@
       <c r="G10" s="157"/>
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="173"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="173"/>
-      <c r="AK10" s="173"/>
-      <c r="AL10" s="173"/>
-      <c r="AM10" s="173"/>
-      <c r="AN10" s="173"/>
-      <c r="AO10" s="173"/>
-      <c r="AP10" s="173"/>
-      <c r="AQ10" s="173"/>
-      <c r="AR10" s="173"/>
-      <c r="AS10" s="173"/>
-      <c r="AT10" s="173"/>
-      <c r="AU10" s="173"/>
-      <c r="AV10" s="173"/>
-      <c r="AW10" s="173"/>
-      <c r="AX10" s="173"/>
-      <c r="AY10" s="173"/>
-      <c r="AZ10" s="173"/>
-      <c r="BA10" s="173"/>
-      <c r="BB10" s="173"/>
-      <c r="BC10" s="173"/>
-      <c r="BD10" s="173"/>
-      <c r="BE10" s="173"/>
-      <c r="BF10" s="173"/>
-      <c r="BG10" s="173"/>
-      <c r="BH10" s="173"/>
-      <c r="BI10" s="173"/>
-      <c r="BJ10" s="173"/>
-      <c r="BK10" s="173"/>
-      <c r="BL10" s="173"/>
-      <c r="BM10" s="173"/>
-      <c r="BN10" s="173"/>
-      <c r="BO10" s="173"/>
-      <c r="BP10" s="173"/>
-      <c r="BQ10" s="173"/>
-      <c r="BR10" s="173"/>
-      <c r="BS10" s="173"/>
-      <c r="BT10" s="173"/>
-      <c r="BU10" s="173"/>
-      <c r="BV10" s="173"/>
-      <c r="BW10" s="173"/>
-      <c r="BX10" s="173"/>
-      <c r="BY10" s="173"/>
-      <c r="BZ10" s="173"/>
-      <c r="CA10" s="173"/>
-      <c r="CB10" s="173"/>
-      <c r="CC10" s="173"/>
-      <c r="CD10" s="173"/>
-      <c r="CE10" s="173"/>
-      <c r="CF10" s="173"/>
-      <c r="CG10" s="173"/>
-      <c r="CH10" s="173"/>
-      <c r="CI10" s="173"/>
-      <c r="CJ10" s="173"/>
-      <c r="CK10" s="173"/>
-      <c r="CL10" s="173"/>
-      <c r="CM10" s="173"/>
-      <c r="CN10" s="173"/>
-      <c r="CO10" s="173"/>
-      <c r="CP10" s="173"/>
-      <c r="CQ10" s="173"/>
-      <c r="CR10" s="173"/>
-      <c r="CS10" s="173"/>
-      <c r="CT10" s="173"/>
-      <c r="CU10" s="173"/>
-      <c r="CV10" s="173"/>
-      <c r="CW10" s="173"/>
-      <c r="CX10" s="173"/>
-      <c r="CY10" s="173"/>
-      <c r="CZ10" s="173"/>
-      <c r="DA10" s="173"/>
-      <c r="DB10" s="173"/>
-      <c r="DC10" s="173"/>
-      <c r="DD10" s="173"/>
-      <c r="DE10" s="173"/>
-      <c r="DF10" s="173"/>
-      <c r="DG10" s="173"/>
-      <c r="DH10" s="173"/>
-      <c r="DI10" s="173"/>
-      <c r="DJ10" s="173"/>
-      <c r="DK10" s="173"/>
-      <c r="DL10" s="173"/>
-      <c r="DM10" s="173"/>
-      <c r="DN10" s="173"/>
-      <c r="DO10" s="173"/>
-      <c r="DP10" s="173"/>
-      <c r="DQ10" s="173"/>
-      <c r="DR10" s="173"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="175"/>
+      <c r="AI10" s="175"/>
+      <c r="AJ10" s="175"/>
+      <c r="AK10" s="175"/>
+      <c r="AL10" s="175"/>
+      <c r="AM10" s="175"/>
+      <c r="AN10" s="175"/>
+      <c r="AO10" s="175"/>
+      <c r="AP10" s="175"/>
+      <c r="AQ10" s="175"/>
+      <c r="AR10" s="175"/>
+      <c r="AS10" s="175"/>
+      <c r="AT10" s="175"/>
+      <c r="AU10" s="175"/>
+      <c r="AV10" s="175"/>
+      <c r="AW10" s="175"/>
+      <c r="AX10" s="175"/>
+      <c r="AY10" s="175"/>
+      <c r="AZ10" s="175"/>
+      <c r="BA10" s="175"/>
+      <c r="BB10" s="175"/>
+      <c r="BC10" s="175"/>
+      <c r="BD10" s="175"/>
+      <c r="BE10" s="175"/>
+      <c r="BF10" s="175"/>
+      <c r="BG10" s="175"/>
+      <c r="BH10" s="175"/>
+      <c r="BI10" s="175"/>
+      <c r="BJ10" s="175"/>
+      <c r="BK10" s="175"/>
+      <c r="BL10" s="175"/>
+      <c r="BM10" s="175"/>
+      <c r="BN10" s="175"/>
+      <c r="BO10" s="175"/>
+      <c r="BP10" s="175"/>
+      <c r="BQ10" s="175"/>
+      <c r="BR10" s="175"/>
+      <c r="BS10" s="175"/>
+      <c r="BT10" s="175"/>
+      <c r="BU10" s="175"/>
+      <c r="BV10" s="175"/>
+      <c r="BW10" s="175"/>
+      <c r="BX10" s="175"/>
+      <c r="BY10" s="175"/>
+      <c r="BZ10" s="175"/>
+      <c r="CA10" s="175"/>
+      <c r="CB10" s="175"/>
+      <c r="CC10" s="175"/>
+      <c r="CD10" s="175"/>
+      <c r="CE10" s="175"/>
+      <c r="CF10" s="175"/>
+      <c r="CG10" s="175"/>
+      <c r="CH10" s="175"/>
+      <c r="CI10" s="175"/>
+      <c r="CJ10" s="175"/>
+      <c r="CK10" s="175"/>
+      <c r="CL10" s="175"/>
+      <c r="CM10" s="175"/>
+      <c r="CN10" s="175"/>
+      <c r="CO10" s="175"/>
+      <c r="CP10" s="175"/>
+      <c r="CQ10" s="175"/>
+      <c r="CR10" s="175"/>
+      <c r="CS10" s="175"/>
+      <c r="CT10" s="175"/>
+      <c r="CU10" s="175"/>
+      <c r="CV10" s="175"/>
+      <c r="CW10" s="175"/>
+      <c r="CX10" s="175"/>
+      <c r="CY10" s="175"/>
+      <c r="CZ10" s="175"/>
+      <c r="DA10" s="175"/>
+      <c r="DB10" s="175"/>
+      <c r="DC10" s="175"/>
+      <c r="DD10" s="175"/>
+      <c r="DE10" s="175"/>
+      <c r="DF10" s="175"/>
+      <c r="DG10" s="175"/>
+      <c r="DH10" s="175"/>
+      <c r="DI10" s="175"/>
+      <c r="DJ10" s="175"/>
+      <c r="DK10" s="175"/>
+      <c r="DL10" s="175"/>
+      <c r="DM10" s="175"/>
+      <c r="DN10" s="175"/>
+      <c r="DO10" s="175"/>
+      <c r="DP10" s="175"/>
+      <c r="DQ10" s="175"/>
+      <c r="DR10" s="175"/>
       <c r="DS10" s="18"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="87"/>
-      <c r="B11" s="175"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
       <c r="E11" s="134"/>
@@ -11134,119 +11035,119 @@
       <c r="G11" s="159"/>
       <c r="H11" s="127"/>
       <c r="I11" s="127"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="173"/>
-      <c r="AP11" s="173"/>
-      <c r="AQ11" s="173"/>
-      <c r="AR11" s="173"/>
-      <c r="AS11" s="173"/>
-      <c r="AT11" s="173"/>
-      <c r="AU11" s="173"/>
-      <c r="AV11" s="173"/>
-      <c r="AW11" s="173"/>
-      <c r="AX11" s="173"/>
-      <c r="AY11" s="173"/>
-      <c r="AZ11" s="173"/>
-      <c r="BA11" s="173"/>
-      <c r="BB11" s="173"/>
-      <c r="BC11" s="173"/>
-      <c r="BD11" s="173"/>
-      <c r="BE11" s="173"/>
-      <c r="BF11" s="173"/>
-      <c r="BG11" s="173"/>
-      <c r="BH11" s="173"/>
-      <c r="BI11" s="173"/>
-      <c r="BJ11" s="173"/>
-      <c r="BK11" s="173"/>
-      <c r="BL11" s="173"/>
-      <c r="BM11" s="173"/>
-      <c r="BN11" s="173"/>
-      <c r="BO11" s="173"/>
-      <c r="BP11" s="173"/>
-      <c r="BQ11" s="173"/>
-      <c r="BR11" s="173"/>
-      <c r="BS11" s="173"/>
-      <c r="BT11" s="173"/>
-      <c r="BU11" s="173"/>
-      <c r="BV11" s="173"/>
-      <c r="BW11" s="173"/>
-      <c r="BX11" s="173"/>
-      <c r="BY11" s="173"/>
-      <c r="BZ11" s="173"/>
-      <c r="CA11" s="173"/>
-      <c r="CB11" s="173"/>
-      <c r="CC11" s="173"/>
-      <c r="CD11" s="173"/>
-      <c r="CE11" s="173"/>
-      <c r="CF11" s="173"/>
-      <c r="CG11" s="173"/>
-      <c r="CH11" s="173"/>
-      <c r="CI11" s="173"/>
-      <c r="CJ11" s="173"/>
-      <c r="CK11" s="173"/>
-      <c r="CL11" s="173"/>
-      <c r="CM11" s="173"/>
-      <c r="CN11" s="173"/>
-      <c r="CO11" s="173"/>
-      <c r="CP11" s="173"/>
-      <c r="CQ11" s="173"/>
-      <c r="CR11" s="173"/>
-      <c r="CS11" s="173"/>
-      <c r="CT11" s="173"/>
-      <c r="CU11" s="173"/>
-      <c r="CV11" s="173"/>
-      <c r="CW11" s="173"/>
-      <c r="CX11" s="173"/>
-      <c r="CY11" s="173"/>
-      <c r="CZ11" s="173"/>
-      <c r="DA11" s="173"/>
-      <c r="DB11" s="173"/>
-      <c r="DC11" s="173"/>
-      <c r="DD11" s="173"/>
-      <c r="DE11" s="173"/>
-      <c r="DF11" s="173"/>
-      <c r="DG11" s="173"/>
-      <c r="DH11" s="173"/>
-      <c r="DI11" s="173"/>
-      <c r="DJ11" s="173"/>
-      <c r="DK11" s="173"/>
-      <c r="DL11" s="173"/>
-      <c r="DM11" s="173"/>
-      <c r="DN11" s="173"/>
-      <c r="DO11" s="173"/>
-      <c r="DP11" s="173"/>
-      <c r="DQ11" s="173"/>
-      <c r="DR11" s="173"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="175"/>
+      <c r="AI11" s="175"/>
+      <c r="AJ11" s="175"/>
+      <c r="AK11" s="175"/>
+      <c r="AL11" s="175"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="175"/>
+      <c r="AQ11" s="175"/>
+      <c r="AR11" s="175"/>
+      <c r="AS11" s="175"/>
+      <c r="AT11" s="175"/>
+      <c r="AU11" s="175"/>
+      <c r="AV11" s="175"/>
+      <c r="AW11" s="175"/>
+      <c r="AX11" s="175"/>
+      <c r="AY11" s="175"/>
+      <c r="AZ11" s="175"/>
+      <c r="BA11" s="175"/>
+      <c r="BB11" s="175"/>
+      <c r="BC11" s="175"/>
+      <c r="BD11" s="175"/>
+      <c r="BE11" s="175"/>
+      <c r="BF11" s="175"/>
+      <c r="BG11" s="175"/>
+      <c r="BH11" s="175"/>
+      <c r="BI11" s="175"/>
+      <c r="BJ11" s="175"/>
+      <c r="BK11" s="175"/>
+      <c r="BL11" s="175"/>
+      <c r="BM11" s="175"/>
+      <c r="BN11" s="175"/>
+      <c r="BO11" s="175"/>
+      <c r="BP11" s="175"/>
+      <c r="BQ11" s="175"/>
+      <c r="BR11" s="175"/>
+      <c r="BS11" s="175"/>
+      <c r="BT11" s="175"/>
+      <c r="BU11" s="175"/>
+      <c r="BV11" s="175"/>
+      <c r="BW11" s="175"/>
+      <c r="BX11" s="175"/>
+      <c r="BY11" s="175"/>
+      <c r="BZ11" s="175"/>
+      <c r="CA11" s="175"/>
+      <c r="CB11" s="175"/>
+      <c r="CC11" s="175"/>
+      <c r="CD11" s="175"/>
+      <c r="CE11" s="175"/>
+      <c r="CF11" s="175"/>
+      <c r="CG11" s="175"/>
+      <c r="CH11" s="175"/>
+      <c r="CI11" s="175"/>
+      <c r="CJ11" s="175"/>
+      <c r="CK11" s="175"/>
+      <c r="CL11" s="175"/>
+      <c r="CM11" s="175"/>
+      <c r="CN11" s="175"/>
+      <c r="CO11" s="175"/>
+      <c r="CP11" s="175"/>
+      <c r="CQ11" s="175"/>
+      <c r="CR11" s="175"/>
+      <c r="CS11" s="175"/>
+      <c r="CT11" s="175"/>
+      <c r="CU11" s="175"/>
+      <c r="CV11" s="175"/>
+      <c r="CW11" s="175"/>
+      <c r="CX11" s="175"/>
+      <c r="CY11" s="175"/>
+      <c r="CZ11" s="175"/>
+      <c r="DA11" s="175"/>
+      <c r="DB11" s="175"/>
+      <c r="DC11" s="175"/>
+      <c r="DD11" s="175"/>
+      <c r="DE11" s="175"/>
+      <c r="DF11" s="175"/>
+      <c r="DG11" s="175"/>
+      <c r="DH11" s="175"/>
+      <c r="DI11" s="175"/>
+      <c r="DJ11" s="175"/>
+      <c r="DK11" s="175"/>
+      <c r="DL11" s="175"/>
+      <c r="DM11" s="175"/>
+      <c r="DN11" s="175"/>
+      <c r="DO11" s="175"/>
+      <c r="DP11" s="175"/>
+      <c r="DQ11" s="175"/>
+      <c r="DR11" s="175"/>
       <c r="DS11" s="18"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
@@ -11259,119 +11160,119 @@
       <c r="G12" s="41"/>
       <c r="H12" s="161"/>
       <c r="I12" s="161"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="176"/>
-      <c r="Y12" s="176"/>
-      <c r="Z12" s="176"/>
-      <c r="AA12" s="176"/>
-      <c r="AB12" s="176"/>
-      <c r="AC12" s="176"/>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="176"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="176"/>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="176"/>
-      <c r="AL12" s="176"/>
-      <c r="AM12" s="176"/>
-      <c r="AN12" s="176"/>
-      <c r="AO12" s="176"/>
-      <c r="AP12" s="176"/>
-      <c r="AQ12" s="176"/>
-      <c r="AR12" s="176"/>
-      <c r="AS12" s="176"/>
-      <c r="AT12" s="176"/>
-      <c r="AU12" s="176"/>
-      <c r="AV12" s="176"/>
-      <c r="AW12" s="176"/>
-      <c r="AX12" s="176"/>
-      <c r="AY12" s="176"/>
-      <c r="AZ12" s="176"/>
-      <c r="BA12" s="176"/>
-      <c r="BB12" s="176"/>
-      <c r="BC12" s="176"/>
-      <c r="BD12" s="176"/>
-      <c r="BE12" s="176"/>
-      <c r="BF12" s="176"/>
-      <c r="BG12" s="176"/>
-      <c r="BH12" s="176"/>
-      <c r="BI12" s="176"/>
-      <c r="BJ12" s="176"/>
-      <c r="BK12" s="176"/>
-      <c r="BL12" s="176"/>
-      <c r="BM12" s="176"/>
-      <c r="BN12" s="176"/>
-      <c r="BO12" s="176"/>
-      <c r="BP12" s="176"/>
-      <c r="BQ12" s="176"/>
-      <c r="BR12" s="176"/>
-      <c r="BS12" s="176"/>
-      <c r="BT12" s="176"/>
-      <c r="BU12" s="176"/>
-      <c r="BV12" s="176"/>
-      <c r="BW12" s="176"/>
-      <c r="BX12" s="176"/>
-      <c r="BY12" s="176"/>
-      <c r="BZ12" s="176"/>
-      <c r="CA12" s="176"/>
-      <c r="CB12" s="176"/>
-      <c r="CC12" s="176"/>
-      <c r="CD12" s="176"/>
-      <c r="CE12" s="176"/>
-      <c r="CF12" s="176"/>
-      <c r="CG12" s="176"/>
-      <c r="CH12" s="176"/>
-      <c r="CI12" s="176"/>
-      <c r="CJ12" s="176"/>
-      <c r="CK12" s="176"/>
-      <c r="CL12" s="176"/>
-      <c r="CM12" s="176"/>
-      <c r="CN12" s="176"/>
-      <c r="CO12" s="176"/>
-      <c r="CP12" s="176"/>
-      <c r="CQ12" s="176"/>
-      <c r="CR12" s="176"/>
-      <c r="CS12" s="176"/>
-      <c r="CT12" s="176"/>
-      <c r="CU12" s="176"/>
-      <c r="CV12" s="176"/>
-      <c r="CW12" s="176"/>
-      <c r="CX12" s="176"/>
-      <c r="CY12" s="176"/>
-      <c r="CZ12" s="176"/>
-      <c r="DA12" s="176"/>
-      <c r="DB12" s="176"/>
-      <c r="DC12" s="176"/>
-      <c r="DD12" s="176"/>
-      <c r="DE12" s="176"/>
-      <c r="DF12" s="176"/>
-      <c r="DG12" s="176"/>
-      <c r="DH12" s="176"/>
-      <c r="DI12" s="176"/>
-      <c r="DJ12" s="176"/>
-      <c r="DK12" s="176"/>
-      <c r="DL12" s="176"/>
-      <c r="DM12" s="176"/>
-      <c r="DN12" s="176"/>
-      <c r="DO12" s="176"/>
-      <c r="DP12" s="176"/>
-      <c r="DQ12" s="176"/>
-      <c r="DR12" s="176"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="178"/>
+      <c r="AF12" s="178"/>
+      <c r="AG12" s="178"/>
+      <c r="AH12" s="178"/>
+      <c r="AI12" s="178"/>
+      <c r="AJ12" s="178"/>
+      <c r="AK12" s="178"/>
+      <c r="AL12" s="178"/>
+      <c r="AM12" s="178"/>
+      <c r="AN12" s="178"/>
+      <c r="AO12" s="178"/>
+      <c r="AP12" s="178"/>
+      <c r="AQ12" s="178"/>
+      <c r="AR12" s="178"/>
+      <c r="AS12" s="178"/>
+      <c r="AT12" s="178"/>
+      <c r="AU12" s="178"/>
+      <c r="AV12" s="178"/>
+      <c r="AW12" s="178"/>
+      <c r="AX12" s="178"/>
+      <c r="AY12" s="178"/>
+      <c r="AZ12" s="178"/>
+      <c r="BA12" s="178"/>
+      <c r="BB12" s="178"/>
+      <c r="BC12" s="178"/>
+      <c r="BD12" s="178"/>
+      <c r="BE12" s="178"/>
+      <c r="BF12" s="178"/>
+      <c r="BG12" s="178"/>
+      <c r="BH12" s="178"/>
+      <c r="BI12" s="178"/>
+      <c r="BJ12" s="178"/>
+      <c r="BK12" s="178"/>
+      <c r="BL12" s="178"/>
+      <c r="BM12" s="178"/>
+      <c r="BN12" s="178"/>
+      <c r="BO12" s="178"/>
+      <c r="BP12" s="178"/>
+      <c r="BQ12" s="178"/>
+      <c r="BR12" s="178"/>
+      <c r="BS12" s="178"/>
+      <c r="BT12" s="178"/>
+      <c r="BU12" s="178"/>
+      <c r="BV12" s="178"/>
+      <c r="BW12" s="178"/>
+      <c r="BX12" s="178"/>
+      <c r="BY12" s="178"/>
+      <c r="BZ12" s="178"/>
+      <c r="CA12" s="178"/>
+      <c r="CB12" s="178"/>
+      <c r="CC12" s="178"/>
+      <c r="CD12" s="178"/>
+      <c r="CE12" s="178"/>
+      <c r="CF12" s="178"/>
+      <c r="CG12" s="178"/>
+      <c r="CH12" s="178"/>
+      <c r="CI12" s="178"/>
+      <c r="CJ12" s="178"/>
+      <c r="CK12" s="178"/>
+      <c r="CL12" s="178"/>
+      <c r="CM12" s="178"/>
+      <c r="CN12" s="178"/>
+      <c r="CO12" s="178"/>
+      <c r="CP12" s="178"/>
+      <c r="CQ12" s="178"/>
+      <c r="CR12" s="178"/>
+      <c r="CS12" s="178"/>
+      <c r="CT12" s="178"/>
+      <c r="CU12" s="178"/>
+      <c r="CV12" s="178"/>
+      <c r="CW12" s="178"/>
+      <c r="CX12" s="178"/>
+      <c r="CY12" s="178"/>
+      <c r="CZ12" s="178"/>
+      <c r="DA12" s="178"/>
+      <c r="DB12" s="178"/>
+      <c r="DC12" s="178"/>
+      <c r="DD12" s="178"/>
+      <c r="DE12" s="178"/>
+      <c r="DF12" s="178"/>
+      <c r="DG12" s="178"/>
+      <c r="DH12" s="178"/>
+      <c r="DI12" s="178"/>
+      <c r="DJ12" s="178"/>
+      <c r="DK12" s="178"/>
+      <c r="DL12" s="178"/>
+      <c r="DM12" s="178"/>
+      <c r="DN12" s="178"/>
+      <c r="DO12" s="178"/>
+      <c r="DP12" s="178"/>
+      <c r="DQ12" s="178"/>
+      <c r="DR12" s="178"/>
       <c r="DS12" s="23"/>
     </row>
   </sheetData>
@@ -11391,20 +11292,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.8516" style="177" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="177" customWidth="1"/>
-    <col min="3" max="3" width="29.8516" style="177" customWidth="1"/>
-    <col min="4" max="5" width="19.8516" style="177" customWidth="1"/>
-    <col min="6" max="6" width="24.1719" style="177" customWidth="1"/>
-    <col min="7" max="7" width="15.3516" style="177" customWidth="1"/>
-    <col min="8" max="8" width="34.3516" style="177" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="177" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="177" customWidth="1"/>
+    <col min="1" max="1" width="28.8516" style="179" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="179" customWidth="1"/>
+    <col min="3" max="3" width="29.8516" style="179" customWidth="1"/>
+    <col min="4" max="5" width="19.8516" style="179" customWidth="1"/>
+    <col min="6" max="6" width="24.1719" style="179" customWidth="1"/>
+    <col min="7" max="7" width="15.3516" style="179" customWidth="1"/>
+    <col min="8" max="8" width="34.3516" style="179" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="179" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="179" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="178">
-        <v>549</v>
+      <c r="A1" t="s" s="180">
+        <v>571</v>
       </c>
       <c r="B1" t="s" s="150">
         <v>1</v>
@@ -11412,12 +11313,12 @@
       <c r="C1" t="s" s="151">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="179">
+      <c r="D1" t="s" s="181">
         <v>3</v>
       </c>
-      <c r="E1" s="179"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
       <c r="H1" s="26"/>
       <c r="I1" s="117"/>
     </row>
@@ -11432,11 +11333,11 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G2" t="s" s="139">
         <v>447</v>
@@ -11472,14 +11373,24 @@
       <c r="I3" s="86"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="156"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="79"/>
+      <c r="A4" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="184"/>
+      <c r="C4" t="s" s="185">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s" s="186">
+        <v>166</v>
+      </c>
+      <c r="E4" s="186"/>
+      <c r="F4" t="s" s="186">
+        <v>545</v>
+      </c>
+      <c r="G4" s="187">
+        <v>1</v>
+      </c>
+      <c r="H4" s="188"/>
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -11637,9 +11548,9 @@
       <c r="I18" s="86"/>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="181"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="103"/>
-      <c r="C19" s="182"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
       <c r="F19" s="103"/>
@@ -11659,9 +11570,9 @@
       <c r="I20" s="86"/>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="181"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="103"/>
-      <c r="C21" s="182"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="104"/>
       <c r="E21" s="104"/>
       <c r="F21" s="103"/>
@@ -11681,9 +11592,9 @@
       <c r="I22" s="86"/>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="181"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="103"/>
-      <c r="C23" s="182"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
       <c r="F23" s="103"/>
@@ -11850,22 +11761,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.3516" style="183" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="183" customWidth="1"/>
-    <col min="3" max="3" width="30.1719" style="183" customWidth="1"/>
-    <col min="4" max="4" width="29.6719" style="183" customWidth="1"/>
-    <col min="5" max="5" width="25.1719" style="183" customWidth="1"/>
-    <col min="6" max="6" width="38.6719" style="183" customWidth="1"/>
-    <col min="7" max="7" width="13.3516" style="183" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="183" customWidth="1"/>
-    <col min="9" max="9" width="46" style="183" customWidth="1"/>
-    <col min="10" max="64" width="8.85156" style="183" customWidth="1"/>
-    <col min="65" max="16384" width="8.85156" style="183" customWidth="1"/>
+    <col min="1" max="1" width="22.3516" style="191" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="191" customWidth="1"/>
+    <col min="3" max="3" width="30.1719" style="191" customWidth="1"/>
+    <col min="4" max="4" width="29.6719" style="191" customWidth="1"/>
+    <col min="5" max="5" width="25.1719" style="191" customWidth="1"/>
+    <col min="6" max="6" width="38.6719" style="191" customWidth="1"/>
+    <col min="7" max="7" width="13.3516" style="191" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="191" customWidth="1"/>
+    <col min="9" max="9" width="46" style="191" customWidth="1"/>
+    <col min="10" max="64" width="8.85156" style="191" customWidth="1"/>
+    <col min="65" max="16384" width="8.85156" style="191" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -11948,14 +11859,14 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="G2" t="s" s="139">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="H2" s="82"/>
       <c r="I2" s="83"/>
@@ -12038,7 +11949,7 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="I3" t="s" s="84">
         <v>184</v>
@@ -12100,15 +12011,25 @@
       <c r="BL3" s="66"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
+      <c r="A4" s="192">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="194">
+        <v>563</v>
+      </c>
+      <c r="E4" s="194"/>
+      <c r="F4" t="s" s="194">
+        <v>569</v>
+      </c>
+      <c r="G4" s="193">
+        <v>1</v>
+      </c>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
       <c r="J4" s="65"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -12166,15 +12087,25 @@
       <c r="BL4" s="66"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="187"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
+      <c r="A5" s="195">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="196"/>
+      <c r="C5" t="s" s="105">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="197">
+        <v>166</v>
+      </c>
+      <c r="E5" s="197"/>
+      <c r="F5" t="s" s="197">
+        <v>545</v>
+      </c>
+      <c r="G5" s="196">
+        <v>2</v>
+      </c>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
       <c r="J5" s="65"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -12232,15 +12163,25 @@
       <c r="BL5" s="66"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="A6" s="192">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="194"/>
+      <c r="C6" t="s" s="90">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="194">
+        <v>168</v>
+      </c>
+      <c r="E6" s="194"/>
+      <c r="F6" t="s" s="194">
+        <v>573</v>
+      </c>
+      <c r="G6" s="193">
+        <v>3</v>
+      </c>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
       <c r="J6" s="65"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -12298,15 +12239,15 @@
       <c r="BL6" s="66"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="105"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
       <c r="J7" s="65"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -12364,15 +12305,15 @@
       <c r="BL7" s="66"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="65"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -12430,15 +12371,15 @@
       <c r="BL8" s="66"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="189"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="105"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
       <c r="J9" s="65"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -12496,15 +12437,15 @@
       <c r="BL9" s="66"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="184"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="192"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="65"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -12562,15 +12503,15 @@
       <c r="BL10" s="66"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="187"/>
-      <c r="B11" s="189"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="197"/>
       <c r="C11" s="105"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
       <c r="J11" s="65"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -12628,15 +12569,15 @@
       <c r="BL11" s="66"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="184"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="90"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
       <c r="J12" s="65"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -12694,15 +12635,15 @@
       <c r="BL12" s="66"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="187"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="197"/>
       <c r="C13" s="105"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
       <c r="J13" s="65"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -12760,15 +12701,15 @@
       <c r="BL13" s="66"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="184"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="194"/>
       <c r="C14" s="90"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
       <c r="J14" s="65"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -12826,15 +12767,15 @@
       <c r="BL14" s="66"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="187"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="105"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
       <c r="J15" s="65"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -12892,15 +12833,15 @@
       <c r="BL15" s="66"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="184"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="90"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
       <c r="J16" s="65"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -12958,15 +12899,15 @@
       <c r="BL16" s="66"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="187"/>
-      <c r="B17" s="189"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="197"/>
       <c r="C17" s="105"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
       <c r="J17" s="65"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -13024,15 +12965,15 @@
       <c r="BL17" s="66"/>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="184"/>
-      <c r="B18" s="186"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="194"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
       <c r="J18" s="65"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -13090,15 +13031,15 @@
       <c r="BL18" s="66"/>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="187"/>
-      <c r="B19" s="189"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="197"/>
       <c r="C19" s="105"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
       <c r="J19" s="65"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -13156,15 +13097,15 @@
       <c r="BL19" s="66"/>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="184"/>
-      <c r="B20" s="186"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="194"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
       <c r="J20" s="65"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -13222,15 +13163,15 @@
       <c r="BL20" s="66"/>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="187"/>
-      <c r="B21" s="189"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="197"/>
       <c r="C21" s="105"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="65"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -13288,15 +13229,15 @@
       <c r="BL21" s="66"/>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="184"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
       <c r="J22" s="65"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -13354,15 +13295,15 @@
       <c r="BL22" s="66"/>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="190"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
       <c r="J23" s="65"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -13420,15 +13361,15 @@
       <c r="BL23" s="66"/>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="184"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
       <c r="J24" s="65"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -13486,15 +13427,15 @@
       <c r="BL24" s="66"/>
     </row>
     <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="190"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
       <c r="J25" s="65"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -13552,15 +13493,15 @@
       <c r="BL25" s="66"/>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="184"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="65"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -13618,15 +13559,15 @@
       <c r="BL26" s="66"/>
     </row>
     <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="190"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
       <c r="J27" s="65"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -13684,15 +13625,15 @@
       <c r="BL27" s="66"/>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="184"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
       <c r="J28" s="65"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -13750,15 +13691,15 @@
       <c r="BL28" s="66"/>
     </row>
     <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="190"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
       <c r="J29" s="65"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -13816,15 +13757,15 @@
       <c r="BL29" s="66"/>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="184"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
       <c r="J30" s="65"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -13964,19 +13905,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="193" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="193" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="193" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="193" customWidth="1"/>
-    <col min="5" max="5" width="26.8516" style="193" customWidth="1"/>
-    <col min="6" max="6" width="22.8516" style="193" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="193" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="193" customWidth="1"/>
+    <col min="1" max="1" width="16.1719" style="201" customWidth="1"/>
+    <col min="2" max="2" width="17.8516" style="201" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="201" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="201" customWidth="1"/>
+    <col min="5" max="5" width="26.8516" style="201" customWidth="1"/>
+    <col min="6" max="6" width="22.8516" style="201" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="201" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="201" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -14000,13 +13941,13 @@
       </c>
       <c r="C2" s="148"/>
       <c r="D2" t="s" s="139">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s" s="139">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -14018,16 +13959,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="84">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s" s="84">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="E3" t="s" s="84">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s" s="84">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -14039,7 +13980,7 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s" s="78">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="D4" t="s" s="78">
         <v>14</v>
@@ -14048,7 +13989,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="78">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -14060,7 +14001,7 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s" s="88">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="D5" t="s" s="88">
         <v>14</v>
@@ -14069,7 +14010,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="88">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -14184,46 +14125,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.8516" style="194" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="194" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="194" customWidth="1"/>
-    <col min="4" max="4" width="32.6719" style="194" customWidth="1"/>
-    <col min="5" max="5" width="28" style="194" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="194" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="194" customWidth="1"/>
+    <col min="1" max="1" width="30.8516" style="202" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="202" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="202" customWidth="1"/>
+    <col min="4" max="4" width="32.6719" style="202" customWidth="1"/>
+    <col min="5" max="5" width="28" style="202" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="202" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="202" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="195">
-        <v>561</v>
-      </c>
-      <c r="B1" t="s" s="196">
+      <c r="A1" t="s" s="203">
+        <v>584</v>
+      </c>
+      <c r="B1" t="s" s="204">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="197">
+      <c r="C1" t="s" s="205">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="198">
+      <c r="D1" t="s" s="206">
         <v>3</v>
       </c>
-      <c r="E1" s="199"/>
+      <c r="E1" s="207"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="46.75" customHeight="1">
-      <c r="A2" t="s" s="200">
+      <c r="A2" t="s" s="208">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="200">
+      <c r="B2" t="s" s="208">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="200">
-        <v>562</v>
-      </c>
-      <c r="D2" t="s" s="200">
+      <c r="C2" t="s" s="208">
+        <v>585</v>
+      </c>
+      <c r="D2" t="s" s="208">
         <v>364</v>
       </c>
-      <c r="E2" t="s" s="200">
-        <v>563</v>
+      <c r="E2" t="s" s="208">
+        <v>586</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -14254,7 +14195,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="E4" t="s" s="78">
         <v>368</v>
@@ -14270,7 +14211,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="E5" t="s" s="104">
         <v>368</v>
@@ -14286,7 +14227,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E6" t="s" s="78">
         <v>368</v>
@@ -14302,7 +14243,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="88">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="E7" t="s" s="104">
         <v>368</v>
@@ -14358,19 +14299,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33" style="201" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="201" customWidth="1"/>
-    <col min="3" max="3" width="30.3516" style="201" customWidth="1"/>
-    <col min="4" max="4" width="40.8516" style="201" customWidth="1"/>
-    <col min="5" max="5" width="28.3516" style="201" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="201" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="201" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="201" customWidth="1"/>
+    <col min="1" max="1" width="33" style="209" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="209" customWidth="1"/>
+    <col min="3" max="3" width="30.3516" style="209" customWidth="1"/>
+    <col min="4" max="4" width="40.8516" style="209" customWidth="1"/>
+    <col min="5" max="5" width="28.3516" style="209" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="209" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="209" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="209" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -14396,13 +14337,13 @@
         <v>362</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s" s="139">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="G2" s="86"/>
     </row>
@@ -14435,11 +14376,11 @@
       <c r="C4" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D4" t="s" s="202">
+      <c r="D4" t="s" s="210">
         <v>100</v>
       </c>
       <c r="E4" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F4" t="s" s="88">
         <v>368</v>
@@ -14454,11 +14395,11 @@
       <c r="C5" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D5" t="s" s="202">
+      <c r="D5" t="s" s="210">
         <v>104</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F5" t="s" s="88">
         <v>368</v>
@@ -14473,11 +14414,11 @@
       <c r="C6" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D6" t="s" s="202">
+      <c r="D6" t="s" s="210">
         <v>107</v>
       </c>
       <c r="E6" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F6" t="s" s="88">
         <v>368</v>
@@ -14492,11 +14433,11 @@
       <c r="C7" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="202">
+      <c r="D7" t="s" s="210">
         <v>110</v>
       </c>
       <c r="E7" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F7" t="s" s="88">
         <v>368</v>
@@ -14511,11 +14452,11 @@
       <c r="C8" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D8" t="s" s="202">
+      <c r="D8" t="s" s="210">
         <v>113</v>
       </c>
       <c r="E8" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F8" t="s" s="88">
         <v>368</v>
@@ -14530,11 +14471,11 @@
       <c r="C9" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D9" t="s" s="202">
+      <c r="D9" t="s" s="210">
         <v>116</v>
       </c>
       <c r="E9" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F9" t="s" s="88">
         <v>368</v>
@@ -14549,11 +14490,11 @@
       <c r="C10" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="202">
+      <c r="D10" t="s" s="210">
         <v>120</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F10" t="s" s="88">
         <v>368</v>
@@ -14568,11 +14509,11 @@
       <c r="C11" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D11" t="s" s="202">
+      <c r="D11" t="s" s="210">
         <v>123</v>
       </c>
       <c r="E11" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F11" t="s" s="88">
         <v>368</v>
@@ -14587,11 +14528,11 @@
       <c r="C12" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D12" t="s" s="202">
+      <c r="D12" t="s" s="210">
         <v>126</v>
       </c>
       <c r="E12" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F12" t="s" s="88">
         <v>368</v>
@@ -14606,11 +14547,11 @@
       <c r="C13" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D13" t="s" s="202">
+      <c r="D13" t="s" s="210">
         <v>129</v>
       </c>
       <c r="E13" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s" s="88">
         <v>368</v>
@@ -14625,11 +14566,11 @@
       <c r="C14" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D14" t="s" s="202">
+      <c r="D14" t="s" s="210">
         <v>132</v>
       </c>
       <c r="E14" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s" s="88">
         <v>368</v>
@@ -14644,11 +14585,11 @@
       <c r="C15" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D15" t="s" s="202">
+      <c r="D15" t="s" s="210">
         <v>135</v>
       </c>
       <c r="E15" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F15" t="s" s="88">
         <v>368</v>
@@ -14663,11 +14604,11 @@
       <c r="C16" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D16" t="s" s="202">
+      <c r="D16" t="s" s="210">
         <v>139</v>
       </c>
       <c r="E16" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F16" t="s" s="88">
         <v>368</v>
@@ -14682,11 +14623,11 @@
       <c r="C17" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D17" t="s" s="202">
+      <c r="D17" t="s" s="210">
         <v>142</v>
       </c>
       <c r="E17" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F17" t="s" s="88">
         <v>368</v>
@@ -14701,11 +14642,11 @@
       <c r="C18" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D18" t="s" s="202">
+      <c r="D18" t="s" s="210">
         <v>144</v>
       </c>
       <c r="E18" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s" s="88">
         <v>368</v>
@@ -14720,11 +14661,11 @@
       <c r="C19" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D19" t="s" s="202">
+      <c r="D19" t="s" s="210">
         <v>147</v>
       </c>
       <c r="E19" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s" s="88">
         <v>368</v>
@@ -14739,11 +14680,11 @@
       <c r="C20" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D20" t="s" s="202">
+      <c r="D20" t="s" s="210">
         <v>151</v>
       </c>
       <c r="E20" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s" s="88">
         <v>368</v>
@@ -14758,11 +14699,11 @@
       <c r="C21" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D21" t="s" s="202">
+      <c r="D21" t="s" s="210">
         <v>154</v>
       </c>
       <c r="E21" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F21" t="s" s="88">
         <v>368</v>
@@ -14777,11 +14718,11 @@
       <c r="C22" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D22" t="s" s="202">
+      <c r="D22" t="s" s="210">
         <v>157</v>
       </c>
       <c r="E22" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F22" t="s" s="88">
         <v>368</v>
@@ -14796,11 +14737,11 @@
       <c r="C23" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D23" t="s" s="202">
+      <c r="D23" t="s" s="210">
         <v>160</v>
       </c>
       <c r="E23" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F23" t="s" s="88">
         <v>368</v>
@@ -14815,11 +14756,11 @@
       <c r="C24" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D24" t="s" s="202">
+      <c r="D24" t="s" s="210">
         <v>163</v>
       </c>
       <c r="E24" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F24" t="s" s="88">
         <v>368</v>
@@ -14834,11 +14775,11 @@
       <c r="C25" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="202">
+      <c r="D25" t="s" s="210">
         <v>166</v>
       </c>
       <c r="E25" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F25" t="s" s="88">
         <v>368</v>
@@ -14853,11 +14794,11 @@
       <c r="C26" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D26" t="s" s="202">
+      <c r="D26" t="s" s="210">
         <v>168</v>
       </c>
       <c r="E26" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F26" t="s" s="88">
         <v>368</v>
@@ -14872,11 +14813,11 @@
       <c r="C27" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D27" t="s" s="202">
+      <c r="D27" t="s" s="210">
         <v>171</v>
       </c>
       <c r="E27" t="s" s="88">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F27" t="s" s="88">
         <v>368</v>
@@ -14963,14 +14904,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="28.8516" style="203" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="203" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="203" customWidth="1"/>
+    <col min="1" max="4" width="28.8516" style="211" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="211" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="211" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" t="s" s="107">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -14978,23 +14919,23 @@
       <c r="C1" t="s" s="138">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="204">
+      <c r="D1" t="s" s="212">
         <v>3</v>
       </c>
       <c r="E1" s="45"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="116">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s" s="116">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s" s="116">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s" s="116">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="E2" s="45"/>
     </row>
@@ -15018,13 +14959,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="78">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s" s="78">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="E4" s="45"/>
     </row>
@@ -15032,14 +14973,14 @@
       <c r="A5" t="s" s="44">
         <v>41</v>
       </c>
-      <c r="B5" t="s" s="205">
-        <v>575</v>
-      </c>
-      <c r="C5" t="s" s="205">
-        <v>576</v>
-      </c>
-      <c r="D5" t="s" s="205">
-        <v>577</v>
+      <c r="B5" t="s" s="213">
+        <v>598</v>
+      </c>
+      <c r="C5" t="s" s="213">
+        <v>599</v>
+      </c>
+      <c r="D5" t="s" s="213">
+        <v>600</v>
       </c>
       <c r="E5" s="45"/>
     </row>
@@ -15048,13 +14989,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="78">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s" s="78">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="E6" s="45"/>
     </row>
@@ -15062,14 +15003,14 @@
       <c r="A7" t="s" s="44">
         <v>41</v>
       </c>
-      <c r="B7" t="s" s="205">
-        <v>581</v>
-      </c>
-      <c r="C7" t="s" s="205">
-        <v>582</v>
-      </c>
-      <c r="D7" t="s" s="205">
-        <v>583</v>
+      <c r="B7" t="s" s="213">
+        <v>604</v>
+      </c>
+      <c r="C7" t="s" s="213">
+        <v>605</v>
+      </c>
+      <c r="D7" t="s" s="213">
+        <v>606</v>
       </c>
       <c r="E7" s="45"/>
     </row>
@@ -15081,10 +15022,10 @@
       <c r="E8" s="45"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="206"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="45"/>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -15095,10 +15036,10 @@
       <c r="E10" s="45"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="206"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
+      <c r="A11" s="214"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="45"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
@@ -15125,18 +15066,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.1719" style="207" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="207" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="207" customWidth="1"/>
-    <col min="4" max="4" width="29" style="207" customWidth="1"/>
-    <col min="5" max="6" width="30.1719" style="207" customWidth="1"/>
-    <col min="7" max="141" width="8.85156" style="207" customWidth="1"/>
-    <col min="142" max="16384" width="8.85156" style="207" customWidth="1"/>
+    <col min="1" max="1" width="27.1719" style="215" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="215" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="215" customWidth="1"/>
+    <col min="4" max="4" width="29" style="215" customWidth="1"/>
+    <col min="5" max="6" width="30.1719" style="215" customWidth="1"/>
+    <col min="7" max="141" width="8.85156" style="215" customWidth="1"/>
+    <col min="142" max="16384" width="8.85156" style="215" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -15293,16 +15234,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="139">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="E2" t="s" s="139">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="20"/>
@@ -15604,10 +15545,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F4" t="s" s="78">
         <v>368</v>
@@ -15757,10 +15698,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s" s="104">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="F5" t="s" s="104">
         <v>368</v>
@@ -15910,10 +15851,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s" s="78">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F6" t="s" s="78">
         <v>368</v>
@@ -16063,10 +16004,10 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F7" t="s" s="104">
         <v>368</v>
@@ -16216,10 +16157,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="78">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E8" t="s" s="78">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F8" t="s" s="78">
         <v>368</v>
@@ -17092,18 +17033,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="208" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="208" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="208" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="208" customWidth="1"/>
-    <col min="5" max="6" width="29.3516" style="208" customWidth="1"/>
-    <col min="7" max="84" width="8.85156" style="208" customWidth="1"/>
-    <col min="85" max="16384" width="8.85156" style="208" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="216" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="216" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="216" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="216" customWidth="1"/>
+    <col min="5" max="6" width="29.3516" style="216" customWidth="1"/>
+    <col min="7" max="84" width="8.85156" style="216" customWidth="1"/>
+    <col min="85" max="16384" width="8.85156" style="216" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -17206,13 +17147,13 @@
         <v>362</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="E2" t="s" s="9">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="9">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="20"/>
@@ -17304,7 +17245,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s" s="84">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s" s="84">
         <v>367</v>
@@ -17400,10 +17341,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F4" t="s" s="78">
         <v>368</v>
@@ -17496,13 +17437,13 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s" s="104">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="F5" t="s" s="104">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="G5" s="65"/>
       <c r="H5" s="20"/>
@@ -17592,10 +17533,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E6" t="s" s="78">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F6" t="s" s="78">
         <v>368</v>
@@ -17688,10 +17629,10 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F7" t="s" s="104">
         <v>368</v>
@@ -17784,10 +17725,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="78">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E8" t="s" s="78">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F8" t="s" s="78">
         <v>368</v>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/InterpolationTestDefinitionFile.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="612">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1652,9 +1652,6 @@
   </si>
   <si>
     <t>Create a case</t>
-  </si>
-  <si>
-    <t>http://ccd-test-stubs-service-aat.service.core-compute-aat.internal/case_type/fe-functional-test/mid_event_dynamic_list</t>
   </si>
   <si>
     <t>updateCase</t>
@@ -7862,9 +7859,7 @@
         <v>480</v>
       </c>
       <c r="J4" s="78"/>
-      <c r="K4" t="s" s="78">
-        <v>514</v>
-      </c>
+      <c r="K4" s="79"/>
       <c r="L4" s="142"/>
       <c r="M4" s="142"/>
       <c r="N4" s="142"/>
@@ -7893,13 +7888,13 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="88">
+        <v>514</v>
+      </c>
+      <c r="E5" t="s" s="88">
         <v>515</v>
       </c>
-      <c r="E5" t="s" s="88">
-        <v>516</v>
-      </c>
       <c r="F5" t="s" s="88">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G5" s="135">
         <v>1</v>
@@ -8045,7 +8040,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -8083,41 +8078,41 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="104">
+        <v>517</v>
+      </c>
+      <c r="E2" t="s" s="104">
         <v>518</v>
       </c>
-      <c r="E2" t="s" s="104">
+      <c r="F2" t="s" s="139">
         <v>519</v>
       </c>
-      <c r="F2" t="s" s="139">
+      <c r="G2" t="s" s="139">
         <v>520</v>
       </c>
-      <c r="G2" t="s" s="139">
+      <c r="H2" t="s" s="139">
         <v>521</v>
       </c>
-      <c r="H2" t="s" s="139">
+      <c r="I2" t="s" s="139">
         <v>522</v>
       </c>
-      <c r="I2" t="s" s="139">
+      <c r="J2" t="s" s="139">
         <v>523</v>
       </c>
-      <c r="J2" t="s" s="139">
+      <c r="K2" t="s" s="139">
         <v>524</v>
       </c>
-      <c r="K2" t="s" s="139">
+      <c r="L2" t="s" s="139">
         <v>525</v>
       </c>
-      <c r="L2" t="s" s="139">
+      <c r="M2" t="s" s="104">
         <v>526</v>
-      </c>
-      <c r="M2" t="s" s="104">
-        <v>527</v>
       </c>
       <c r="N2" s="104"/>
       <c r="O2" t="s" s="139">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P2" t="s" s="139">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q2" t="s" s="115">
         <v>491</v>
@@ -8142,22 +8137,22 @@
         <v>366</v>
       </c>
       <c r="F3" t="s" s="84">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G3" t="s" s="84">
         <v>387</v>
       </c>
       <c r="H3" t="s" s="84">
+        <v>529</v>
+      </c>
+      <c r="I3" t="s" s="84">
         <v>530</v>
       </c>
-      <c r="I3" t="s" s="84">
+      <c r="J3" t="s" s="84">
         <v>531</v>
       </c>
-      <c r="J3" t="s" s="84">
+      <c r="K3" t="s" s="84">
         <v>532</v>
-      </c>
-      <c r="K3" t="s" s="84">
-        <v>533</v>
       </c>
       <c r="L3" t="s" s="84">
         <v>182</v>
@@ -8166,19 +8161,19 @@
         <v>183</v>
       </c>
       <c r="N3" t="s" s="84">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O3" t="s" s="84">
         <v>184</v>
       </c>
       <c r="P3" t="s" s="84">
+        <v>534</v>
+      </c>
+      <c r="Q3" t="s" s="84">
         <v>535</v>
       </c>
-      <c r="Q3" t="s" s="84">
+      <c r="R3" t="s" s="141">
         <v>536</v>
-      </c>
-      <c r="R3" t="s" s="141">
-        <v>537</v>
       </c>
       <c r="S3" s="86"/>
     </row>
@@ -8200,13 +8195,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H4" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H4" t="s" s="104">
+      <c r="I4" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I4" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J4" s="148">
         <v>21</v>
@@ -8241,13 +8236,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H5" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H5" t="s" s="104">
+      <c r="I5" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I5" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J5" s="148">
         <v>23</v>
@@ -8282,13 +8277,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H6" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H6" t="s" s="104">
+      <c r="I6" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I6" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J6" s="148">
         <v>25</v>
@@ -8323,13 +8318,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H7" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H7" t="s" s="104">
+      <c r="I7" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I7" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J7" s="148">
         <v>26</v>
@@ -8364,13 +8359,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H8" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H8" t="s" s="104">
+      <c r="I8" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I8" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J8" s="148">
         <v>27</v>
@@ -8405,13 +8400,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H9" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H9" t="s" s="104">
+      <c r="I9" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I9" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J9" s="148">
         <v>28</v>
@@ -8446,13 +8441,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H10" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H10" t="s" s="104">
+      <c r="I10" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I10" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J10" s="148">
         <v>29</v>
@@ -8487,13 +8482,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H11" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H11" t="s" s="104">
+      <c r="I11" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I11" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J11" s="148">
         <v>30</v>
@@ -8528,13 +8523,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H12" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H12" t="s" s="104">
+      <c r="I12" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I12" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J12" s="148">
         <v>31</v>
@@ -8569,13 +8564,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H13" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H13" t="s" s="104">
+      <c r="I13" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I13" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J13" s="148">
         <v>32</v>
@@ -8610,13 +8605,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H14" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H14" t="s" s="104">
+      <c r="I14" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I14" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J14" s="148">
         <v>33</v>
@@ -8651,13 +8646,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H15" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H15" t="s" s="104">
+      <c r="I15" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I15" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J15" s="148">
         <v>35</v>
@@ -8692,13 +8687,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H16" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H16" t="s" s="104">
+      <c r="I16" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I16" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J16" s="148">
         <v>36</v>
@@ -8733,13 +8728,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H17" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H17" t="s" s="104">
+      <c r="I17" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I17" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J17" s="148">
         <v>37</v>
@@ -8774,13 +8769,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s" s="104">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H18" t="s" s="104">
+        <v>538</v>
+      </c>
+      <c r="I18" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I18" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J18" s="148">
         <v>38</v>
@@ -8815,13 +8810,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H19" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H19" t="s" s="104">
+      <c r="I19" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I19" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J19" s="148">
         <v>39</v>
@@ -8856,13 +8851,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H20" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H20" t="s" s="104">
+      <c r="I20" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I20" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J20" s="148">
         <v>41</v>
@@ -8897,13 +8892,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H21" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H21" t="s" s="104">
+      <c r="I21" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I21" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J21" s="148">
         <v>42</v>
@@ -8938,13 +8933,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H22" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H22" t="s" s="104">
+      <c r="I22" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I22" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J22" s="148">
         <v>43</v>
@@ -8979,13 +8974,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H23" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H23" t="s" s="104">
+      <c r="I23" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I23" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J23" s="148">
         <v>44</v>
@@ -9020,13 +9015,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="s" s="104">
+        <v>537</v>
+      </c>
+      <c r="H24" t="s" s="104">
         <v>538</v>
       </c>
-      <c r="H24" t="s" s="104">
+      <c r="I24" t="s" s="104">
         <v>539</v>
-      </c>
-      <c r="I24" t="s" s="104">
-        <v>540</v>
       </c>
       <c r="J24" s="148">
         <v>45</v>
@@ -9074,7 +9069,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s" s="150">
         <v>1</v>
@@ -9102,11 +9097,11 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G2" t="s" s="139">
         <v>447</v>
@@ -9154,7 +9149,7 @@
       </c>
       <c r="E4" s="132"/>
       <c r="F4" t="s" s="132">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G4" s="157">
         <v>1</v>
@@ -9175,7 +9170,7 @@
       </c>
       <c r="E5" s="88"/>
       <c r="F5" t="s" s="88">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G5" s="159">
         <v>2</v>
@@ -9217,7 +9212,7 @@
       </c>
       <c r="E7" s="88"/>
       <c r="F7" t="s" s="134">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G7" s="159">
         <v>4</v>
@@ -9238,7 +9233,7 @@
       </c>
       <c r="E8" s="78"/>
       <c r="F8" t="s" s="132">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G8" s="157">
         <v>5</v>
@@ -9259,7 +9254,7 @@
       </c>
       <c r="E9" s="88"/>
       <c r="F9" t="s" s="134">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G9" s="159">
         <v>6</v>
@@ -9280,7 +9275,7 @@
       </c>
       <c r="E10" s="78"/>
       <c r="F10" t="s" s="132">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G10" s="157">
         <v>7</v>
@@ -9301,7 +9296,7 @@
       </c>
       <c r="E11" s="88"/>
       <c r="F11" t="s" s="88">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G11" s="159">
         <v>8</v>
@@ -9322,7 +9317,7 @@
       </c>
       <c r="E12" s="88"/>
       <c r="F12" t="s" s="88">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G12" s="159">
         <v>10</v>
@@ -9343,7 +9338,7 @@
       </c>
       <c r="E13" s="78"/>
       <c r="F13" t="s" s="78">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G13" s="157">
         <v>11</v>
@@ -9364,7 +9359,7 @@
       </c>
       <c r="E14" s="88"/>
       <c r="F14" t="s" s="88">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G14" s="159">
         <v>12</v>
@@ -9385,7 +9380,7 @@
       </c>
       <c r="E15" s="78"/>
       <c r="F15" t="s" s="78">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G15" s="157">
         <v>13</v>
@@ -9471,7 +9466,7 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1">
       <c r="A1" t="s" s="163">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -9525,13 +9520,13 @@
         <v>393</v>
       </c>
       <c r="I3" t="s" s="84">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J3" t="s" s="84">
         <v>184</v>
       </c>
       <c r="K3" t="s" s="84">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L3" s="45"/>
     </row>
@@ -9551,17 +9546,17 @@
       </c>
       <c r="F4" s="91"/>
       <c r="G4" t="s" s="165">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H4" s="166">
         <v>1</v>
       </c>
       <c r="I4" t="s" s="165">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J4" s="91"/>
       <c r="K4" t="s" s="90">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L4" s="45"/>
     </row>
@@ -9581,7 +9576,7 @@
       </c>
       <c r="F5" s="127"/>
       <c r="G5" t="s" s="168">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H5" s="169">
         <v>2</v>
@@ -9589,7 +9584,7 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" t="s" s="44">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L5" s="45"/>
     </row>
@@ -9605,11 +9600,11 @@
       </c>
       <c r="D6" s="91"/>
       <c r="E6" t="s" s="90">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F6" s="91"/>
       <c r="G6" t="s" s="165">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H6" s="166">
         <v>3</v>
@@ -9617,7 +9612,7 @@
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
       <c r="K6" t="s" s="90">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L6" s="45"/>
     </row>
@@ -9709,7 +9704,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -9851,14 +9846,14 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
+        <v>565</v>
+      </c>
+      <c r="E2" t="s" s="139">
         <v>566</v>
-      </c>
-      <c r="E2" t="s" s="139">
-        <v>567</v>
       </c>
       <c r="F2" s="139"/>
       <c r="G2" t="s" s="139">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H2" s="127"/>
       <c r="I2" s="127"/>
@@ -10000,7 +9995,7 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="155">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I3" t="s" s="155">
         <v>184</v>
@@ -10129,10 +10124,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E4" t="s" s="132">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F4" s="157"/>
       <c r="G4" s="121">
@@ -10267,7 +10262,7 @@
         <v>166</v>
       </c>
       <c r="E5" t="s" s="134">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="159">
@@ -10399,7 +10394,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E6" t="s" s="132">
         <v>473</v>
@@ -11305,7 +11300,7 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="180">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s" s="150">
         <v>1</v>
@@ -11333,11 +11328,11 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G2" t="s" s="139">
         <v>447</v>
@@ -11385,7 +11380,7 @@
       </c>
       <c r="E4" s="186"/>
       <c r="F4" t="s" s="186">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G4" s="187">
         <v>1</v>
@@ -11776,7 +11771,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -11859,14 +11854,14 @@
         <v>81</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" t="s" s="139">
+        <v>566</v>
+      </c>
+      <c r="G2" t="s" s="139">
         <v>567</v>
-      </c>
-      <c r="G2" t="s" s="139">
-        <v>568</v>
       </c>
       <c r="H2" s="82"/>
       <c r="I2" s="83"/>
@@ -11949,7 +11944,7 @@
         <v>393</v>
       </c>
       <c r="H3" t="s" s="84">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I3" t="s" s="84">
         <v>184</v>
@@ -12019,11 +12014,11 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="194">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E4" s="194"/>
       <c r="F4" t="s" s="194">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G4" s="193">
         <v>1</v>
@@ -12099,7 +12094,7 @@
       </c>
       <c r="E5" s="197"/>
       <c r="F5" t="s" s="197">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G5" s="196">
         <v>2</v>
@@ -12175,7 +12170,7 @@
       </c>
       <c r="E6" s="194"/>
       <c r="F6" t="s" s="194">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G6" s="193">
         <v>3</v>
@@ -13917,7 +13912,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -13941,13 +13936,13 @@
       </c>
       <c r="C2" s="148"/>
       <c r="D2" t="s" s="139">
+        <v>574</v>
+      </c>
+      <c r="E2" t="s" s="139">
         <v>575</v>
       </c>
-      <c r="E2" t="s" s="139">
+      <c r="F2" t="s" s="139">
         <v>576</v>
-      </c>
-      <c r="F2" t="s" s="139">
-        <v>577</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -13959,16 +13954,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="84">
+        <v>577</v>
+      </c>
+      <c r="D3" t="s" s="84">
         <v>578</v>
       </c>
-      <c r="D3" t="s" s="84">
+      <c r="E3" t="s" s="84">
         <v>579</v>
       </c>
-      <c r="E3" t="s" s="84">
+      <c r="F3" t="s" s="84">
         <v>580</v>
-      </c>
-      <c r="F3" t="s" s="84">
-        <v>581</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -13980,7 +13975,7 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s" s="78">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D4" t="s" s="78">
         <v>14</v>
@@ -14001,7 +13996,7 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s" s="88">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s" s="88">
         <v>14</v>
@@ -14136,7 +14131,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="203">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s" s="204">
         <v>1</v>
@@ -14158,13 +14153,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="208">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s" s="208">
         <v>364</v>
       </c>
       <c r="E2" t="s" s="208">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -14195,7 +14190,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E4" t="s" s="78">
         <v>368</v>
@@ -14211,7 +14206,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s" s="104">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E5" t="s" s="104">
         <v>368</v>
@@ -14227,7 +14222,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E6" t="s" s="78">
         <v>368</v>
@@ -14243,7 +14238,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="88">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E7" t="s" s="104">
         <v>368</v>
@@ -14311,7 +14306,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -14337,13 +14332,13 @@
         <v>362</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E2" t="s" s="139">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G2" s="86"/>
     </row>
@@ -14380,7 +14375,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F4" t="s" s="88">
         <v>368</v>
@@ -14399,7 +14394,7 @@
         <v>104</v>
       </c>
       <c r="E5" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F5" t="s" s="88">
         <v>368</v>
@@ -14418,7 +14413,7 @@
         <v>107</v>
       </c>
       <c r="E6" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F6" t="s" s="88">
         <v>368</v>
@@ -14437,7 +14432,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F7" t="s" s="88">
         <v>368</v>
@@ -14456,7 +14451,7 @@
         <v>113</v>
       </c>
       <c r="E8" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F8" t="s" s="88">
         <v>368</v>
@@ -14475,7 +14470,7 @@
         <v>116</v>
       </c>
       <c r="E9" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F9" t="s" s="88">
         <v>368</v>
@@ -14494,7 +14489,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F10" t="s" s="88">
         <v>368</v>
@@ -14513,7 +14508,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F11" t="s" s="88">
         <v>368</v>
@@ -14532,7 +14527,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F12" t="s" s="88">
         <v>368</v>
@@ -14551,7 +14546,7 @@
         <v>129</v>
       </c>
       <c r="E13" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s" s="88">
         <v>368</v>
@@ -14570,7 +14565,7 @@
         <v>132</v>
       </c>
       <c r="E14" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F14" t="s" s="88">
         <v>368</v>
@@ -14589,7 +14584,7 @@
         <v>135</v>
       </c>
       <c r="E15" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F15" t="s" s="88">
         <v>368</v>
@@ -14608,7 +14603,7 @@
         <v>139</v>
       </c>
       <c r="E16" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F16" t="s" s="88">
         <v>368</v>
@@ -14627,7 +14622,7 @@
         <v>142</v>
       </c>
       <c r="E17" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F17" t="s" s="88">
         <v>368</v>
@@ -14646,7 +14641,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s" s="88">
         <v>368</v>
@@ -14665,7 +14660,7 @@
         <v>147</v>
       </c>
       <c r="E19" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F19" t="s" s="88">
         <v>368</v>
@@ -14684,7 +14679,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F20" t="s" s="88">
         <v>368</v>
@@ -14703,7 +14698,7 @@
         <v>154</v>
       </c>
       <c r="E21" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F21" t="s" s="88">
         <v>368</v>
@@ -14722,7 +14717,7 @@
         <v>157</v>
       </c>
       <c r="E22" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s" s="88">
         <v>368</v>
@@ -14741,7 +14736,7 @@
         <v>160</v>
       </c>
       <c r="E23" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F23" t="s" s="88">
         <v>368</v>
@@ -14760,7 +14755,7 @@
         <v>163</v>
       </c>
       <c r="E24" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F24" t="s" s="88">
         <v>368</v>
@@ -14779,7 +14774,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F25" t="s" s="88">
         <v>368</v>
@@ -14798,7 +14793,7 @@
         <v>168</v>
       </c>
       <c r="E26" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F26" t="s" s="88">
         <v>368</v>
@@ -14817,7 +14812,7 @@
         <v>171</v>
       </c>
       <c r="E27" t="s" s="88">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F27" t="s" s="88">
         <v>368</v>
@@ -14911,7 +14906,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" t="s" s="107">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -14926,16 +14921,16 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="116">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s" s="116">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s" s="116">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s" s="116">
         <v>594</v>
-      </c>
-      <c r="B2" t="s" s="116">
-        <v>594</v>
-      </c>
-      <c r="C2" t="s" s="116">
-        <v>594</v>
-      </c>
-      <c r="D2" t="s" s="116">
-        <v>595</v>
       </c>
       <c r="E2" s="45"/>
     </row>
@@ -14959,13 +14954,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="78">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s" s="78">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s" s="78">
         <v>596</v>
-      </c>
-      <c r="D4" t="s" s="78">
-        <v>597</v>
       </c>
       <c r="E4" s="45"/>
     </row>
@@ -14974,13 +14969,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="213">
+        <v>597</v>
+      </c>
+      <c r="C5" t="s" s="213">
         <v>598</v>
       </c>
-      <c r="C5" t="s" s="213">
+      <c r="D5" t="s" s="213">
         <v>599</v>
-      </c>
-      <c r="D5" t="s" s="213">
-        <v>600</v>
       </c>
       <c r="E5" s="45"/>
     </row>
@@ -14989,13 +14984,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="78">
+        <v>600</v>
+      </c>
+      <c r="C6" t="s" s="78">
         <v>601</v>
       </c>
-      <c r="C6" t="s" s="78">
+      <c r="D6" t="s" s="78">
         <v>602</v>
-      </c>
-      <c r="D6" t="s" s="78">
-        <v>603</v>
       </c>
       <c r="E6" s="45"/>
     </row>
@@ -15004,13 +14999,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="213">
+        <v>603</v>
+      </c>
+      <c r="C7" t="s" s="213">
         <v>604</v>
       </c>
-      <c r="C7" t="s" s="213">
+      <c r="D7" t="s" s="213">
         <v>605</v>
-      </c>
-      <c r="D7" t="s" s="213">
-        <v>606</v>
       </c>
       <c r="E7" s="45"/>
     </row>
@@ -15077,7 +15072,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="137">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1" t="s" s="108">
         <v>1</v>
@@ -15234,16 +15229,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="139">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s" s="139">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E2" t="s" s="139">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="139">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="20"/>
@@ -15548,7 +15543,7 @@
         <v>512</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F4" t="s" s="78">
         <v>368</v>
@@ -15701,7 +15696,7 @@
         <v>512</v>
       </c>
       <c r="E5" t="s" s="104">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F5" t="s" s="104">
         <v>368</v>
@@ -15854,7 +15849,7 @@
         <v>512</v>
       </c>
       <c r="E6" t="s" s="78">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F6" t="s" s="78">
         <v>368</v>
@@ -16004,10 +15999,10 @@
         <v>41</v>
       </c>
       <c r="D7" t="s" s="104">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F7" t="s" s="104">
         <v>368</v>
@@ -16157,10 +16152,10 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="78">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E8" t="s" s="78">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F8" t="s" s="78">
         <v>368</v>
@@ -17044,7 +17039,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -17147,13 +17142,13 @@
         <v>362</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" t="s" s="9">
         <v>364</v>
       </c>
       <c r="F2" t="s" s="9">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="20"/>
@@ -17245,7 +17240,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s" s="84">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s" s="84">
         <v>367</v>
@@ -17344,7 +17339,7 @@
         <v>480</v>
       </c>
       <c r="E4" t="s" s="78">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F4" t="s" s="78">
         <v>368</v>
@@ -17440,10 +17435,10 @@
         <v>480</v>
       </c>
       <c r="E5" t="s" s="104">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F5" t="s" s="104">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G5" s="65"/>
       <c r="H5" s="20"/>
@@ -17536,7 +17531,7 @@
         <v>480</v>
       </c>
       <c r="E6" t="s" s="78">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F6" t="s" s="78">
         <v>368</v>
@@ -17632,7 +17627,7 @@
         <v>482</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F7" t="s" s="104">
         <v>368</v>
@@ -17728,7 +17723,7 @@
         <v>482</v>
       </c>
       <c r="E8" t="s" s="78">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F8" t="s" s="78">
         <v>368</v>
